--- a/data_clean/Aker 14.01.2021.xlsx
+++ b/data_clean/Aker 14.01.2021.xlsx
@@ -1224,7 +1224,7 @@
         <v>0.8993131129339661</v>
       </c>
       <c r="K2">
-        <v>45.62283380616396</v>
+        <v>-0.04377166193836056</v>
       </c>
       <c r="L2">
         <v>-0.007684899851445538</v>
@@ -1254,13 +1254,13 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -1295,7 +1295,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="L3">
         <v>-0.01274470766878826</v>
@@ -1325,13 +1325,13 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="L4">
         <v>-0.038039534229309</v>
@@ -1396,13 +1396,13 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>0.9982617997058429</v>
+        <v>-0.001738200294157055</v>
       </c>
       <c r="V4">
-        <v>0.9982617997058429</v>
+        <v>-0.001738200294157055</v>
       </c>
       <c r="W4">
-        <v>0.9951845906902087</v>
+        <v>-0.004815409309791296</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -1437,7 +1437,7 @@
         <v>0.4543733434305188</v>
       </c>
       <c r="K5">
-        <v>31.24186409789118</v>
+        <v>-0.1875813590210882</v>
       </c>
       <c r="L5">
         <v>-0.03462747415641939</v>
@@ -1467,13 +1467,13 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>0.999732118939191</v>
+        <v>-0.0002678810608089943</v>
       </c>
       <c r="V5">
-        <v>0.999732118939191</v>
+        <v>-0.0002678810608089943</v>
       </c>
       <c r="W5">
-        <v>1.00241935483871</v>
+        <v>0.002419354838709697</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -1508,7 +1508,7 @@
         <v>0.6138025867394726</v>
       </c>
       <c r="K6">
-        <v>38.03455216784599</v>
+        <v>-0.1196544783215401</v>
       </c>
       <c r="L6">
         <v>-0.02787181177173897</v>
@@ -1538,13 +1538,13 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>1.000804505229284</v>
+        <v>0.0008045052292839916</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -1579,7 +1579,7 @@
         <v>0.5255967975599087</v>
       </c>
       <c r="K7">
-        <v>34.45188128347975</v>
+        <v>-0.1554811871652025</v>
       </c>
       <c r="L7">
         <v>-0.02337001804091738</v>
@@ -1609,13 +1609,13 @@
         <v>0</v>
       </c>
       <c r="U7">
-        <v>0.9998660235798499</v>
+        <v>-0.000133976420150117</v>
       </c>
       <c r="V7">
-        <v>0.9998660235798499</v>
+        <v>-0.000133976420150117</v>
       </c>
       <c r="W7">
-        <v>0.9991961414790996</v>
+        <v>-0.000803858520900369</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1650,7 +1650,7 @@
         <v>0.828131199148517</v>
       </c>
       <c r="K8">
-        <v>45.29933078841568</v>
+        <v>-0.04700669211584318</v>
       </c>
       <c r="L8">
         <v>-0.01828176645297584</v>
@@ -1680,13 +1680,13 @@
         <v>0</v>
       </c>
       <c r="U8">
-        <v>1.000133994372236</v>
+        <v>0.00013399437223649</v>
       </c>
       <c r="V8">
-        <v>1.000133994372236</v>
+        <v>0.00013399437223649</v>
       </c>
       <c r="W8">
-        <v>1.001609010458568</v>
+        <v>0.001609010458567983</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1721,7 +1721,7 @@
         <v>0.9873598315635739</v>
       </c>
       <c r="K9">
-        <v>49.68198591327869</v>
+        <v>-0.003180140867213133</v>
       </c>
       <c r="L9">
         <v>-0.01312161270897255</v>
@@ -1751,13 +1751,13 @@
         <v>0</v>
       </c>
       <c r="U9">
-        <v>1.000200964630225</v>
+        <v>0.000200964630225009</v>
       </c>
       <c r="V9">
-        <v>1.000200964630225</v>
+        <v>0.000200964630225009</v>
       </c>
       <c r="W9">
-        <v>1.000803212851406</v>
+        <v>0.0008032128514057213</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1792,7 +1792,7 @@
         <v>0.8456253405063678</v>
       </c>
       <c r="K10">
-        <v>45.81782239045121</v>
+        <v>-0.04182177609548793</v>
       </c>
       <c r="L10">
         <v>-0.009308124366071266</v>
@@ -1822,13 +1822,13 @@
         <v>-0.1666666666666288</v>
       </c>
       <c r="U10">
-        <v>1.000066974750519</v>
+        <v>6.697475051908874E-05</v>
       </c>
       <c r="V10">
-        <v>1.000066974750519</v>
+        <v>6.697475051908874E-05</v>
       </c>
       <c r="W10">
-        <v>0.9991974317817014</v>
+        <v>-0.0008025682182986049</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1863,7 +1863,7 @@
         <v>0.8456253405063678</v>
       </c>
       <c r="K11">
-        <v>45.81782239045121</v>
+        <v>-0.04182177609548793</v>
       </c>
       <c r="L11">
         <v>-0.006460820160752606</v>
@@ -1893,13 +1893,13 @@
         <v>-0.2625000000000455</v>
       </c>
       <c r="U11">
-        <v>1.000053576212162</v>
+        <v>5.357621216184327E-05</v>
       </c>
       <c r="V11">
-        <v>1.000053576212162</v>
+        <v>5.357621216184327E-05</v>
       </c>
       <c r="W11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1934,7 +1934,7 @@
         <v>1.004682375709544</v>
       </c>
       <c r="K12">
-        <v>50.11678597483269</v>
+        <v>0.001167859748326894</v>
       </c>
       <c r="L12">
         <v>-0.003824929203409618</v>
@@ -1964,13 +1964,13 @@
         <v>0.03977272727274794</v>
       </c>
       <c r="U12">
-        <v>1.000116887291429</v>
+        <v>0.000116887291429224</v>
       </c>
       <c r="V12">
-        <v>1.000116887291429</v>
+        <v>0.000116887291429224</v>
       </c>
       <c r="W12">
-        <v>1.000803212851406</v>
+        <v>0.0008032128514057213</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -2005,7 +2005,7 @@
         <v>0.8605943848047585</v>
       </c>
       <c r="K13">
-        <v>46.25373438902778</v>
+        <v>-0.03746265610972216</v>
       </c>
       <c r="L13">
         <v>-0.002006835608494827</v>
@@ -2035,13 +2035,13 @@
         <v>0.1458333333333712</v>
       </c>
       <c r="U13">
-        <v>1.000030435841247</v>
+        <v>3.043584124662324E-05</v>
       </c>
       <c r="V13">
-        <v>1.000030435841247</v>
+        <v>3.043584124662324E-05</v>
       </c>
       <c r="W13">
-        <v>0.9991974317817014</v>
+        <v>-0.0008025682182986049</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -2076,7 +2076,7 @@
         <v>1.162523776701062</v>
       </c>
       <c r="K14">
-        <v>53.75773386753214</v>
+        <v>0.03757733867532143</v>
       </c>
       <c r="L14">
         <v>9.849094448332656E-05</v>
@@ -2106,13 +2106,13 @@
         <v>0.2403846153846416</v>
       </c>
       <c r="U14">
-        <v>1.000149365197909</v>
+        <v>0.0001493651979089794</v>
       </c>
       <c r="V14">
-        <v>1.000149365197909</v>
+        <v>0.0001493651979089794</v>
       </c>
       <c r="W14">
-        <v>1.001606425702811</v>
+        <v>0.001606425702811221</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -2147,7 +2147,7 @@
         <v>1.162523776701062</v>
       </c>
       <c r="K15">
-        <v>53.75773386753214</v>
+        <v>0.03757733867532143</v>
       </c>
       <c r="L15">
         <v>0.002141595941756152</v>
@@ -2177,13 +2177,13 @@
         <v>0.4107142857143344</v>
       </c>
       <c r="U15">
-        <v>1.000128008192524</v>
+        <v>0.0001280081925243426</v>
       </c>
       <c r="V15">
-        <v>1.000128008192524</v>
+        <v>0.0001280081925243426</v>
       </c>
       <c r="W15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -2218,7 +2218,7 @@
         <v>1.329797678028654</v>
       </c>
       <c r="K16">
-        <v>57.07781798262651</v>
+        <v>0.07077817982626511</v>
       </c>
       <c r="L16">
         <v>0.004337266469441332</v>
@@ -2248,13 +2248,13 @@
         <v>0.4958333333332803</v>
       </c>
       <c r="U16">
-        <v>1.000164476829805</v>
+        <v>0.0001644768298048049</v>
       </c>
       <c r="V16">
-        <v>1.000164476829805</v>
+        <v>0.0001644768298048049</v>
       </c>
       <c r="W16">
-        <v>1.000801924619086</v>
+        <v>0.000801924619085792</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -2289,7 +2289,7 @@
         <v>1.329797678028654</v>
       </c>
       <c r="K17">
-        <v>57.07781798262651</v>
+        <v>0.07077817982626511</v>
       </c>
       <c r="L17">
         <v>0.00640519573224215</v>
@@ -2319,13 +2319,13 @@
         <v>0.53125</v>
       </c>
       <c r="U17">
-        <v>1.000143893558923</v>
+        <v>0.0001438935589226364</v>
       </c>
       <c r="V17">
-        <v>1.000053541789367</v>
+        <v>5.35417893665624E-05</v>
       </c>
       <c r="W17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -2360,7 +2360,7 @@
         <v>1.515142721050917</v>
       </c>
       <c r="K18">
-        <v>60.24082483946819</v>
+        <v>0.1024082483946819</v>
       </c>
       <c r="L18">
         <v>0.008558209893724654</v>
@@ -2390,13 +2390,13 @@
         <v>0.71875</v>
       </c>
       <c r="U18">
-        <v>1.000174182596502</v>
+        <v>0.0001741825965015931</v>
       </c>
       <c r="V18">
-        <v>1.000160616768391</v>
+        <v>0.0001606167683907422</v>
       </c>
       <c r="W18">
-        <v>1.000801282051282</v>
+        <v>0.0008012820512821595</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -2431,7 +2431,7 @@
         <v>2.490642947483877</v>
       </c>
       <c r="K19">
-        <v>71.35198257040815</v>
+        <v>0.2135198257040816</v>
       </c>
       <c r="L19">
         <v>0.01225419363227863</v>
@@ -2461,13 +2461,13 @@
         <v>1.03125</v>
       </c>
       <c r="U19">
-        <v>1.000377821856995</v>
+        <v>0.0003778218569945313</v>
       </c>
       <c r="V19">
-        <v>1.000749424549007</v>
+        <v>0.0007494245490069495</v>
       </c>
       <c r="W19">
-        <v>1.00400320256205</v>
+        <v>0.004003202562049557</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -2502,7 +2502,7 @@
         <v>3.312116822374791</v>
       </c>
       <c r="K20">
-        <v>76.80953366543361</v>
+        <v>0.268095336654336</v>
       </c>
       <c r="L20">
         <v>0.0178028071849343</v>
@@ -2532,13 +2532,13 @@
         <v>1.21875</v>
       </c>
       <c r="U20">
-        <v>1.000506885190504</v>
+        <v>0.000506885190504347</v>
       </c>
       <c r="V20">
-        <v>1.000802353570473</v>
+        <v>0.0008023535704733131</v>
       </c>
       <c r="W20">
-        <v>1.003189792663477</v>
+        <v>0.003189792663476965</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -2573,7 +2573,7 @@
         <v>3.312116822374791</v>
       </c>
       <c r="K21">
-        <v>76.80953366543361</v>
+        <v>0.268095336654336</v>
       </c>
       <c r="L21">
         <v>0.02390902418889254</v>
@@ -2603,13 +2603,13 @@
         <v>1.5625</v>
       </c>
       <c r="U21">
-        <v>1.00045596554927</v>
+        <v>0.0004559655492697434</v>
       </c>
       <c r="V21">
-        <v>1.000748262960983</v>
+        <v>0.0007482629609834035</v>
       </c>
       <c r="W21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2644,7 +2644,7 @@
         <v>1.96837533967148</v>
       </c>
       <c r="K22">
-        <v>66.31153794349089</v>
+        <v>0.1631153794349089</v>
       </c>
       <c r="L22">
         <v>0.02883245888083641</v>
@@ -2674,13 +2674,13 @@
         <v>1.71875</v>
       </c>
       <c r="U22">
-        <v>1.000297809951434</v>
+        <v>0.0002978099514341359</v>
       </c>
       <c r="V22">
-        <v>1.000640888698996</v>
+        <v>0.0006408886989959228</v>
       </c>
       <c r="W22">
-        <v>0.9976152623211447</v>
+        <v>-0.002384737678855275</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2715,7 +2715,7 @@
         <v>2.110727878796886</v>
       </c>
       <c r="K23">
-        <v>67.85318295386342</v>
+        <v>0.1785318295386342</v>
       </c>
       <c r="L23">
         <v>0.03292647803934264</v>
@@ -2745,13 +2745,13 @@
         <v>1.875</v>
       </c>
       <c r="U23">
-        <v>1.000307090138763</v>
+        <v>0.0003070901387629554</v>
       </c>
       <c r="V23">
-        <v>1.000587105038429</v>
+        <v>0.0005871050384287368</v>
       </c>
       <c r="W23">
-        <v>1.000796812749004</v>
+        <v>0.0007968127490038945</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2786,7 +2786,7 @@
         <v>1.835663316590542</v>
       </c>
       <c r="K24">
-        <v>64.73488251763438</v>
+        <v>0.1473488251763437</v>
       </c>
       <c r="L24">
         <v>0.03581120845204206</v>
@@ -2816,13 +2816,13 @@
         <v>2</v>
       </c>
       <c r="U24">
-        <v>1.000245460951913</v>
+        <v>0.0002454609519133566</v>
       </c>
       <c r="V24">
-        <v>1.00048007681229</v>
+        <v>0.00048007681229012</v>
       </c>
       <c r="W24">
-        <v>0.9992038216560509</v>
+        <v>-0.0007961783439490722</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2857,7 +2857,7 @@
         <v>1.614229444203057</v>
       </c>
       <c r="K25">
-        <v>61.74781053677376</v>
+        <v>0.1174781053677375</v>
       </c>
       <c r="L25">
         <v>0.03734239442154487</v>
@@ -2887,13 +2887,13 @@
         <v>2.125</v>
       </c>
       <c r="U25">
-        <v>1.000191570881226</v>
+        <v>0.0001915708812258998</v>
       </c>
       <c r="V25">
-        <v>1.000479846449136</v>
+        <v>0.0004798464491362342</v>
       </c>
       <c r="W25">
-        <v>0.999203187250996</v>
+        <v>-0.0007968127490040056</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2928,7 +2928,7 @@
         <v>1.432352618137806</v>
       </c>
       <c r="K26">
-        <v>58.88753988450927</v>
+        <v>0.08887539884509266</v>
       </c>
       <c r="L26">
         <v>0.0375240723601671</v>
@@ -2958,13 +2958,13 @@
         <v>2.125</v>
       </c>
       <c r="U26">
-        <v>1.000144173007609</v>
+        <v>0.0001441730076092718</v>
       </c>
       <c r="V26">
-        <v>1.000426325606182</v>
+        <v>0.0004263256061816101</v>
       </c>
       <c r="W26">
-        <v>0.9992025518341308</v>
+        <v>-0.0007974481658692412</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2999,7 +2999,7 @@
         <v>1.157735378644203</v>
       </c>
       <c r="K27">
-        <v>53.65511406554669</v>
+        <v>0.03655114065546694</v>
       </c>
       <c r="L27">
         <v>0.03614624363199476</v>
@@ -3029,13 +3029,13 @@
         <v>1.75</v>
       </c>
       <c r="U27">
-        <v>1.000071460077226</v>
+        <v>7.146007722602654E-05</v>
       </c>
       <c r="V27">
-        <v>1.00026633995632</v>
+        <v>0.000266339956320083</v>
       </c>
       <c r="W27">
-        <v>0.9984038308060654</v>
+        <v>-0.001596169193934571</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -3070,7 +3070,7 @@
         <v>1.051618943759914</v>
       </c>
       <c r="K28">
-        <v>51.25800514556846</v>
+        <v>0.01258005145568464</v>
       </c>
       <c r="L28">
         <v>0.03349772954929778</v>
@@ -3100,13 +3100,13 @@
         <v>1.125</v>
       </c>
       <c r="U28">
-        <v>1.000036503178058</v>
+        <v>3.650317805803382E-05</v>
       </c>
       <c r="V28">
-        <v>1.000266269038236</v>
+        <v>0.0002662690382364552</v>
       </c>
       <c r="W28">
-        <v>0.9992006394884093</v>
+        <v>-0.0007993605115906854</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -3141,7 +3141,7 @@
         <v>0.8815166217413737</v>
       </c>
       <c r="K29">
-        <v>46.8513863526497</v>
+        <v>-0.03148613647350296</v>
       </c>
       <c r="L29">
         <v>0.02954322577678278</v>
@@ -3171,13 +3171,13 @@
         <v>0.40625</v>
       </c>
       <c r="U29">
-        <v>0.9999766974824807</v>
+        <v>-2.33025175192525E-05</v>
       </c>
       <c r="V29">
-        <v>1.000053239631582</v>
+        <v>5.323963158176959E-05</v>
       </c>
       <c r="W29">
-        <v>0.9984</v>
+        <v>-0.001600000000000046</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -3212,7 +3212,7 @@
         <v>0.8123580921095904</v>
       </c>
       <c r="K30">
-        <v>44.82326619923125</v>
+        <v>-0.05176733800768751</v>
       </c>
       <c r="L30">
         <v>0.02466150223009296</v>
@@ -3242,13 +3242,13 @@
         <v>-0.09375</v>
       </c>
       <c r="U30">
-        <v>0.9999506910161003</v>
+        <v>-4.93089838996541E-05</v>
       </c>
       <c r="V30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W30">
-        <v>0.999198717948718</v>
+        <v>-0.0008012820512820484</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -3283,7 +3283,7 @@
         <v>0.8123580921095904</v>
       </c>
       <c r="K31">
-        <v>44.82326619923125</v>
+        <v>-0.05176733800768751</v>
       </c>
       <c r="L31">
         <v>0.01945351501360807</v>
@@ -3313,13 +3313,13 @@
         <v>-0.65625</v>
       </c>
       <c r="U31">
-        <v>0.9999539760122977</v>
+        <v>-4.602398770225946E-05</v>
       </c>
       <c r="V31">
-        <v>0.9999467632027258</v>
+        <v>-5.323679727420316E-05</v>
       </c>
       <c r="W31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -3354,7 +3354,7 @@
         <v>0.7473879073643686</v>
       </c>
       <c r="K32">
-        <v>42.771722535935</v>
+        <v>-0.07228277464065003</v>
       </c>
       <c r="L32">
         <v>0.01402089076578618</v>
@@ -3384,13 +3384,13 @@
         <v>-1.15625</v>
       </c>
       <c r="U32">
-        <v>0.9999733048585158</v>
+        <v>-2.669514148423424E-05</v>
       </c>
       <c r="V32">
-        <v>0.9998935207368365</v>
+        <v>-0.0001064792631635392</v>
       </c>
       <c r="W32">
-        <v>0.9991980753809142</v>
+        <v>-0.000801924619085792</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -3425,7 +3425,7 @@
         <v>0.5259839131110653</v>
       </c>
       <c r="K33">
-        <v>34.46850969999595</v>
+        <v>-0.1553149030000405</v>
       </c>
       <c r="L33">
         <v>0.007276353293855093</v>
@@ -3455,13 +3455,13 @@
         <v>-1.75</v>
       </c>
       <c r="U33">
-        <v>0.9998665207293307</v>
+        <v>-0.0001334792706693122</v>
       </c>
       <c r="V33">
-        <v>0.9995740375911826</v>
+        <v>-0.0004259624088174263</v>
       </c>
       <c r="W33">
-        <v>0.9959871589085072</v>
+        <v>-0.004012841091492803</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -3496,7 +3496,7 @@
         <v>0.4951062661077729</v>
       </c>
       <c r="K34">
-        <v>33.11512213755138</v>
+        <v>-0.1688487786244862</v>
       </c>
       <c r="L34">
         <v>-0.0001416631670351787</v>
@@ -3526,13 +3526,13 @@
         <v>-2.28125</v>
       </c>
       <c r="U34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V34">
-        <v>0.9992542481223032</v>
+        <v>-0.0007457518776967653</v>
       </c>
       <c r="W34">
-        <v>0.9991941982272361</v>
+        <v>-0.0008058017727639033</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -3567,7 +3567,7 @@
         <v>0.4662920916806289</v>
       </c>
       <c r="K35">
-        <v>31.80076427652121</v>
+        <v>-0.1819923572347879</v>
       </c>
       <c r="L35">
         <v>-0.007780500873073059</v>
@@ -3597,13 +3597,13 @@
         <v>-2.5625</v>
       </c>
       <c r="U35">
-        <v>0.9998932023281891</v>
+        <v>-0.0001067976718108765</v>
       </c>
       <c r="V35">
-        <v>0.9989871528333067</v>
+        <v>-0.001012847166693254</v>
       </c>
       <c r="W35">
-        <v>0.9991935483870967</v>
+        <v>-0.0008064516129032695</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -3638,7 +3638,7 @@
         <v>0.5888141116976696</v>
       </c>
       <c r="K36">
-        <v>37.0599749437342</v>
+        <v>-0.129400250562658</v>
       </c>
       <c r="L36">
         <v>-0.01444513096705432</v>
@@ -3668,13 +3668,13 @@
         <v>-2.59375</v>
       </c>
       <c r="U36">
-        <v>0.9999198931909213</v>
+        <v>-8.010680907866163E-05</v>
       </c>
       <c r="V36">
-        <v>0.999092849519744</v>
+        <v>-0.0009071504802560248</v>
       </c>
       <c r="W36">
-        <v>1.001614205004036</v>
+        <v>0.001614205004035529</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3709,7 +3709,7 @@
         <v>0.521549577232828</v>
       </c>
       <c r="K37">
-        <v>34.27752766238127</v>
+        <v>-0.1572247233761873</v>
       </c>
       <c r="L37">
         <v>-0.02062937285369474</v>
@@ -3739,13 +3739,13 @@
         <v>-2.5625</v>
       </c>
       <c r="U37">
-        <v>0.9998931823644083</v>
+        <v>-0.0001068176355917272</v>
       </c>
       <c r="V37">
-        <v>0.999145436094643</v>
+        <v>-0.0008545639053569865</v>
       </c>
       <c r="W37">
-        <v>0.9983883964544722</v>
+        <v>-0.001611603545527807</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -3780,7 +3780,7 @@
         <v>0.6417993669614431</v>
       </c>
       <c r="K38">
-        <v>39.09121783554175</v>
+        <v>-0.1090878216445825</v>
       </c>
       <c r="L38">
         <v>-0.0254661587468788</v>
@@ -3810,13 +3810,13 @@
         <v>-2.5</v>
       </c>
       <c r="U38">
-        <v>0.9998931709531823</v>
+        <v>-0.0001068290468176913</v>
       </c>
       <c r="V38">
-        <v>0.9991981611161598</v>
+        <v>-0.0008018388838402224</v>
       </c>
       <c r="W38">
-        <v>1.001614205004036</v>
+        <v>0.001614205004035529</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -3851,7 +3851,7 @@
         <v>0.6417993669614431</v>
       </c>
       <c r="K39">
-        <v>39.09121783554175</v>
+        <v>-0.1090878216445825</v>
       </c>
       <c r="L39">
         <v>-0.02908712643793539</v>
@@ -3881,13 +3881,13 @@
         <v>-2.40625</v>
       </c>
       <c r="U39">
-        <v>0.999866449424397</v>
+        <v>-0.0001335505756030475</v>
       </c>
       <c r="V39">
-        <v>0.9992510164776375</v>
+        <v>-0.000748983522362523</v>
       </c>
       <c r="W39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -3922,7 +3922,7 @@
         <v>0.506757779349101</v>
       </c>
       <c r="K40">
-        <v>33.63233203733739</v>
+        <v>-0.1636766796266261</v>
       </c>
       <c r="L40">
         <v>-0.03280788335461895</v>
@@ -3952,13 +3952,13 @@
         <v>-2.40625</v>
       </c>
       <c r="U40">
-        <v>0.9997862905380136</v>
+        <v>-0.0002137094619864</v>
       </c>
       <c r="V40">
-        <v>0.999089838312453</v>
+        <v>-0.0009101616875469842</v>
       </c>
       <c r="W40">
-        <v>0.9967767929089444</v>
+        <v>-0.003223207091055613</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -3993,7 +3993,7 @@
         <v>0.4345697193882036</v>
       </c>
       <c r="K41">
-        <v>30.29268731348472</v>
+        <v>-0.1970731268651528</v>
       </c>
       <c r="L41">
         <v>-0.03711126314409544</v>
@@ -4023,13 +4023,13 @@
         <v>-2.21875</v>
       </c>
       <c r="U41">
-        <v>0.9997060866777108</v>
+        <v>-0.0002939133222892298</v>
       </c>
       <c r="V41">
-        <v>0.9989818337709662</v>
+        <v>-0.001018166229033834</v>
       </c>
       <c r="W41">
-        <v>0.9975747776879548</v>
+        <v>-0.002425222312045228</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -4064,7 +4064,7 @@
         <v>0.5345352053782269</v>
       </c>
       <c r="K42">
-        <v>34.83368797957793</v>
+        <v>-0.1516631202042207</v>
       </c>
       <c r="L42">
         <v>-0.04077338038087334</v>
@@ -4094,13 +4094,13 @@
         <v>-1.9375</v>
       </c>
       <c r="U42">
-        <v>0.9997327275157022</v>
+        <v>-0.0002672724842978091</v>
       </c>
       <c r="V42">
-        <v>0.9991953653041519</v>
+        <v>-0.0008046346958481276</v>
       </c>
       <c r="W42">
-        <v>1.00162074554295</v>
+        <v>0.001620745542949775</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -4135,7 +4135,7 @@
         <v>0.5345352053782269</v>
       </c>
       <c r="K43">
-        <v>34.83368797957793</v>
+        <v>-0.1516631202042207</v>
       </c>
       <c r="L43">
         <v>-0.04366663464554654</v>
@@ -4165,13 +4165,13 @@
         <v>-1.65625</v>
       </c>
       <c r="U43">
-        <v>0.9997593904558214</v>
+        <v>-0.0002406095441785938</v>
       </c>
       <c r="V43">
-        <v>0.9992484028560691</v>
+        <v>-0.0007515971439309155</v>
       </c>
       <c r="W43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -4206,7 +4206,7 @@
         <v>0.4812315532014744</v>
       </c>
       <c r="K44">
-        <v>32.48861072135277</v>
+        <v>-0.1751138927864723</v>
       </c>
       <c r="L44">
         <v>-0.04633768629890739</v>
@@ -4236,13 +4236,13 @@
         <v>-1.59375</v>
       </c>
       <c r="U44">
-        <v>0.9996523692373516</v>
+        <v>-0.0003476307626484321</v>
       </c>
       <c r="V44">
-        <v>0.9992478375329072</v>
+        <v>-0.000752162467092754</v>
       </c>
       <c r="W44">
-        <v>0.9983818770226537</v>
+        <v>-0.001618122977346315</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -4277,7 +4277,7 @@
         <v>0.4572340732102614</v>
       </c>
       <c r="K45">
-        <v>31.37684477847698</v>
+        <v>-0.1862315522152302</v>
       </c>
       <c r="L45">
         <v>-0.04882966985852143</v>
@@ -4307,13 +4307,13 @@
         <v>-1.5</v>
       </c>
       <c r="U45">
-        <v>0.9996254982211167</v>
+        <v>-0.0003745017788833183</v>
       </c>
       <c r="V45">
-        <v>0.9992472713586752</v>
+        <v>-0.0007527286413248069</v>
       </c>
       <c r="W45">
-        <v>0.9991896272285251</v>
+        <v>-0.0008103727714748876</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -4348,7 +4348,7 @@
         <v>0.5097254468241872</v>
       </c>
       <c r="K46">
-        <v>33.76279096947265</v>
+        <v>-0.1623720903052736</v>
       </c>
       <c r="L46">
         <v>-0.05058563706445168</v>
@@ -4378,13 +4378,13 @@
         <v>-1.53125</v>
       </c>
       <c r="U46">
-        <v>0.99962535791699</v>
+        <v>-0.0003746420830099684</v>
       </c>
       <c r="V46">
-        <v>0.999300511164918</v>
+        <v>-0.0006994888350819739</v>
       </c>
       <c r="W46">
-        <v>1.00081103000811</v>
+        <v>0.0008110300081103361</v>
       </c>
     </row>
     <row r="47" spans="1:23">
@@ -4419,7 +4419,7 @@
         <v>0.5649795243125303</v>
       </c>
       <c r="K47">
-        <v>36.10140040399037</v>
+        <v>-0.1389859959600963</v>
       </c>
       <c r="L47">
         <v>-0.05130815141497497</v>
@@ -4449,13 +4449,13 @@
         <v>-1.53125</v>
       </c>
       <c r="U47">
-        <v>0.9996519876857181</v>
+        <v>-0.0003480123142819425</v>
       </c>
       <c r="V47">
-        <v>0.9994077105319836</v>
+        <v>-0.0005922894680163715</v>
       </c>
       <c r="W47">
-        <v>1.000810372771475</v>
+        <v>0.0008103727714747766</v>
       </c>
     </row>
     <row r="48" spans="1:23">
@@ -4490,7 +4490,7 @@
         <v>0.5061069503126103</v>
       </c>
       <c r="K48">
-        <v>33.60365279554429</v>
+        <v>-0.1639634720445571</v>
       </c>
       <c r="L48">
         <v>-0.05175853676491666</v>
@@ -4520,13 +4520,13 @@
         <v>-1.375</v>
       </c>
       <c r="U48">
-        <v>0.999571528038134</v>
+        <v>-0.0004284719618660171</v>
       </c>
       <c r="V48">
-        <v>0.9995689887398307</v>
+        <v>-0.0004310112601693117</v>
       </c>
       <c r="W48">
-        <v>0.9983805668016195</v>
+        <v>-0.001619433198380538</v>
       </c>
     </row>
     <row r="49" spans="1:23">
@@ -4561,7 +4561,7 @@
         <v>0.6157943422612623</v>
       </c>
       <c r="K49">
-        <v>38.11093566520811</v>
+        <v>-0.1188906433479189</v>
       </c>
       <c r="L49">
         <v>-0.05124198751018165</v>
@@ -4591,13 +4591,13 @@
         <v>-1.125</v>
       </c>
       <c r="U49">
-        <v>0.9994909714408187</v>
+        <v>-0.0005090285591813348</v>
       </c>
       <c r="V49">
-        <v>0.9997305018056379</v>
+        <v>-0.0002694981943620611</v>
       </c>
       <c r="W49">
-        <v>1.001622060016221</v>
+        <v>0.001622060016220672</v>
       </c>
     </row>
     <row r="50" spans="1:23">
@@ -4632,7 +4632,7 @@
         <v>0.5520539638321431</v>
       </c>
       <c r="K50">
-        <v>35.56925059932057</v>
+        <v>-0.1443074940067943</v>
       </c>
       <c r="L50">
         <v>-0.05057265159939324</v>
@@ -4662,13 +4662,13 @@
         <v>-1.09375</v>
       </c>
       <c r="U50">
-        <v>0.999329884472083</v>
+        <v>-0.0006701155279169591</v>
       </c>
       <c r="V50">
-        <v>0.999676514988139</v>
+        <v>-0.0003234850118609689</v>
       </c>
       <c r="W50">
-        <v>0.9983805668016195</v>
+        <v>-0.001619433198380538</v>
       </c>
     </row>
     <row r="51" spans="1:23">
@@ -4703,7 +4703,7 @@
         <v>0.5520539638321431</v>
       </c>
       <c r="K51">
-        <v>35.56925059932057</v>
+        <v>-0.1443074940067943</v>
       </c>
       <c r="L51">
         <v>-0.04967016977153704</v>
@@ -4733,13 +4733,13 @@
         <v>-1.09375</v>
       </c>
       <c r="U51">
-        <v>0.9993294351161419</v>
+        <v>-0.0006705648838580824</v>
       </c>
       <c r="V51">
-        <v>0.9995685470822995</v>
+        <v>-0.0004314529177005255</v>
       </c>
       <c r="W51">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:23">
@@ -4774,7 +4774,7 @@
         <v>0.666745595836846</v>
       </c>
       <c r="K52">
-        <v>40.00284131556885</v>
+        <v>-0.09997158684431151</v>
       </c>
       <c r="L52">
         <v>-0.04791691636622798</v>
@@ -4804,13 +4804,13 @@
         <v>-0.84375</v>
       </c>
       <c r="U52">
-        <v>0.9994631881257213</v>
+        <v>-0.0005368118742786754</v>
       </c>
       <c r="V52">
-        <v>0.9997841804251646</v>
+        <v>-0.0002158195748354075</v>
       </c>
       <c r="W52">
-        <v>1.001622060016221</v>
+        <v>0.001622060016220672</v>
       </c>
     </row>
     <row r="53" spans="1:23">
@@ -4845,7 +4845,7 @@
         <v>0.5645161996776967</v>
       </c>
       <c r="K53">
-        <v>36.08247711298814</v>
+        <v>-0.1391752288701186</v>
       </c>
       <c r="L53">
         <v>-0.04646582879085148</v>
@@ -4875,13 +4875,13 @@
         <v>-0.6875</v>
       </c>
       <c r="U53">
-        <v>0.9993554797647501</v>
+        <v>-0.0006445202352498569</v>
       </c>
       <c r="V53">
-        <v>0.9995143011332974</v>
+        <v>-0.0004856988667025774</v>
       </c>
       <c r="W53">
-        <v>0.9975708502024292</v>
+        <v>-0.002429149797570807</v>
       </c>
     </row>
     <row r="54" spans="1:23">
@@ -4916,7 +4916,7 @@
         <v>0.5645161996776968</v>
       </c>
       <c r="K54">
-        <v>36.08247711298814</v>
+        <v>-0.1391752288701186</v>
       </c>
       <c r="L54">
         <v>-0.045121981652273</v>
@@ -4946,13 +4946,13 @@
         <v>-0.53125</v>
       </c>
       <c r="U54">
-        <v>0.9993819364200682</v>
+        <v>-0.0006180635799317713</v>
       </c>
       <c r="V54">
-        <v>0.9995140651152746</v>
+        <v>-0.0004859348847253697</v>
       </c>
       <c r="W54">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:23">
@@ -4987,7 +4987,7 @@
         <v>0.6211462796055789</v>
       </c>
       <c r="K55">
-        <v>38.31525183259232</v>
+        <v>-0.1168474816740768</v>
       </c>
       <c r="L55">
         <v>-0.04347136363569806</v>
@@ -5017,13 +5017,13 @@
         <v>-0.40625</v>
       </c>
       <c r="U55">
-        <v>0.9994353320785156</v>
+        <v>-0.000564667921484352</v>
       </c>
       <c r="V55">
-        <v>0.9997839239412272</v>
+        <v>-0.0002160760587728294</v>
       </c>
       <c r="W55">
-        <v>1.000811688311688</v>
+        <v>0.0008116883116882079</v>
       </c>
     </row>
     <row r="56" spans="1:23">
@@ -5058,7 +5058,7 @@
         <v>0.7403675005063833</v>
       </c>
       <c r="K56">
-        <v>42.54087141313335</v>
+        <v>-0.07459128586866653</v>
       </c>
       <c r="L56">
         <v>-0.04099413818243783</v>
@@ -5088,13 +5088,13 @@
         <v>-0.21875</v>
       </c>
       <c r="U56">
-        <v>0.9995157254701498</v>
+        <v>-0.000484274529850226</v>
       </c>
       <c r="V56">
-        <v>1.000054030689432</v>
+        <v>5.403068943166112E-05</v>
       </c>
       <c r="W56">
-        <v>1.001622060016221</v>
+        <v>0.001622060016220672</v>
       </c>
     </row>
     <row r="57" spans="1:23">
@@ -5129,7 +5129,7 @@
         <v>0.8031155115068066</v>
       </c>
       <c r="K57">
-        <v>44.54043606089709</v>
+        <v>-0.05459563939102913</v>
       </c>
       <c r="L57">
         <v>-0.03773001600218197</v>
@@ -5159,13 +5159,13 @@
         <v>-0.21875</v>
       </c>
       <c r="U57">
-        <v>0.9995962423622513</v>
+        <v>-0.0004037576377486918</v>
       </c>
       <c r="V57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W57">
-        <v>1.00080971659919</v>
+        <v>0.0008097165991902688</v>
       </c>
     </row>
     <row r="58" spans="1:23">
@@ -5200,7 +5200,7 @@
         <v>0.7094026573078903</v>
       </c>
       <c r="K58">
-        <v>41.50003243970129</v>
+        <v>-0.08499967560298716</v>
       </c>
       <c r="L58">
         <v>-0.03464706313645641</v>
@@ -5230,13 +5230,13 @@
         <v>-0.09375</v>
       </c>
       <c r="U58">
-        <v>0.999569151227919</v>
+        <v>-0.0004308487720809939</v>
       </c>
       <c r="V58">
-        <v>0.9998919444594521</v>
+        <v>-0.0001080555405479355</v>
       </c>
       <c r="W58">
-        <v>0.9983818770226537</v>
+        <v>-0.001618122977346315</v>
       </c>
     </row>
     <row r="59" spans="1:23">
@@ -5271,7 +5271,7 @@
         <v>0.7094026573078904</v>
       </c>
       <c r="K59">
-        <v>41.50003243970129</v>
+        <v>-0.08499967560298705</v>
       </c>
       <c r="L59">
         <v>-0.03174413474741622</v>
@@ -5301,13 +5301,13 @@
         <v>0.03125</v>
       </c>
       <c r="U59">
-        <v>0.9996228448275862</v>
+        <v>-0.0003771551724137678</v>
       </c>
       <c r="V59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W59">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:23">
@@ -5342,7 +5342,7 @@
         <v>0.7740489977616481</v>
       </c>
       <c r="K60">
-        <v>43.63177109190787</v>
+        <v>-0.06368228908092127</v>
       </c>
       <c r="L60">
         <v>-0.0287253606088336</v>
@@ -5372,13 +5372,13 @@
         <v>0</v>
       </c>
       <c r="U60">
-        <v>0.9996766021667656</v>
+        <v>-0.0003233978332344289</v>
       </c>
       <c r="V60">
-        <v>1.00010806721781</v>
+        <v>0.0001080672178095377</v>
       </c>
       <c r="W60">
-        <v>1.000810372771475</v>
+        <v>0.0008103727714747766</v>
       </c>
     </row>
     <row r="61" spans="1:23">
@@ -5413,7 +5413,7 @@
         <v>0.7247318780499548</v>
       </c>
       <c r="K61">
-        <v>42.01997349694512</v>
+        <v>-0.07980026503054882</v>
       </c>
       <c r="L61">
         <v>-0.02601822330135546</v>
@@ -5443,13 +5443,13 @@
         <v>0.09375</v>
       </c>
       <c r="U61">
-        <v>0.9996495390090041</v>
+        <v>-0.0003504609909958933</v>
       </c>
       <c r="V61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W61">
-        <v>0.9991902834008097</v>
+        <v>-0.0008097165991902688</v>
       </c>
     </row>
     <row r="62" spans="1:23">
@@ -5484,7 +5484,7 @@
         <v>0.8588648792976138</v>
       </c>
       <c r="K62">
-        <v>46.20372835394805</v>
+        <v>-0.03796271646051946</v>
       </c>
       <c r="L62">
         <v>-0.02298884147780935</v>
@@ -5514,13 +5514,13 @@
         <v>0.28125</v>
       </c>
       <c r="U62">
-        <v>0.9997303201100295</v>
+        <v>-0.0002696798899705088</v>
       </c>
       <c r="V62">
-        <v>1.000054027770274</v>
+        <v>5.402777027385675E-05</v>
       </c>
       <c r="W62">
-        <v>1.00162074554295</v>
+        <v>0.001620745542949775</v>
       </c>
     </row>
     <row r="63" spans="1:23">
@@ -5555,7 +5555,7 @@
         <v>0.8588648792976137</v>
       </c>
       <c r="K63">
-        <v>46.20372835394804</v>
+        <v>-0.03796271646051957</v>
       </c>
       <c r="L63">
         <v>-0.01987314742362303</v>
@@ -5585,13 +5585,13 @@
         <v>0.4375</v>
       </c>
       <c r="U63">
-        <v>0.999865123681584</v>
+        <v>-0.0001348763184160218</v>
       </c>
       <c r="V63">
-        <v>1.000162074554295</v>
+        <v>0.0001620745542949553</v>
       </c>
       <c r="W63">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:23">
@@ -5626,7 +5626,7 @@
         <v>1.007488703394743</v>
       </c>
       <c r="K64">
-        <v>50.1865191914176</v>
+        <v>0.001865191914176001</v>
       </c>
       <c r="L64">
         <v>-0.0162419955192477</v>
@@ -5656,13 +5656,13 @@
         <v>0.46875</v>
       </c>
       <c r="U64">
-        <v>0.9999460421950036</v>
+        <v>-5.395780499639624E-05</v>
       </c>
       <c r="V64">
-        <v>1.000162048290391</v>
+        <v>0.0001620482903905707</v>
       </c>
       <c r="W64">
-        <v>1.001618122977346</v>
+        <v>0.001618122977346204</v>
       </c>
     </row>
     <row r="65" spans="1:23">
@@ -5697,7 +5697,7 @@
         <v>0.9343972836465726</v>
       </c>
       <c r="K65">
-        <v>48.30431119532596</v>
+        <v>-0.01695688804674039</v>
       </c>
       <c r="L65">
         <v>-0.01276493625333237</v>
@@ -5727,13 +5727,13 @@
         <v>0.46875</v>
       </c>
       <c r="U65">
-        <v>0.9999460392834018</v>
+        <v>-5.396071659824475E-05</v>
       </c>
       <c r="V65">
-        <v>1.000216029379996</v>
+        <v>0.0002160293799957635</v>
       </c>
       <c r="W65">
-        <v>0.9991922455573505</v>
+        <v>-0.0008077544426494665</v>
       </c>
     </row>
     <row r="66" spans="1:23">
@@ -5768,7 +5768,7 @@
         <v>1.08713018540076</v>
       </c>
       <c r="K66">
-        <v>52.08732033129092</v>
+        <v>0.02087320331290921</v>
       </c>
       <c r="L66">
         <v>-0.008966993528538263</v>
@@ -5798,13 +5798,13 @@
         <v>0.59375</v>
       </c>
       <c r="U66">
-        <v>0.9999460363714855</v>
+        <v>-5.396362851450842E-05</v>
       </c>
       <c r="V66">
-        <v>1.000323974082073</v>
+        <v>0.0003239740820732973</v>
       </c>
       <c r="W66">
-        <v>1.001616814874697</v>
+        <v>0.001616814874696892</v>
       </c>
     </row>
     <row r="67" spans="1:23">
@@ -5839,7 +5839,7 @@
         <v>0.9365583220450059</v>
       </c>
       <c r="K67">
-        <v>48.36199929450099</v>
+        <v>-0.0163800070549901</v>
       </c>
       <c r="L67">
         <v>-0.005773138634795564</v>
@@ -5869,13 +5869,13 @@
         <v>0.65625</v>
       </c>
       <c r="U67">
-        <v>0.9999460334592553</v>
+        <v>-5.396654074474316E-05</v>
       </c>
       <c r="V67">
-        <v>1.00010795638562</v>
+        <v>0.0001079563856203336</v>
       </c>
       <c r="W67">
-        <v>0.9983857949959645</v>
+        <v>-0.001614205004035529</v>
       </c>
     </row>
     <row r="68" spans="1:23">
@@ -5910,7 +5910,7 @@
         <v>0.7684956266622202</v>
       </c>
       <c r="K68">
-        <v>43.45476545580406</v>
+        <v>-0.06545234544195933</v>
       </c>
       <c r="L68">
         <v>-0.004011860081521858</v>
@@ -5940,13 +5940,13 @@
         <v>0.625</v>
       </c>
       <c r="U68">
-        <v>0.999811106913487</v>
+        <v>-0.0001888930865130423</v>
       </c>
       <c r="V68">
-        <v>1.000107944732297</v>
+        <v>0.0001079447322969163</v>
       </c>
       <c r="W68">
-        <v>0.9975747776879548</v>
+        <v>-0.002425222312045228</v>
       </c>
     </row>
     <row r="69" spans="1:23">
@@ -5981,7 +5981,7 @@
         <v>0.7229743408141853</v>
       </c>
       <c r="K69">
-        <v>41.9608303901117</v>
+        <v>-0.08039169609888303</v>
       </c>
       <c r="L69">
         <v>-0.00351096408945767</v>
@@ -6011,13 +6011,13 @@
         <v>0.53125</v>
       </c>
       <c r="U69">
-        <v>0.9997840814013117</v>
+        <v>-0.0002159185986883028</v>
       </c>
       <c r="V69">
-        <v>1.000053966540745</v>
+        <v>5.396654074485419E-05</v>
       </c>
       <c r="W69">
-        <v>0.9991896272285251</v>
+        <v>-0.0008103727714748876</v>
       </c>
     </row>
     <row r="70" spans="1:23">
@@ -6052,7 +6052,7 @@
         <v>0.9100299648235826</v>
       </c>
       <c r="K70">
-        <v>47.64480042634495</v>
+        <v>-0.02355199573655048</v>
       </c>
       <c r="L70">
         <v>-0.002908864522631992</v>
@@ -6082,13 +6082,13 @@
         <v>0.40625</v>
       </c>
       <c r="U70">
-        <v>0.9999730043463003</v>
+        <v>-2.69956536996796E-05</v>
       </c>
       <c r="V70">
-        <v>1.000161890885543</v>
+        <v>0.0001618908855429702</v>
       </c>
       <c r="W70">
-        <v>1.002433090024331</v>
+        <v>0.002433090024331008</v>
       </c>
     </row>
     <row r="71" spans="1:23">
@@ -6123,7 +6123,7 @@
         <v>0.9100299648235824</v>
       </c>
       <c r="K71">
-        <v>47.64480042634495</v>
+        <v>-0.02355199573655048</v>
       </c>
       <c r="L71">
         <v>-0.002273214867141262</v>
@@ -6153,13 +6153,13 @@
         <v>0.3125</v>
       </c>
       <c r="U71">
-        <v>1.000053992764969</v>
+        <v>5.399276496942385E-05</v>
       </c>
       <c r="V71">
-        <v>1.000053954893709</v>
+        <v>5.395489370907391E-05</v>
       </c>
       <c r="W71">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:23">
@@ -6194,7 +6194,7 @@
         <v>0.9791179145962131</v>
       </c>
       <c r="K72">
-        <v>49.47243958407482</v>
+        <v>-0.005275604159251823</v>
       </c>
       <c r="L72">
         <v>-0.001354773231264124</v>
@@ -6224,13 +6224,13 @@
         <v>0.1875</v>
       </c>
       <c r="U72">
-        <v>1.000026994924954</v>
+        <v>2.69949249540602E-05</v>
       </c>
       <c r="V72">
-        <v>1.000053951982735</v>
+        <v>5.395198273538959E-05</v>
       </c>
       <c r="W72">
-        <v>1.000809061488673</v>
+        <v>0.0008090614886731018</v>
       </c>
     </row>
     <row r="73" spans="1:23">
@@ -6265,7 +6265,7 @@
         <v>1.124566229907014</v>
       </c>
       <c r="K73">
-        <v>52.93156852804881</v>
+        <v>0.02931568528048811</v>
       </c>
       <c r="L73">
         <v>0.0002707924970149369</v>
@@ -6295,13 +6295,13 @@
         <v>0.21875</v>
       </c>
       <c r="U73">
-        <v>1.000080982588744</v>
+        <v>8.098258874356112E-05</v>
       </c>
       <c r="V73">
-        <v>1.00026974536038</v>
+        <v>0.000269745360379714</v>
       </c>
       <c r="W73">
-        <v>1.001616814874697</v>
+        <v>0.001616814874696892</v>
       </c>
     </row>
     <row r="74" spans="1:23">
@@ -6336,7 +6336,7 @@
         <v>1.044600257473953</v>
       </c>
       <c r="K74">
-        <v>51.0906840422943</v>
+        <v>0.01090684042294299</v>
       </c>
       <c r="L74">
         <v>0.001925467727853683</v>
@@ -6366,13 +6366,13 @@
         <v>0.03125</v>
       </c>
       <c r="U74">
-        <v>1.00010796804146</v>
+        <v>0.0001079680414597384</v>
       </c>
       <c r="V74">
-        <v>1.000215738093954</v>
+        <v>0.0002157380939540321</v>
       </c>
       <c r="W74">
-        <v>0.9991928974979822</v>
+        <v>-0.0008071025020177647</v>
       </c>
     </row>
     <row r="75" spans="1:23">
@@ -6407,7 +6407,7 @@
         <v>1.119451080471933</v>
       </c>
       <c r="K75">
-        <v>52.81797210543154</v>
+        <v>0.02817972105431532</v>
       </c>
       <c r="L75">
         <v>0.00377993236967823</v>
@@ -6437,13 +6437,13 @@
         <v>0</v>
       </c>
       <c r="U75">
-        <v>1.00016193457843</v>
+        <v>0.0001619345784302784</v>
       </c>
       <c r="V75">
-        <v>1.000215691561068</v>
+        <v>0.0002156915610675991</v>
       </c>
       <c r="W75">
-        <v>1.000807754442649</v>
+        <v>0.0008077544426494665</v>
       </c>
     </row>
     <row r="76" spans="1:23">
@@ -6478,7 +6478,7 @@
         <v>1.037691049842122</v>
       </c>
       <c r="K76">
-        <v>50.92484701851741</v>
+        <v>0.009248470185174162</v>
       </c>
       <c r="L76">
         <v>0.005328687525482676</v>
@@ -6508,13 +6508,13 @@
         <v>0.15625</v>
       </c>
       <c r="U76">
-        <v>1.000107938906579</v>
+        <v>0.0001079389065790082</v>
       </c>
       <c r="V76">
-        <v>1.000215645048251</v>
+        <v>0.0002156450482506678</v>
       </c>
       <c r="W76">
-        <v>0.9991928974979822</v>
+        <v>-0.0008071025020177647</v>
       </c>
     </row>
     <row r="77" spans="1:23">
@@ -6549,7 +6549,7 @@
         <v>0.9636089719248114</v>
       </c>
       <c r="K77">
-        <v>49.0733636738399</v>
+        <v>-0.009266363261601018</v>
       </c>
       <c r="L77">
         <v>0.006279375226983531</v>
@@ -6579,13 +6579,13 @@
         <v>0.3125</v>
       </c>
       <c r="U77">
-        <v>1.000053963628514</v>
+        <v>5.39636285143974E-05</v>
       </c>
       <c r="V77">
-        <v>1.000053899638873</v>
+        <v>5.389963887258986E-05</v>
       </c>
       <c r="W77">
-        <v>0.9991922455573505</v>
+        <v>-0.0008077544426494665</v>
       </c>
     </row>
     <row r="78" spans="1:23">
@@ -6620,7 +6620,7 @@
         <v>1.038757673131847</v>
       </c>
       <c r="K78">
-        <v>50.95052182126946</v>
+        <v>0.009505218212694566</v>
       </c>
       <c r="L78">
         <v>0.007078904433625045</v>
@@ -6650,13 +6650,13 @@
         <v>0.375</v>
       </c>
       <c r="U78">
-        <v>1.000134901791496</v>
+        <v>0.0001349017914957784</v>
       </c>
       <c r="V78">
-        <v>1.000107793467716</v>
+        <v>0.0001077934677158332</v>
       </c>
       <c r="W78">
-        <v>1.000808407437348</v>
+        <v>0.0008084074373484462</v>
       </c>
     </row>
     <row r="79" spans="1:23">
@@ -6691,7 +6691,7 @@
         <v>0.9626113639058885</v>
       </c>
       <c r="K79">
-        <v>49.04747733601973</v>
+        <v>-0.009525226639802709</v>
       </c>
       <c r="L79">
         <v>0.007415443721564796</v>
@@ -6721,13 +6721,13 @@
         <v>0.40625</v>
       </c>
       <c r="U79">
-        <v>1.000053953438183</v>
+        <v>5.395343818270781E-05</v>
       </c>
       <c r="V79">
-        <v>0.9999461090752317</v>
+        <v>-5.389092476826285E-05</v>
       </c>
       <c r="W79">
-        <v>0.9991922455573505</v>
+        <v>-0.0008077544426494665</v>
       </c>
     </row>
     <row r="80" spans="1:23">
@@ -6762,7 +6762,7 @@
         <v>1.039774702175027</v>
       </c>
       <c r="K80">
-        <v>50.97497782800755</v>
+        <v>0.009749778280075505</v>
       </c>
       <c r="L80">
         <v>0.007717655453413777</v>
@@ -6792,13 +6792,13 @@
         <v>0.46875</v>
       </c>
       <c r="U80">
-        <v>1.000134876318416</v>
+        <v>0.0001348763184159107</v>
       </c>
       <c r="V80">
-        <v>1.000053893829157</v>
+        <v>5.389382915654828E-05</v>
       </c>
       <c r="W80">
-        <v>1.000808407437348</v>
+        <v>0.0008084074373484462</v>
       </c>
     </row>
     <row r="81" spans="1:23">
@@ -6833,7 +6833,7 @@
         <v>1.202223835373212</v>
       </c>
       <c r="K81">
-        <v>54.59135515938463</v>
+        <v>0.04591355159384636</v>
       </c>
       <c r="L81">
         <v>0.008540795654053397</v>
@@ -6863,13 +6863,13 @@
         <v>0.4375</v>
       </c>
       <c r="U81">
-        <v>1.000188801380947</v>
+        <v>0.0001888013809472344</v>
       </c>
       <c r="V81">
-        <v>1.000053890924768</v>
+        <v>5.389092476848489E-05</v>
       </c>
       <c r="W81">
-        <v>1.001615508885299</v>
+        <v>0.001615508885298933</v>
       </c>
     </row>
     <row r="82" spans="1:23">
@@ -6904,7 +6904,7 @@
         <v>1.202223835373212</v>
       </c>
       <c r="K82">
-        <v>54.59135515938463</v>
+        <v>0.04591355159384625</v>
       </c>
       <c r="L82">
         <v>0.009595753559678483</v>
@@ -6934,13 +6934,13 @@
         <v>0.53125</v>
       </c>
       <c r="U82">
-        <v>1.000134832672653</v>
+        <v>0.0001348326726533511</v>
       </c>
       <c r="V82">
-        <v>1.000161664062079</v>
+        <v>0.0001616640620789589</v>
       </c>
       <c r="W82">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:23">
@@ -6975,7 +6975,7 @@
         <v>1.202223835373212</v>
       </c>
       <c r="K83">
-        <v>54.59135515938463</v>
+        <v>0.04591355159384625</v>
       </c>
       <c r="L83">
         <v>0.01068876619597723</v>
@@ -7005,13 +7005,13 @@
         <v>0.5</v>
       </c>
       <c r="U83">
-        <v>1.000215703192407</v>
+        <v>0.0002157031924072683</v>
       </c>
       <c r="V83">
-        <v>1.000323275862069</v>
+        <v>0.000323275862069039</v>
       </c>
       <c r="W83">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:23">
@@ -7046,7 +7046,7 @@
         <v>1.391696508588766</v>
       </c>
       <c r="K84">
-        <v>58.18867500918603</v>
+        <v>0.08188675009186031</v>
       </c>
       <c r="L84">
         <v>0.01228501938996263</v>
@@ -7076,13 +7076,13 @@
         <v>0.5</v>
       </c>
       <c r="U84">
-        <v>1.000269570843217</v>
+        <v>0.0002695708432174371</v>
       </c>
       <c r="V84">
-        <v>1.000484757082839</v>
+        <v>0.0004847570828394598</v>
       </c>
       <c r="W84">
-        <v>1.001612903225807</v>
+        <v>0.001612903225806539</v>
       </c>
     </row>
     <row r="85" spans="1:23">
@@ -7117,7 +7117,7 @@
         <v>1.391696508588766</v>
       </c>
       <c r="K85">
-        <v>58.18867500918601</v>
+        <v>0.08188675009186008</v>
       </c>
       <c r="L85">
         <v>0.01403924563855927</v>
@@ -7147,13 +7147,13 @@
         <v>0.53125</v>
       </c>
       <c r="U85">
-        <v>1.000242548374926</v>
+        <v>0.0002425483749259882</v>
       </c>
       <c r="V85">
-        <v>1.000323014804845</v>
+        <v>0.0003230148048452008</v>
       </c>
       <c r="W85">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:23">
@@ -7188,7 +7188,7 @@
         <v>1.259486896831118</v>
       </c>
       <c r="K86">
-        <v>55.74216423195555</v>
+        <v>0.05742164231955549</v>
       </c>
       <c r="L86">
         <v>0.01543140834243764</v>
@@ -7218,13 +7218,13 @@
         <v>0.5625</v>
       </c>
       <c r="U86">
-        <v>1.000161659706318</v>
+        <v>0.0001616597063180958</v>
       </c>
       <c r="V86">
-        <v>1.000269092083311</v>
+        <v>0.000269092083310829</v>
       </c>
       <c r="W86">
-        <v>0.999194847020934</v>
+        <v>-0.0008051529790660261</v>
       </c>
     </row>
     <row r="87" spans="1:23">
@@ -7259,7 +7259,7 @@
         <v>1.144989313507625</v>
       </c>
       <c r="K87">
-        <v>53.37972111549891</v>
+        <v>0.03379721115498913</v>
       </c>
       <c r="L87">
         <v>0.01616469250615667</v>
@@ -7289,13 +7289,13 @@
         <v>0.625</v>
       </c>
       <c r="U87">
-        <v>1.000107755717788</v>
+        <v>0.0001077557177877608</v>
       </c>
       <c r="V87">
-        <v>1.000161411815345</v>
+        <v>0.0001614118153450139</v>
       </c>
       <c r="W87">
-        <v>0.9991941982272361</v>
+        <v>-0.0008058017727639033</v>
       </c>
     </row>
     <row r="88" spans="1:23">
@@ -7330,7 +7330,7 @@
         <v>0.9610569396398212</v>
       </c>
       <c r="K88">
-        <v>49.00709001424173</v>
+        <v>-0.009929099857582724</v>
       </c>
       <c r="L88">
         <v>0.01580455375510993</v>
@@ -7360,13 +7360,13 @@
         <v>0.59375</v>
       </c>
       <c r="U88">
-        <v>1.000107744107744</v>
+        <v>0.0001077441077441676</v>
       </c>
       <c r="V88">
-        <v>0.9999462047447416</v>
+        <v>-5.379525525839313E-05</v>
       </c>
       <c r="W88">
-        <v>0.9983870967741936</v>
+        <v>-0.001612903225806428</v>
       </c>
     </row>
     <row r="89" spans="1:23">
@@ -7401,7 +7401,7 @@
         <v>0.9610569396398213</v>
       </c>
       <c r="K89">
-        <v>49.00709001424173</v>
+        <v>-0.009929099857582724</v>
       </c>
       <c r="L89">
         <v>0.01474771857238078</v>
@@ -7431,13 +7431,13 @@
         <v>0.5</v>
       </c>
       <c r="U89">
-        <v>1.000107732500202</v>
+        <v>0.0001077325002019069</v>
       </c>
       <c r="V89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W89">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:23">
@@ -7472,7 +7472,7 @@
         <v>1.228050502728259</v>
       </c>
       <c r="K90">
-        <v>55.11771394878639</v>
+        <v>0.05117713948786384</v>
       </c>
       <c r="L90">
         <v>0.01416539657576802</v>
@@ -7502,13 +7502,13 @@
         <v>0.46875</v>
       </c>
       <c r="U90">
-        <v>1.000161581342741</v>
+        <v>0.000161581342740913</v>
       </c>
       <c r="V90">
-        <v>1.000107596298687</v>
+        <v>0.0001075962986871737</v>
       </c>
       <c r="W90">
-        <v>1.002423263327948</v>
+        <v>0.002423263327948399</v>
       </c>
     </row>
     <row r="91" spans="1:23">
@@ -7543,7 +7543,7 @@
         <v>1.0342663261635</v>
       </c>
       <c r="K91">
-        <v>50.84222812231584</v>
+        <v>0.008422281223158357</v>
       </c>
       <c r="L91">
         <v>0.01326749335669471</v>
@@ -7573,13 +7573,13 @@
         <v>0.40625</v>
       </c>
       <c r="U91">
-        <v>1.000134629365357</v>
+        <v>0.0001346293653572417</v>
       </c>
       <c r="V91">
-        <v>1.000053792361485</v>
+        <v>5.379236148472799E-05</v>
       </c>
       <c r="W91">
-        <v>0.9983883964544722</v>
+        <v>-0.001611603545527807</v>
       </c>
     </row>
     <row r="92" spans="1:23">
@@ -7614,7 +7614,7 @@
         <v>1.200369709777777</v>
       </c>
       <c r="K92">
-        <v>54.55309189377118</v>
+        <v>0.04553091893771177</v>
       </c>
       <c r="L92">
         <v>0.0127757041604802</v>
@@ -7644,13 +7644,13 @@
         <v>0.25</v>
       </c>
       <c r="U92">
-        <v>1.000134611242731</v>
+        <v>0.0001346112427309532</v>
       </c>
       <c r="V92">
-        <v>1.000215157872089</v>
+        <v>0.0002151578720885894</v>
       </c>
       <c r="W92">
-        <v>1.001614205004036</v>
+        <v>0.001614205004035529</v>
       </c>
     </row>
     <row r="93" spans="1:23">
@@ -7685,7 +7685,7 @@
         <v>1.287792543258975</v>
       </c>
       <c r="K93">
-        <v>56.28974301247203</v>
+        <v>0.06289743012472027</v>
       </c>
       <c r="L93">
         <v>0.01280870020652709</v>
@@ -7715,13 +7715,13 @@
         <v>0.09375</v>
       </c>
       <c r="U93">
-        <v>1.00016151174998</v>
+        <v>0.0001615117499798036</v>
       </c>
       <c r="V93">
-        <v>1.000215111589137</v>
+        <v>0.000215111589136896</v>
       </c>
       <c r="W93">
-        <v>1.000805801772764</v>
+        <v>0.0008058017727639033</v>
       </c>
     </row>
     <row r="94" spans="1:23">
@@ -7756,7 +7756,7 @@
         <v>1.179271244677302</v>
       </c>
       <c r="K94">
-        <v>54.113100769699</v>
+        <v>0.04113100769699007</v>
       </c>
       <c r="L94">
         <v>0.01281654712349795</v>
@@ -7786,13 +7786,13 @@
         <v>0</v>
       </c>
       <c r="U94">
-        <v>1.000080742834073</v>
+        <v>8.074283407344396E-05</v>
       </c>
       <c r="V94">
-        <v>1.000215065326093</v>
+        <v>0.0002150653260928337</v>
       </c>
       <c r="W94">
-        <v>0.999194847020934</v>
+        <v>-0.0008051529790660261</v>
       </c>
     </row>
     <row r="95" spans="1:23">
@@ -7827,7 +7827,7 @@
         <v>1.001581709496165</v>
       </c>
       <c r="K95">
-        <v>50.039511489555</v>
+        <v>0.0003951148955499972</v>
       </c>
       <c r="L95">
         <v>0.01217383725790365</v>
@@ -7857,13 +7857,13 @@
         <v>-0.125</v>
       </c>
       <c r="U95">
-        <v>1.00005382421013</v>
+        <v>5.382421012978256E-05</v>
       </c>
       <c r="V95">
-        <v>1.000053754770736</v>
+        <v>5.375477073576995E-05</v>
       </c>
       <c r="W95">
-        <v>0.9983883964544722</v>
+        <v>-0.001611603545527807</v>
       </c>
     </row>
     <row r="96" spans="1:23">
@@ -7898,7 +7898,7 @@
         <v>1.160189508019504</v>
       </c>
       <c r="K96">
-        <v>53.70776516191786</v>
+        <v>0.03707765161917853</v>
       </c>
       <c r="L96">
         <v>0.01172180201250603</v>
@@ -7928,13 +7928,13 @@
         <v>-0.03125</v>
       </c>
       <c r="U96">
-        <v>1.00005382131324</v>
+        <v>5.382131323994344E-05</v>
       </c>
       <c r="V96">
-        <v>1.000053751881316</v>
+        <v>5.375188131573339E-05</v>
       </c>
       <c r="W96">
-        <v>1.001614205004036</v>
+        <v>0.001614205004035529</v>
       </c>
     </row>
     <row r="97" spans="1:23">
@@ -7969,7 +7969,7 @@
         <v>1.070801376939438</v>
       </c>
       <c r="K97">
-        <v>51.70951636713898</v>
+        <v>0.01709516367138986</v>
       </c>
       <c r="L97">
         <v>0.0110773550820746</v>
@@ -7999,13 +7999,13 @@
         <v>0.09375</v>
       </c>
       <c r="U97">
-        <v>1.000080727624993</v>
+        <v>8.07276249932265E-05</v>
       </c>
       <c r="V97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W97">
-        <v>0.9991941982272361</v>
+        <v>-0.0008058017727639033</v>
       </c>
     </row>
     <row r="98" spans="1:23">
@@ -8040,7 +8040,7 @@
         <v>1.070801376939438</v>
       </c>
       <c r="K98">
-        <v>51.70951636713898</v>
+        <v>0.01709516367138986</v>
       </c>
       <c r="L98">
         <v>0.01031711612596215</v>
@@ -8070,13 +8070,13 @@
         <v>0.03125</v>
       </c>
       <c r="U98">
-        <v>1.00016144221714</v>
+        <v>0.0001614422171398733</v>
       </c>
       <c r="V98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W98">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:23">
@@ -8111,7 +8111,7 @@
         <v>0.9146368458797903</v>
       </c>
       <c r="K99">
-        <v>47.77077427753709</v>
+        <v>-0.02229225722462908</v>
       </c>
       <c r="L99">
         <v>0.008909847838574254</v>
@@ -8141,13 +8141,13 @@
         <v>0.03125</v>
       </c>
       <c r="U99">
-        <v>1.000134513464798</v>
+        <v>0.0001345134647978696</v>
       </c>
       <c r="V99">
-        <v>0.9997850040311744</v>
+        <v>-0.0002149959688255709</v>
       </c>
       <c r="W99">
-        <v>0.9983870967741936</v>
+        <v>-0.001612903225806428</v>
       </c>
     </row>
     <row r="100" spans="1:23">
@@ -8182,7 +8182,7 @@
         <v>0.7929130612476906</v>
       </c>
       <c r="K100">
-        <v>44.22484717111165</v>
+        <v>-0.05775152828888352</v>
       </c>
       <c r="L100">
         <v>0.00658029551853379</v>
@@ -8212,13 +8212,13 @@
         <v>-0.09375</v>
       </c>
       <c r="U100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V100">
-        <v>0.9996774366969519</v>
+        <v>-0.0003225633030481401</v>
       </c>
       <c r="W100">
-        <v>0.9983844911147012</v>
+        <v>-0.001615508885298822</v>
       </c>
     </row>
     <row r="101" spans="1:23">
@@ -8253,7 +8253,7 @@
         <v>0.7410095254664589</v>
       </c>
       <c r="K101">
-        <v>42.56206038091172</v>
+        <v>-0.07437939619088285</v>
       </c>
       <c r="L101">
         <v>0.003522886397670618</v>
@@ -8283,13 +8283,13 @@
         <v>-0.3125</v>
       </c>
       <c r="U101">
-        <v>0.9999731009253282</v>
+        <v>-2.689907467179342E-05</v>
       </c>
       <c r="V101">
-        <v>0.9996773326162947</v>
+        <v>-0.000322667383705344</v>
       </c>
       <c r="W101">
-        <v>0.9991909385113269</v>
+        <v>-0.0008090614886731018</v>
       </c>
     </row>
     <row r="102" spans="1:23">
@@ -8324,7 +8324,7 @@
         <v>0.8099140542131257</v>
       </c>
       <c r="K102">
-        <v>44.74875767320577</v>
+        <v>-0.05251242326794237</v>
       </c>
       <c r="L102">
         <v>0.000500450120220305</v>
@@ -8354,13 +8354,13 @@
         <v>-0.46875</v>
       </c>
       <c r="U102">
-        <v>0.9999731002017486</v>
+        <v>-2.689979825143407E-05</v>
       </c>
       <c r="V102">
-        <v>0.9997848189789661</v>
+        <v>-0.0002151810210339056</v>
       </c>
       <c r="W102">
-        <v>1.00080971659919</v>
+        <v>0.0008097165991902688</v>
       </c>
     </row>
     <row r="103" spans="1:23">
@@ -8395,7 +8395,7 @@
         <v>0.8824451371043539</v>
       </c>
       <c r="K103">
-        <v>46.87760188654227</v>
+        <v>-0.03122398113457725</v>
       </c>
       <c r="L103">
         <v>-0.002016306902857156</v>
@@ -8425,13 +8425,13 @@
         <v>-0.5</v>
       </c>
       <c r="U103">
-        <v>0.9999461989562596</v>
+        <v>-5.380104374042016E-05</v>
       </c>
       <c r="V103">
-        <v>0.9999461931665322</v>
+        <v>-5.380683346778437E-05</v>
       </c>
       <c r="W103">
-        <v>1.000809061488673</v>
+        <v>0.0008090614886731018</v>
       </c>
     </row>
     <row r="104" spans="1:23">
@@ -8466,7 +8466,7 @@
         <v>0.9587936454109099</v>
       </c>
       <c r="K104">
-        <v>48.94817009730379</v>
+        <v>-0.01051829902696205</v>
       </c>
       <c r="L104">
         <v>-0.003765309449031504</v>
@@ -8496,13 +8496,13 @@
         <v>-0.6875</v>
       </c>
       <c r="U104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W104">
-        <v>1.000808407437348</v>
+        <v>0.0008084074373484462</v>
       </c>
     </row>
     <row r="105" spans="1:23">
@@ -8537,7 +8537,7 @@
         <v>1.039160496259916</v>
       </c>
       <c r="K105">
-        <v>50.96021123231207</v>
+        <v>0.009602112323120693</v>
       </c>
       <c r="L105">
         <v>-0.004630260734401453</v>
@@ -8567,13 +8567,13 @@
         <v>-0.78125</v>
       </c>
       <c r="U105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V105">
-        <v>0.9998923805424019</v>
+        <v>-0.0001076194575980738</v>
       </c>
       <c r="W105">
-        <v>1.000807754442649</v>
+        <v>0.0008077544426494665</v>
       </c>
     </row>
     <row r="106" spans="1:23">
@@ -8608,7 +8608,7 @@
         <v>1.039160496259916</v>
       </c>
       <c r="K106">
-        <v>50.96021123231207</v>
+        <v>0.009602112323120693</v>
       </c>
       <c r="L106">
         <v>-0.004887645272824463</v>
@@ -8638,13 +8638,13 @@
         <v>-0.78125</v>
       </c>
       <c r="U106">
-        <v>1.000026901969224</v>
+        <v>2.690196922405796E-05</v>
       </c>
       <c r="V106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W106">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:23">
@@ -8679,7 +8679,7 @@
         <v>1.039160496259916</v>
       </c>
       <c r="K107">
-        <v>50.96021123231207</v>
+        <v>0.009602112323120693</v>
       </c>
       <c r="L107">
         <v>-0.004742713917898675</v>
@@ -8709,13 +8709,13 @@
         <v>-0.71875</v>
       </c>
       <c r="U107">
-        <v>1.000053802491055</v>
+        <v>5.380249105546575E-05</v>
       </c>
       <c r="V107">
-        <v>0.999892368959208</v>
+        <v>-0.0001076310407920333</v>
       </c>
       <c r="W107">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:23">
@@ -8750,7 +8750,7 @@
         <v>1.039160496259916</v>
       </c>
       <c r="K108">
-        <v>50.96021123231206</v>
+        <v>0.009602112323120582</v>
       </c>
       <c r="L108">
         <v>-0.00434597478819413</v>
@@ -8780,13 +8780,13 @@
         <v>-0.46875</v>
       </c>
       <c r="U108">
-        <v>1.000026899798252</v>
+        <v>2.689979825154509E-05</v>
       </c>
       <c r="V108">
-        <v>0.9998385360602798</v>
+        <v>-0.0001614639397201634</v>
       </c>
       <c r="W108">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:23">
@@ -8821,7 +8821,7 @@
         <v>0.867891760877015</v>
       </c>
       <c r="K109">
-        <v>46.46370732260853</v>
+        <v>-0.03536292677391473</v>
       </c>
       <c r="L109">
         <v>-0.004393929424736216</v>
@@ -8851,13 +8851,13 @@
         <v>-0.1875</v>
       </c>
       <c r="U109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V109">
-        <v>0.9997846799806213</v>
+        <v>-0.0002153200193787397</v>
       </c>
       <c r="W109">
-        <v>0.9983857949959645</v>
+        <v>-0.001614205004035529</v>
       </c>
     </row>
     <row r="110" spans="1:23">
@@ -8892,7 +8892,7 @@
         <v>0.9546362435624547</v>
       </c>
       <c r="K110">
-        <v>48.83958571353239</v>
+        <v>-0.01160414286467615</v>
       </c>
       <c r="L110">
         <v>-0.004398373465084849</v>
@@ -8922,13 +8922,13 @@
         <v>0.03125</v>
       </c>
       <c r="U110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V110">
-        <v>0.9999461584019814</v>
+        <v>-5.384159801857802E-05</v>
       </c>
       <c r="W110">
-        <v>1.000808407437348</v>
+        <v>0.0008084074373484462</v>
       </c>
     </row>
     <row r="111" spans="1:23">
@@ -8963,7 +8963,7 @@
         <v>0.80722148533515</v>
       </c>
       <c r="K111">
-        <v>44.66643916561508</v>
+        <v>-0.05333560834384921</v>
       </c>
       <c r="L111">
         <v>-0.004948039082665326</v>
@@ -8993,13 +8993,13 @@
         <v>0.0625</v>
       </c>
       <c r="U111">
-        <v>0.9998924037013126</v>
+        <v>-0.0001075962986873957</v>
       </c>
       <c r="V111">
-        <v>0.9997307775145379</v>
+        <v>-0.0002692224854621283</v>
       </c>
       <c r="W111">
-        <v>0.9983844911147012</v>
+        <v>-0.001615508885298822</v>
       </c>
     </row>
     <row r="112" spans="1:23">
@@ -9034,7 +9034,7 @@
         <v>0.9697686657500538</v>
       </c>
       <c r="K112">
-        <v>49.23261713988037</v>
+        <v>-0.007673828601196309</v>
       </c>
       <c r="L112">
         <v>-0.005187172071548085</v>
@@ -9064,13 +9064,13 @@
         <v>0.15625</v>
       </c>
       <c r="U112">
-        <v>0.9999461960615518</v>
+        <v>-5.380393844822695E-05</v>
       </c>
       <c r="V112">
-        <v>0.9998922820057091</v>
+        <v>-0.000107717994290879</v>
       </c>
       <c r="W112">
-        <v>1.001618122977346</v>
+        <v>0.001618122977346204</v>
       </c>
     </row>
     <row r="113" spans="1:23">
@@ -9105,7 +9105,7 @@
         <v>0.9697686657500536</v>
       </c>
       <c r="K113">
-        <v>49.23261713988036</v>
+        <v>-0.007673828601196364</v>
       </c>
       <c r="L113">
         <v>-0.005204042852525423</v>
@@ -9135,13 +9135,13 @@
         <v>0.15625</v>
       </c>
       <c r="U113">
-        <v>0.9999461931665322</v>
+        <v>-5.380683346778437E-05</v>
       </c>
       <c r="V113">
-        <v>0.9998922704012927</v>
+        <v>-0.0001077295987073068</v>
       </c>
       <c r="W113">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:23">
@@ -9176,7 +9176,7 @@
         <v>0.9697686657500535</v>
       </c>
       <c r="K114">
-        <v>49.23261713988036</v>
+        <v>-0.007673828601196364</v>
       </c>
       <c r="L114">
         <v>-0.005066226210494132</v>
@@ -9206,13 +9206,13 @@
         <v>0.15625</v>
       </c>
       <c r="U114">
-        <v>0.9998923805424019</v>
+        <v>-0.0001076194575980738</v>
       </c>
       <c r="V114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W114">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:23">
@@ -9247,7 +9247,7 @@
         <v>1.159355696413303</v>
       </c>
       <c r="K115">
-        <v>53.68988992128518</v>
+        <v>0.03689889921285183</v>
       </c>
       <c r="L115">
         <v>-0.004237026182422965</v>
@@ -9277,13 +9277,13 @@
         <v>0.15625</v>
       </c>
       <c r="U115">
-        <v>0.9999461844796039</v>
+        <v>-5.381552039607218E-05</v>
       </c>
       <c r="V115">
-        <v>1.000215482411248</v>
+        <v>0.0002154824112481357</v>
       </c>
       <c r="W115">
-        <v>1.001615508885299</v>
+        <v>0.001615508885298933</v>
       </c>
     </row>
     <row r="116" spans="1:23">
@@ -9318,7 +9318,7 @@
         <v>1.054168020216942</v>
       </c>
       <c r="K116">
-        <v>51.31849049551509</v>
+        <v>0.0131849049551509</v>
       </c>
       <c r="L116">
         <v>-0.003320288792239284</v>
@@ -9348,13 +9348,13 @@
         <v>0.0625</v>
       </c>
       <c r="U116">
-        <v>0.9999461815833378</v>
+        <v>-5.381841666218801E-05</v>
       </c>
       <c r="V116">
-        <v>1.000215435988582</v>
+        <v>0.0002154359885819801</v>
       </c>
       <c r="W116">
-        <v>0.9991935483870967</v>
+        <v>-0.0008064516129032695</v>
       </c>
     </row>
     <row r="117" spans="1:23">
@@ -9389,7 +9389,7 @@
         <v>1.43618665357658</v>
       </c>
       <c r="K117">
-        <v>58.95224208161989</v>
+        <v>0.08952242081619888</v>
       </c>
       <c r="L117">
         <v>-0.001220750224670789</v>
@@ -9419,13 +9419,13 @@
         <v>0.1875</v>
       </c>
       <c r="U117">
-        <v>1.00008073196986</v>
+        <v>8.073196985991515E-05</v>
       </c>
       <c r="V117">
-        <v>1.000376931775349</v>
+        <v>0.0003769317753485879</v>
       </c>
       <c r="W117">
-        <v>1.003228410008071</v>
+        <v>0.003228410008071059</v>
       </c>
     </row>
     <row r="118" spans="1:23">
@@ -9460,7 +9460,7 @@
         <v>1.43618665357658</v>
       </c>
       <c r="K118">
-        <v>58.95224208161989</v>
+        <v>0.08952242081619888</v>
       </c>
       <c r="L118">
         <v>0.001466076605487974</v>
@@ -9490,13 +9490,13 @@
         <v>0.28125</v>
       </c>
       <c r="U118">
-        <v>1.000134542421226</v>
+        <v>0.0001345424212255697</v>
       </c>
       <c r="V118">
-        <v>1.000322962643988</v>
+        <v>0.0003229626439875677</v>
       </c>
       <c r="W118">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:23">
@@ -9531,7 +9531,7 @@
         <v>1.542008989687283</v>
       </c>
       <c r="K119">
-        <v>60.66103605231469</v>
+        <v>0.1066103605231469</v>
       </c>
       <c r="L119">
         <v>0.004626041482206087</v>
@@ -9561,13 +9561,13 @@
         <v>0.5625</v>
       </c>
       <c r="U119">
-        <v>1.000161429186397</v>
+        <v>0.0001614291863969441</v>
       </c>
       <c r="V119">
-        <v>1.000322858372794</v>
+        <v>0.0003228583727936662</v>
       </c>
       <c r="W119">
-        <v>1.000804505229284</v>
+        <v>0.0008045052292839916</v>
       </c>
     </row>
     <row r="120" spans="1:23">
@@ -9602,7 +9602,7 @@
         <v>1.653400922435392</v>
       </c>
       <c r="K120">
-        <v>62.31251781271855</v>
+        <v>0.1231251781271855</v>
       </c>
       <c r="L120">
         <v>0.00814812674554349</v>
@@ -9632,13 +9632,13 @@
         <v>0.78125</v>
       </c>
       <c r="U120">
-        <v>1.00010760208748</v>
+        <v>0.0001076020874803962</v>
       </c>
       <c r="V120">
-        <v>1.000322754168908</v>
+        <v>0.0003227541689081459</v>
       </c>
       <c r="W120">
-        <v>1.0008038585209</v>
+        <v>0.000803858520900258</v>
       </c>
     </row>
     <row r="121" spans="1:23">
@@ -9673,7 +9673,7 @@
         <v>1.479878287982419</v>
       </c>
       <c r="K121">
-        <v>59.67544032922759</v>
+        <v>0.09675440329227591</v>
       </c>
       <c r="L121">
         <v>0.01134096213990925</v>
@@ -9703,13 +9703,13 @@
         <v>1</v>
       </c>
       <c r="U121">
-        <v>1.000134488138146</v>
+        <v>0.0001344881381462049</v>
       </c>
       <c r="V121">
-        <v>1.000268875026888</v>
+        <v>0.0002688750268875495</v>
       </c>
       <c r="W121">
-        <v>0.9991967871485944</v>
+        <v>-0.0008032128514056103</v>
       </c>
     </row>
     <row r="122" spans="1:23">
@@ -9744,7 +9744,7 @@
         <v>1.332656351712614</v>
       </c>
       <c r="K122">
-        <v>57.13041917786949</v>
+        <v>0.07130419177869496</v>
       </c>
       <c r="L122">
         <v>0.01379509817796531</v>
@@ -9774,13 +9774,13 @@
         <v>1.1875</v>
       </c>
       <c r="U122">
-        <v>1.000053788021408</v>
+        <v>5.378802140754146E-05</v>
       </c>
       <c r="V122">
-        <v>1.000215042202032</v>
+        <v>0.0002150422020321674</v>
       </c>
       <c r="W122">
-        <v>0.9991961414790996</v>
+        <v>-0.000803858520900369</v>
       </c>
     </row>
     <row r="123" spans="1:23">
@@ -9815,7 +9815,7 @@
         <v>1.014078403977581</v>
       </c>
       <c r="K123">
-        <v>50.34949989905501</v>
+        <v>0.003494998990550169</v>
       </c>
       <c r="L123">
         <v>0.01471302173465375</v>
@@ -9845,13 +9845,13 @@
         <v>1.15625</v>
       </c>
       <c r="U123">
-        <v>0.9999462148715881</v>
+        <v>-5.378512841192062E-05</v>
       </c>
       <c r="V123">
-        <v>1.000053748992207</v>
+        <v>5.374899220655927E-05</v>
       </c>
       <c r="W123">
-        <v>0.997586484312148</v>
+        <v>-0.002413515687851975</v>
       </c>
     </row>
     <row r="124" spans="1:23">
@@ -9886,7 +9886,7 @@
         <v>1.181836184749387</v>
       </c>
       <c r="K124">
-        <v>54.16704485012182</v>
+        <v>0.04167044850121815</v>
       </c>
       <c r="L124">
         <v>0.01517614053006443</v>
@@ -9916,13 +9916,13 @@
         <v>1.25</v>
       </c>
       <c r="U124">
-        <v>1.000026894010704</v>
+        <v>2.689401070377073E-05</v>
       </c>
       <c r="V124">
-        <v>1.000268730517037</v>
+        <v>0.0002687305170374632</v>
       </c>
       <c r="W124">
-        <v>1.001612903225807</v>
+        <v>0.001612903225806539</v>
       </c>
     </row>
     <row r="125" spans="1:23">
@@ -9957,7 +9957,7 @@
         <v>0.9343459653492571</v>
       </c>
       <c r="K125">
-        <v>48.30293970606006</v>
+        <v>-0.01697060293939939</v>
       </c>
       <c r="L125">
         <v>0.01439744550321037</v>
@@ -9987,13 +9987,13 @@
         <v>0.9375</v>
       </c>
       <c r="U125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V125">
-        <v>1.00005373166407</v>
+        <v>5.373166406963392E-05</v>
       </c>
       <c r="W125">
-        <v>0.9975845410628019</v>
+        <v>-0.002415458937198078</v>
       </c>
     </row>
     <row r="126" spans="1:23">
@@ -10028,7 +10028,7 @@
         <v>1.007823723598929</v>
       </c>
       <c r="K126">
-        <v>50.19483093826845</v>
+        <v>0.001948309382684421</v>
       </c>
       <c r="L126">
         <v>0.01315782954098533</v>
@@ -10058,13 +10058,13 @@
         <v>0.6875</v>
       </c>
       <c r="U126">
-        <v>0.9999731067125646</v>
+        <v>-2.689328743543662E-05</v>
       </c>
       <c r="V126">
-        <v>1.000214915108532</v>
+        <v>0.000214915108532221</v>
       </c>
       <c r="W126">
-        <v>1.000807102502018</v>
+        <v>0.0008071025020177647</v>
       </c>
     </row>
     <row r="127" spans="1:23">
@@ -10099,7 +10099,7 @@
         <v>0.9354698035220242</v>
       </c>
       <c r="K127">
-        <v>48.33295780795576</v>
+        <v>-0.01667042192044232</v>
       </c>
       <c r="L127">
         <v>0.01137651582096329</v>
@@ -10129,13 +10129,13 @@
         <v>0.28125</v>
       </c>
       <c r="U127">
-        <v>0.9999731059892962</v>
+        <v>-2.689401070377073E-05</v>
       </c>
       <c r="V127">
-        <v>1.000053717232488</v>
+        <v>5.371723248837057E-05</v>
       </c>
       <c r="W127">
-        <v>0.9991935483870967</v>
+        <v>-0.0008064516129032695</v>
       </c>
     </row>
     <row r="128" spans="1:23">
@@ -10170,7 +10170,7 @@
         <v>1.011040579789932</v>
       </c>
       <c r="K128">
-        <v>50.27449917970041</v>
+        <v>0.002744991797004159</v>
       </c>
       <c r="L128">
         <v>0.009633070178949384</v>
@@ -10200,13 +10200,13 @@
         <v>-0.09375</v>
       </c>
       <c r="U128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V128">
-        <v>1.000107428694204</v>
+        <v>0.0001074286942042146</v>
       </c>
       <c r="W128">
-        <v>1.000807102502018</v>
+        <v>0.0008071025020177647</v>
       </c>
     </row>
     <row r="129" spans="1:23">
@@ -10241,7 +10241,7 @@
         <v>0.8722661937409681</v>
       </c>
       <c r="K129">
-        <v>46.58879152211237</v>
+        <v>-0.03411208477887628</v>
       </c>
       <c r="L129">
         <v>0.007401289117243467</v>
@@ -10271,13 +10271,13 @@
         <v>-0.46875</v>
       </c>
       <c r="U129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W129">
-        <v>0.9983870967741936</v>
+        <v>-0.001612903225806428</v>
       </c>
     </row>
     <row r="130" spans="1:23">
@@ -10312,7 +10312,7 @@
         <v>0.8134978392897306</v>
       </c>
       <c r="K130">
-        <v>44.85794367465819</v>
+        <v>-0.05142056325341815</v>
       </c>
       <c r="L130">
         <v>0.004695448977608286</v>
@@ -10342,13 +10342,13 @@
         <v>-0.8125</v>
       </c>
       <c r="U130">
-        <v>1.000026894734011</v>
+        <v>2.689473401096265E-05</v>
       </c>
       <c r="V130">
-        <v>0.9998388742682206</v>
+        <v>-0.000161125731779399</v>
       </c>
       <c r="W130">
-        <v>0.9991922455573505</v>
+        <v>-0.0008077544426494665</v>
       </c>
     </row>
     <row r="131" spans="1:23">
@@ -10383,7 +10383,7 @@
         <v>0.7596249688981833</v>
       </c>
       <c r="K131">
-        <v>43.16970845064982</v>
+        <v>-0.06830291549350176</v>
       </c>
       <c r="L131">
         <v>0.001564193324840829</v>
@@ -10413,13 +10413,13 @@
         <v>-0.9375</v>
       </c>
       <c r="U131">
-        <v>1.000026894010704</v>
+        <v>2.689401070377073E-05</v>
       </c>
       <c r="V131">
-        <v>0.9998388483025354</v>
+        <v>-0.0001611516974645566</v>
       </c>
       <c r="W131">
-        <v>0.9991915925626516</v>
+        <v>-0.0008084074373484462</v>
       </c>
     </row>
     <row r="132" spans="1:23">
@@ -10454,7 +10454,7 @@
         <v>0.7596249688981833</v>
       </c>
       <c r="K132">
-        <v>43.16970845064982</v>
+        <v>-0.06830291549350176</v>
       </c>
       <c r="L132">
         <v>-0.001630995393925604</v>
@@ -10484,13 +10484,13 @@
         <v>-1.21875</v>
       </c>
       <c r="U132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V132">
-        <v>0.9996239187664537</v>
+        <v>-0.000376081233546266</v>
       </c>
       <c r="W132">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:23">
@@ -10525,7 +10525,7 @@
         <v>0.7076956053206132</v>
       </c>
       <c r="K133">
-        <v>41.44155452035294</v>
+        <v>-0.08558445479647053</v>
       </c>
       <c r="L133">
         <v>-0.004949211954142095</v>
@@ -10555,13 +10555,13 @@
         <v>-1.21875</v>
       </c>
       <c r="U133">
-        <v>0.9999462134251291</v>
+        <v>-5.378657487087324E-05</v>
       </c>
       <c r="V133">
-        <v>0.9995700311727398</v>
+        <v>-0.0004299688272602076</v>
       </c>
       <c r="W133">
-        <v>0.9991909385113269</v>
+        <v>-0.0008090614886731018</v>
       </c>
     </row>
     <row r="134" spans="1:23">
@@ -10596,7 +10596,7 @@
         <v>0.7076956053206132</v>
       </c>
       <c r="K134">
-        <v>41.44155452035294</v>
+        <v>-0.08558445479647053</v>
       </c>
       <c r="L134">
         <v>-0.0081128364613166</v>
@@ -10626,13 +10626,13 @@
         <v>-1.28125</v>
       </c>
       <c r="U134">
-        <v>0.9999193157979667</v>
+        <v>-8.068420203333204E-05</v>
       </c>
       <c r="V134">
-        <v>0.9995160769975266</v>
+        <v>-0.0004839230024733521</v>
       </c>
       <c r="W134">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:23">
@@ -10667,7 +10667,7 @@
         <v>0.7076956053206132</v>
       </c>
       <c r="K135">
-        <v>41.44155452035294</v>
+        <v>-0.08558445479647053</v>
       </c>
       <c r="L135">
         <v>-0.0109520944856824</v>
@@ -10697,13 +10697,13 @@
         <v>-1.25</v>
       </c>
       <c r="U135">
-        <v>0.9998924123833348</v>
+        <v>-0.0001075876166651835</v>
       </c>
       <c r="V135">
-        <v>0.9994620474474151</v>
+        <v>-0.0005379525525849305</v>
       </c>
       <c r="W135">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:23">
@@ -10738,7 +10738,7 @@
         <v>0.7076956053206133</v>
       </c>
       <c r="K136">
-        <v>41.44155452035295</v>
+        <v>-0.08558445479647048</v>
       </c>
       <c r="L136">
         <v>-0.01337447849656781</v>
@@ -10768,13 +10768,13 @@
         <v>-1.25</v>
       </c>
       <c r="U136">
-        <v>0.9998924008069938</v>
+        <v>-0.0001075991930061804</v>
       </c>
       <c r="V136">
-        <v>0.9995155821088326</v>
+        <v>-0.0004844178911673769</v>
       </c>
       <c r="W136">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:23">
@@ -10809,7 +10809,7 @@
         <v>0.7076956053206132</v>
       </c>
       <c r="K137">
-        <v>41.44155452035294</v>
+        <v>-0.08558445479647053</v>
       </c>
       <c r="L137">
         <v>-0.01534165860633633</v>
@@ -10839,13 +10839,13 @@
         <v>-1.15625</v>
       </c>
       <c r="U137">
-        <v>0.9998923892281618</v>
+        <v>-0.0001076107718381847</v>
       </c>
       <c r="V137">
-        <v>0.999569197630587</v>
+        <v>-0.0004308023694129526</v>
       </c>
       <c r="W137">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:23">
@@ -10880,7 +10880,7 @@
         <v>0.6502476551690568</v>
       </c>
       <c r="K138">
-        <v>39.40303463739467</v>
+        <v>-0.1059696536260533</v>
       </c>
       <c r="L138">
         <v>-0.01714599807627934</v>
@@ -10910,13 +10910,13 @@
         <v>-1.0625</v>
       </c>
       <c r="U138">
-        <v>0.9998654720585465</v>
+        <v>-0.0001345279414535216</v>
       </c>
       <c r="V138">
-        <v>0.9996767589699385</v>
+        <v>-0.0003232410300615385</v>
       </c>
       <c r="W138">
-        <v>0.9991902834008097</v>
+        <v>-0.0008097165991902688</v>
       </c>
     </row>
     <row r="139" spans="1:23">
@@ -10951,7 +10951,7 @@
         <v>0.7356961531117939</v>
       </c>
       <c r="K139">
-        <v>42.38622939809031</v>
+        <v>-0.07613770601909686</v>
       </c>
       <c r="L139">
         <v>-0.01838089858238359</v>
@@ -10981,13 +10981,13 @@
         <v>-0.96875</v>
       </c>
       <c r="U139">
-        <v>0.9999461815833378</v>
+        <v>-5.381841666218801E-05</v>
       </c>
       <c r="V139">
-        <v>0.999622763526622</v>
+        <v>-0.000377236473377951</v>
       </c>
       <c r="W139">
-        <v>1.000810372771475</v>
+        <v>0.0008103727714747766</v>
       </c>
     </row>
     <row r="140" spans="1:23">
@@ -11022,7 +11022,7 @@
         <v>0.7356961531117941</v>
       </c>
       <c r="K140">
-        <v>42.38622939809033</v>
+        <v>-0.0761377060190967</v>
       </c>
       <c r="L140">
         <v>-0.01912541530933621</v>
@@ -11052,13 +11052,13 @@
         <v>-0.8125</v>
       </c>
       <c r="U140">
-        <v>0.9999192680301399</v>
+        <v>-8.07319698601372E-05</v>
       </c>
       <c r="V140">
-        <v>0.9997843549517494</v>
+        <v>-0.0002156450482505567</v>
       </c>
       <c r="W140">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:23">
@@ -11093,7 +11093,7 @@
         <v>0.8303759292256303</v>
       </c>
       <c r="K141">
-        <v>45.3664144052055</v>
+        <v>-0.04633585594794504</v>
       </c>
       <c r="L141">
         <v>-0.01916195743058007</v>
@@ -11123,13 +11123,13 @@
         <v>-0.65625</v>
       </c>
       <c r="U141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V141">
-        <v>0.9997843084389323</v>
+        <v>-0.0002156915610677101</v>
       </c>
       <c r="W141">
-        <v>1.00080971659919</v>
+        <v>0.0008097165991902688</v>
       </c>
     </row>
     <row r="142" spans="1:23">
@@ -11164,7 +11164,7 @@
         <v>0.930038851450721</v>
       </c>
       <c r="K142">
-        <v>48.18757149637966</v>
+        <v>-0.01812428503620339</v>
       </c>
       <c r="L142">
         <v>-0.0184033759914497</v>
@@ -11194,13 +11194,13 @@
         <v>-0.4375</v>
       </c>
       <c r="U142">
-        <v>0.9999730871706543</v>
+        <v>-2.691282934574879E-05</v>
       </c>
       <c r="V142">
-        <v>0.9998921309530231</v>
+        <v>-0.000107869046976905</v>
       </c>
       <c r="W142">
-        <v>1.000809061488673</v>
+        <v>0.0008090614886731018</v>
       </c>
     </row>
     <row r="143" spans="1:23">
@@ -11235,7 +11235,7 @@
         <v>0.8417339416021768</v>
       </c>
       <c r="K143">
-        <v>45.70334088918014</v>
+        <v>-0.04296659110819862</v>
       </c>
       <c r="L143">
         <v>-0.01743818565764439</v>
@@ -11265,13 +11265,13 @@
         <v>-0.28125</v>
       </c>
       <c r="U143">
-        <v>0.9999461728926688</v>
+        <v>-5.382710733115026E-05</v>
       </c>
       <c r="V143">
-        <v>0.9997842386320729</v>
+        <v>-0.0002157613679271142</v>
       </c>
       <c r="W143">
-        <v>0.9991915925626516</v>
+        <v>-0.0008084074373484462</v>
       </c>
     </row>
     <row r="144" spans="1:23">
@@ -11306,7 +11306,7 @@
         <v>0.701509503180279</v>
       </c>
       <c r="K144">
-        <v>41.22865619434347</v>
+        <v>-0.08771343805656528</v>
       </c>
       <c r="L144">
         <v>-0.01693400599334056</v>
@@ -11336,13 +11336,13 @@
         <v>-0.15625</v>
       </c>
       <c r="U144">
-        <v>0.9998923399903105</v>
+        <v>-0.0001076600096895364</v>
       </c>
       <c r="V144">
-        <v>0.9997841920690586</v>
+        <v>-0.0002158079309414473</v>
       </c>
       <c r="W144">
-        <v>0.9983818770226537</v>
+        <v>-0.001618122977346315</v>
       </c>
     </row>
     <row r="145" spans="1:23">
@@ -11377,7 +11377,7 @@
         <v>0.8768673742696829</v>
       </c>
       <c r="K145">
-        <v>46.71973024257428</v>
+        <v>-0.03280269757425719</v>
       </c>
       <c r="L145">
         <v>-0.016091537270684</v>
@@ -11407,13 +11407,13 @@
         <v>-0.03125</v>
       </c>
       <c r="U145">
-        <v>0.999892328398385</v>
+        <v>-0.0001076716016149559</v>
       </c>
       <c r="V145">
-        <v>0.9999460363714855</v>
+        <v>-5.396362851450842E-05</v>
       </c>
       <c r="W145">
-        <v>1.00162074554295</v>
+        <v>0.001620745542949775</v>
       </c>
     </row>
     <row r="146" spans="1:23">
@@ -11448,7 +11448,7 @@
         <v>0.969160990632527</v>
       </c>
       <c r="K146">
-        <v>49.21695053085612</v>
+        <v>-0.007830494691438816</v>
       </c>
       <c r="L146">
         <v>-0.01474489089317132</v>
@@ -11478,13 +11478,13 @@
         <v>0.15625</v>
       </c>
       <c r="U146">
-        <v>0.9999461584019814</v>
+        <v>-5.384159801857802E-05</v>
       </c>
       <c r="V146">
-        <v>1.000053966540745</v>
+        <v>5.396654074485419E-05</v>
       </c>
       <c r="W146">
-        <v>1.000809061488673</v>
+        <v>0.0008090614886731018</v>
       </c>
     </row>
     <row r="147" spans="1:23">
@@ -11519,7 +11519,7 @@
         <v>1.06631216575131</v>
       </c>
       <c r="K147">
-        <v>51.60460183244383</v>
+        <v>0.0160460183244383</v>
       </c>
       <c r="L147">
         <v>-0.01283042497717166</v>
@@ -11549,13 +11549,13 @@
         <v>0.28125</v>
       </c>
       <c r="U147">
-        <v>0.9998653887572689</v>
+        <v>-0.0001346112427310642</v>
       </c>
       <c r="V147">
-        <v>1.000107927257029</v>
+        <v>0.0001079272570285728</v>
       </c>
       <c r="W147">
-        <v>1.000808407437348</v>
+        <v>0.0008084074373484462</v>
       </c>
     </row>
     <row r="148" spans="1:23">
@@ -11590,7 +11590,7 @@
         <v>1.06631216575131</v>
       </c>
       <c r="K148">
-        <v>51.60460183244383</v>
+        <v>0.0160460183244383</v>
       </c>
       <c r="L148">
         <v>-0.01064693770340872</v>
@@ -11620,13 +11620,13 @@
         <v>0.40625</v>
       </c>
       <c r="U148">
-        <v>0.9998653706346428</v>
+        <v>-0.0001346293653572417</v>
       </c>
       <c r="V148">
-        <v>1.00016187341499</v>
+        <v>0.0001618734149895218</v>
       </c>
       <c r="W148">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:23">
@@ -11661,7 +11661,7 @@
         <v>0.8774112577185069</v>
       </c>
       <c r="K149">
-        <v>46.73516546314772</v>
+        <v>-0.03264834536852279</v>
       </c>
       <c r="L149">
         <v>-0.008989317627651754</v>
@@ -11691,13 +11691,13 @@
         <v>0.375</v>
       </c>
       <c r="U149">
-        <v>0.9997845640114181</v>
+        <v>-0.0002154359885818691</v>
       </c>
       <c r="V149">
-        <v>1.000053949072076</v>
+        <v>5.394907207589839E-05</v>
       </c>
       <c r="W149">
-        <v>0.9983844911147012</v>
+        <v>-0.001615508885298822</v>
       </c>
     </row>
     <row r="150" spans="1:23">
@@ -11732,7 +11732,7 @@
         <v>1.06388860222771</v>
       </c>
       <c r="K150">
-        <v>51.54777254350719</v>
+        <v>0.01547772543507198</v>
       </c>
       <c r="L150">
         <v>-0.007134553371150547</v>
@@ -11762,13 +11762,13 @@
         <v>0.34375</v>
       </c>
       <c r="U150">
-        <v>0.9998114528901578</v>
+        <v>-0.0001885471098421743</v>
       </c>
       <c r="V150">
-        <v>1.000161838485192</v>
+        <v>0.0001618384851918009</v>
       </c>
       <c r="W150">
-        <v>1.001618122977346</v>
+        <v>0.001618122977346204</v>
       </c>
     </row>
     <row r="151" spans="1:23">
@@ -11803,7 +11803,7 @@
         <v>0.9688043580018527</v>
       </c>
       <c r="K151">
-        <v>49.20775160133717</v>
+        <v>-0.007922483986628259</v>
       </c>
       <c r="L151">
         <v>-0.005546847317262326</v>
@@ -11833,13 +11833,13 @@
         <v>0.34375</v>
       </c>
       <c r="U151">
-        <v>0.999811417333441</v>
+        <v>-0.0001885826665589674</v>
       </c>
       <c r="V151">
-        <v>1.000107874865156</v>
+        <v>0.0001078748651563988</v>
       </c>
       <c r="W151">
-        <v>0.9991922455573505</v>
+        <v>-0.0008077544426494665</v>
       </c>
     </row>
     <row r="152" spans="1:23">
@@ -11874,7 +11874,7 @@
         <v>0.8854983096815739</v>
       </c>
       <c r="K152">
-        <v>46.96362256782496</v>
+        <v>-0.03036377432175036</v>
       </c>
       <c r="L152">
         <v>-0.004496317483109206</v>
@@ -11904,13 +11904,13 @@
         <v>0.4375</v>
       </c>
       <c r="U152">
-        <v>0.9998113817633111</v>
+        <v>-0.00018861823668892</v>
       </c>
       <c r="V152">
-        <v>1.000053931614713</v>
+        <v>5.393161471256569E-05</v>
       </c>
       <c r="W152">
-        <v>0.9991915925626516</v>
+        <v>-0.0008084074373484462</v>
       </c>
     </row>
     <row r="153" spans="1:23">
@@ -11945,7 +11945,7 @@
         <v>0.8854983096815739</v>
       </c>
       <c r="K153">
-        <v>46.96362256782496</v>
+        <v>-0.03036377432175036</v>
       </c>
       <c r="L153">
         <v>-0.003821852772566133</v>
@@ -11975,13 +11975,13 @@
         <v>0.40625</v>
       </c>
       <c r="U153">
-        <v>0.9998921978170059</v>
+        <v>-0.00010780218299411</v>
       </c>
       <c r="V153">
-        <v>1.000107857412501</v>
+        <v>0.0001078574125006337</v>
       </c>
       <c r="W153">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:23">
@@ -12016,7 +12016,7 @@
         <v>0.8084689019162276</v>
       </c>
       <c r="K154">
-        <v>44.70460625889588</v>
+        <v>-0.05295393741104121</v>
       </c>
       <c r="L154">
         <v>-0.003698730065469952</v>
@@ -12046,13 +12046,13 @@
         <v>0.25</v>
       </c>
       <c r="U154">
-        <v>0.9998113258402739</v>
+        <v>-0.000188674159726121</v>
       </c>
       <c r="V154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W154">
-        <v>0.9991909385113269</v>
+        <v>-0.0008090614886731018</v>
       </c>
     </row>
     <row r="155" spans="1:23">
@@ -12087,7 +12087,7 @@
         <v>0.9000372157513776</v>
       </c>
       <c r="K155">
-        <v>47.36945193967973</v>
+        <v>-0.0263054806032027</v>
       </c>
       <c r="L155">
         <v>-0.00360963249789425</v>
@@ -12117,13 +12117,13 @@
         <v>0.09375</v>
       </c>
       <c r="U155">
-        <v>0.9999191243866932</v>
+        <v>-8.087561330683002E-05</v>
       </c>
       <c r="V155">
-        <v>1.000053922890267</v>
+        <v>5.392289026695529E-05</v>
       </c>
       <c r="W155">
-        <v>1.00080971659919</v>
+        <v>0.0008097165991902688</v>
       </c>
     </row>
     <row r="156" spans="1:23">
@@ -12158,7 +12158,7 @@
         <v>0.7545739269956698</v>
       </c>
       <c r="K156">
-        <v>43.00610623387725</v>
+        <v>-0.06993893766122744</v>
       </c>
       <c r="L156">
         <v>-0.004122565040502044</v>
@@ -12188,13 +12188,13 @@
         <v>-0.125</v>
       </c>
       <c r="U156">
-        <v>0.9998382356905989</v>
+        <v>-0.000161764309401069</v>
       </c>
       <c r="V156">
-        <v>0.9998921600345086</v>
+        <v>-0.000107839965491352</v>
       </c>
       <c r="W156">
-        <v>0.9983818770226537</v>
+        <v>-0.001618122977346315</v>
       </c>
     </row>
     <row r="157" spans="1:23">
@@ -12229,7 +12229,7 @@
         <v>0.9246993936342565</v>
       </c>
       <c r="K157">
-        <v>48.04383462127144</v>
+        <v>-0.01956165378728558</v>
       </c>
       <c r="L157">
         <v>-0.004363714369335714</v>
@@ -12259,13 +12259,13 @@
         <v>-0.125</v>
       </c>
       <c r="U157">
-        <v>0.9999191047593365</v>
+        <v>-8.089524066345888E-05</v>
       </c>
       <c r="V157">
-        <v>0.9999460742018982</v>
+        <v>-5.392579810181708E-05</v>
       </c>
       <c r="W157">
-        <v>1.00162074554295</v>
+        <v>0.001620745542949775</v>
       </c>
     </row>
     <row r="158" spans="1:23">
@@ -12300,7 +12300,7 @@
         <v>0.9246993936342566</v>
       </c>
       <c r="K158">
-        <v>48.04383462127145</v>
+        <v>-0.01956165378728547</v>
       </c>
       <c r="L158">
         <v>-0.00440895021033979</v>
@@ -12330,13 +12330,13 @@
         <v>-0.21875</v>
       </c>
       <c r="U158">
-        <v>0.9998921309530231</v>
+        <v>-0.000107869046976905</v>
       </c>
       <c r="V158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W158">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:23">
@@ -12371,7 +12371,7 @@
         <v>0.9246993936342566</v>
       </c>
       <c r="K159">
-        <v>48.04383462127145</v>
+        <v>-0.01956165378728547</v>
       </c>
       <c r="L159">
         <v>-0.004316552779342626</v>
@@ -12401,13 +12401,13 @@
         <v>-0.28125</v>
       </c>
       <c r="U159">
-        <v>0.9999460596580181</v>
+        <v>-5.394034198191733E-05</v>
       </c>
       <c r="V159">
-        <v>1.000107857412501</v>
+        <v>0.0001078574125006337</v>
       </c>
       <c r="W159">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:23">
@@ -12442,7 +12442,7 @@
         <v>1.023912378989899</v>
       </c>
       <c r="K160">
-        <v>50.59074639885924</v>
+        <v>0.005907463988592432</v>
       </c>
       <c r="L160">
         <v>-0.003836447790366414</v>
@@ -12472,13 +12472,13 @@
         <v>-0.3125</v>
       </c>
       <c r="U160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V160">
-        <v>1.000053922890267</v>
+        <v>5.392289026695529E-05</v>
       </c>
       <c r="W160">
-        <v>1.000809061488673</v>
+        <v>0.0008090614886731018</v>
       </c>
     </row>
     <row r="161" spans="1:23">
@@ -12513,7 +12513,7 @@
         <v>1.023912378989899</v>
       </c>
       <c r="K161">
-        <v>50.59074639885924</v>
+        <v>0.005907463988592432</v>
       </c>
       <c r="L161">
         <v>-0.003138036753636363</v>
@@ -12543,13 +12543,13 @@
         <v>-0.28125</v>
       </c>
       <c r="U161">
-        <v>1.00002697162585</v>
+        <v>2.697162584985868E-05</v>
       </c>
       <c r="V161">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W161">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:23">
@@ -12584,7 +12584,7 @@
         <v>1.023912378989898</v>
       </c>
       <c r="K162">
-        <v>50.59074639885924</v>
+        <v>0.005907463988592432</v>
       </c>
       <c r="L162">
         <v>-0.002340419124807393</v>
@@ -12614,13 +12614,13 @@
         <v>-0.15625</v>
       </c>
       <c r="U162">
-        <v>1.000026970898401</v>
+        <v>2.69708984006467E-05</v>
       </c>
       <c r="V162">
-        <v>0.9999460800172543</v>
+        <v>-5.391998274573151E-05</v>
       </c>
       <c r="W162">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:23">
@@ -12655,7 +12655,7 @@
         <v>0.9177168116010632</v>
       </c>
       <c r="K163">
-        <v>47.85465747859195</v>
+        <v>-0.02145342521408056</v>
       </c>
       <c r="L163">
         <v>-0.001819506124310028</v>
@@ -12685,13 +12685,13 @@
         <v>-0.09375</v>
       </c>
       <c r="U163">
-        <v>1.000026970170991</v>
+        <v>2.697017099095866E-05</v>
       </c>
       <c r="V163">
-        <v>0.9998921542194663</v>
+        <v>-0.0001078457805336885</v>
       </c>
       <c r="W163">
-        <v>0.9991915925626516</v>
+        <v>-0.0008084074373484462</v>
       </c>
     </row>
     <row r="164" spans="1:23">
@@ -12726,7 +12726,7 @@
         <v>1.026891004697545</v>
       </c>
       <c r="K164">
-        <v>50.66335596327633</v>
+        <v>0.006633559632763353</v>
       </c>
       <c r="L164">
         <v>-0.001198289439725668</v>
@@ -12756,13 +12756,13 @@
         <v>0.125</v>
       </c>
       <c r="U164">
-        <v>1.000053938887241</v>
+        <v>5.393888724070095E-05</v>
       </c>
       <c r="V164">
-        <v>1.00005392870625</v>
+        <v>5.392870625020585E-05</v>
       </c>
       <c r="W164">
-        <v>1.000809061488673</v>
+        <v>0.0008090614886731018</v>
       </c>
     </row>
     <row r="165" spans="1:23">
@@ -12797,7 +12797,7 @@
         <v>0.9210443955499619</v>
       </c>
       <c r="K165">
-        <v>47.94498230668338</v>
+        <v>-0.02055017693316619</v>
       </c>
       <c r="L165">
         <v>-0.000846047851656458</v>
@@ -12827,13 +12827,13 @@
         <v>0.125</v>
       </c>
       <c r="U165">
-        <v>1.000026967988997</v>
+        <v>2.696798899703978E-05</v>
       </c>
       <c r="V165">
-        <v>0.9998921484037965</v>
+        <v>-0.0001078515962035231</v>
       </c>
       <c r="W165">
-        <v>0.9991915925626516</v>
+        <v>-0.0008084074373484462</v>
       </c>
     </row>
     <row r="166" spans="1:23">
@@ -12868,7 +12868,7 @@
         <v>0.8308926926919108</v>
       </c>
       <c r="K166">
-        <v>45.3818345558129</v>
+        <v>-0.046181654441871</v>
       </c>
       <c r="L166">
         <v>-0.000970658903948772</v>
@@ -12898,13 +12898,13 @@
         <v>0.15625</v>
       </c>
       <c r="U166">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V166">
-        <v>0.9998921367705749</v>
+        <v>-0.0001078632294251314</v>
       </c>
       <c r="W166">
-        <v>0.9991909385113269</v>
+        <v>-0.0008090614886731018</v>
       </c>
     </row>
     <row r="167" spans="1:23">
@@ -12939,7 +12939,7 @@
         <v>0.9339241315484503</v>
       </c>
       <c r="K167">
-        <v>48.29166337568154</v>
+        <v>-0.01708336624318457</v>
       </c>
       <c r="L167">
         <v>-0.001078167452822389</v>
@@ -12969,13 +12969,13 @@
         <v>0.1875</v>
       </c>
       <c r="U167">
-        <v>1.000026967261744</v>
+        <v>2.696726174411523E-05</v>
       </c>
       <c r="V167">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W167">
-        <v>1.00080971659919</v>
+        <v>0.0008097165991902688</v>
       </c>
     </row>
     <row r="168" spans="1:23">
@@ -13010,7 +13010,7 @@
         <v>0.7674564611279105</v>
       </c>
       <c r="K168">
-        <v>43.42152002081877</v>
+        <v>-0.06578479979181234</v>
       </c>
       <c r="L168">
         <v>-0.001753606023912611</v>
@@ -13040,13 +13040,13 @@
         <v>0.0625</v>
       </c>
       <c r="U168">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V168">
-        <v>0.9998921251348435</v>
+        <v>-0.0001078748651565098</v>
       </c>
       <c r="W168">
-        <v>0.9983818770226537</v>
+        <v>-0.001618122977346315</v>
       </c>
     </row>
     <row r="169" spans="1:23">
@@ -13081,7 +13081,7 @@
         <v>0.7674564611279107</v>
       </c>
       <c r="K169">
-        <v>43.42152002081877</v>
+        <v>-0.06578479979181234</v>
       </c>
       <c r="L169">
         <v>-0.002723719679795699</v>
@@ -13111,13 +13111,13 @@
         <v>-0.0625</v>
       </c>
       <c r="U169">
-        <v>0.9999730334654694</v>
+        <v>-2.69665345306036E-05</v>
       </c>
       <c r="V169">
-        <v>0.9999460567483008</v>
+        <v>-5.394325169916225E-05</v>
       </c>
       <c r="W169">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:23">
@@ -13152,7 +13152,7 @@
         <v>0.7674564611279107</v>
       </c>
       <c r="K170">
-        <v>43.42152002081877</v>
+        <v>-0.06578479979181234</v>
       </c>
       <c r="L170">
         <v>-0.003800674401320413</v>
@@ -13182,13 +13182,13 @@
         <v>-0.21875</v>
       </c>
       <c r="U170">
-        <v>0.9999730327382558</v>
+        <v>-2.696726174422626E-05</v>
       </c>
       <c r="V170">
-        <v>0.9998921076765389</v>
+        <v>-0.0001078923234610896</v>
       </c>
       <c r="W170">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:23">
@@ -13223,7 +13223,7 @@
         <v>0.6353659991122795</v>
       </c>
       <c r="K171">
-        <v>38.85160871983233</v>
+        <v>-0.1114839128016766</v>
       </c>
       <c r="L171">
         <v>-0.005449077647434393</v>
@@ -13253,13 +13253,13 @@
         <v>-0.34375</v>
       </c>
       <c r="U171">
-        <v>0.9998921280440118</v>
+        <v>-0.0001078719559881591</v>
       </c>
       <c r="V171">
-        <v>0.9998920960345292</v>
+        <v>-0.0001079039654707792</v>
       </c>
       <c r="W171">
-        <v>0.9983792544570502</v>
+        <v>-0.001620745542949775</v>
       </c>
     </row>
     <row r="172" spans="1:23">
@@ -13294,7 +13294,7 @@
         <v>0.8165392625324012</v>
       </c>
       <c r="K172">
-        <v>44.95026776322358</v>
+        <v>-0.05049732236776422</v>
       </c>
       <c r="L172">
         <v>-0.006729844864897938</v>
@@ -13324,13 +13324,13 @@
         <v>-0.53125</v>
       </c>
       <c r="U172">
-        <v>0.9999190873047981</v>
+        <v>-8.091269520194011E-05</v>
       </c>
       <c r="V172">
-        <v>0.9998920843900071</v>
+        <v>-0.0001079156099929035</v>
       </c>
       <c r="W172">
-        <v>1.001623376623377</v>
+        <v>0.001623376623376638</v>
       </c>
     </row>
     <row r="173" spans="1:23">
@@ -13365,7 +13365,7 @@
         <v>0.7454567219751852</v>
       </c>
       <c r="K173">
-        <v>42.70840477394451</v>
+        <v>-0.07291595226055492</v>
       </c>
       <c r="L173">
         <v>-0.007976453901633198</v>
@@ -13395,13 +13395,13 @@
         <v>-0.625</v>
       </c>
       <c r="U173">
-        <v>0.9999190807574042</v>
+        <v>-8.091924259578942E-05</v>
       </c>
       <c r="V173">
-        <v>0.9998381091144568</v>
+        <v>-0.0001618908855431922</v>
       </c>
       <c r="W173">
-        <v>0.9991896272285251</v>
+        <v>-0.0008103727714748876</v>
       </c>
     </row>
     <row r="174" spans="1:23">
@@ -13436,7 +13436,7 @@
         <v>0.6828808119994395</v>
       </c>
       <c r="K174">
-        <v>40.57808533618643</v>
+        <v>-0.09421914663813574</v>
       </c>
       <c r="L174">
         <v>-0.009388657631318516</v>
@@ -13466,13 +13466,13 @@
         <v>-0.6875</v>
       </c>
       <c r="U174">
-        <v>0.9999460494726337</v>
+        <v>-5.395052736634209E-05</v>
       </c>
       <c r="V174">
-        <v>0.9997841105354058</v>
+        <v>-0.0002158894645941656</v>
       </c>
       <c r="W174">
-        <v>0.9991889699918897</v>
+        <v>-0.0008110300081103361</v>
       </c>
     </row>
     <row r="175" spans="1:23">
@@ -13507,7 +13507,7 @@
         <v>0.6828808119994395</v>
       </c>
       <c r="K175">
-        <v>40.57808533618643</v>
+        <v>-0.09421914663813574</v>
       </c>
       <c r="L175">
         <v>-0.01077725033115222</v>
@@ -13537,13 +13537,13 @@
         <v>-0.8125</v>
       </c>
       <c r="U175">
-        <v>0.9998920931236343</v>
+        <v>-0.0001079068763657487</v>
       </c>
       <c r="V175">
-        <v>0.9997300798963505</v>
+        <v>-0.000269920103649457</v>
       </c>
       <c r="W175">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:23">
@@ -13578,7 +13578,7 @@
         <v>0.7758925003977426</v>
       </c>
       <c r="K176">
-        <v>43.69028531985848</v>
+        <v>-0.06309714680141526</v>
       </c>
       <c r="L176">
         <v>-0.01172937496020613</v>
@@ -13608,13 +13608,13 @@
         <v>-0.75</v>
       </c>
       <c r="U176">
-        <v>0.9998920814784836</v>
+        <v>-0.0001079185215163703</v>
       </c>
       <c r="V176">
-        <v>0.999784005615854</v>
+        <v>-0.0002159943841459899</v>
       </c>
       <c r="W176">
-        <v>1.000811688311688</v>
+        <v>0.0008116883116882079</v>
       </c>
     </row>
     <row r="177" spans="1:23">
@@ -13649,7 +13649,7 @@
         <v>0.7758925003977425</v>
       </c>
       <c r="K177">
-        <v>43.69028531985848</v>
+        <v>-0.06309714680141526</v>
       </c>
       <c r="L177">
         <v>-0.01231378928021262</v>
@@ -13679,13 +13679,13 @@
         <v>-0.6875</v>
       </c>
       <c r="U177">
-        <v>0.9998650872885244</v>
+        <v>-0.0001349127114755877</v>
       </c>
       <c r="V177">
-        <v>0.999783958952201</v>
+        <v>-0.0002160410477990427</v>
       </c>
       <c r="W177">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:23">
@@ -13720,7 +13720,7 @@
         <v>0.7034000602600622</v>
       </c>
       <c r="K178">
-        <v>41.29388489939776</v>
+        <v>-0.08706115100602241</v>
       </c>
       <c r="L178">
         <v>-0.0128881679691219</v>
@@ -13750,13 +13750,13 @@
         <v>-0.65625</v>
       </c>
       <c r="U178">
-        <v>0.9998380829015544</v>
+        <v>-0.0001619170984455964</v>
       </c>
       <c r="V178">
-        <v>0.9997839122683809</v>
+        <v>-0.0002160877316190746</v>
       </c>
       <c r="W178">
-        <v>0.9991889699918897</v>
+        <v>-0.0008110300081103361</v>
       </c>
     </row>
     <row r="179" spans="1:23">
@@ -13791,7 +13791,7 @@
         <v>0.7034000602600622</v>
       </c>
       <c r="K179">
-        <v>41.29388489939776</v>
+        <v>-0.08706115100602241</v>
       </c>
       <c r="L179">
         <v>-0.01337311052978251</v>
@@ -13821,13 +13821,13 @@
         <v>-0.53125</v>
       </c>
       <c r="U179">
-        <v>0.9998920377867745</v>
+        <v>-0.0001079622132255098</v>
       </c>
       <c r="V179">
-        <v>0.9997298319554764</v>
+        <v>-0.0002701680445236221</v>
       </c>
       <c r="W179">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:23">
@@ -13862,7 +13862,7 @@
         <v>0.7034000602600622</v>
       </c>
       <c r="K180">
-        <v>41.29388489939776</v>
+        <v>-0.08706115100602241</v>
       </c>
       <c r="L180">
         <v>-0.01372441986316321</v>
@@ -13892,13 +13892,13 @@
         <v>-0.5</v>
       </c>
       <c r="U180">
-        <v>0.9998380391945151</v>
+        <v>-0.0001619608054849175</v>
       </c>
       <c r="V180">
-        <v>0.9997838071559831</v>
+        <v>-0.0002161928440168603</v>
       </c>
       <c r="W180">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:23">
@@ -13933,7 +13933,7 @@
         <v>0.7034000602600622</v>
       </c>
       <c r="K181">
-        <v>41.29388489939776</v>
+        <v>-0.08706115100602241</v>
       </c>
       <c r="L181">
         <v>-0.01392252878736437</v>
@@ -13963,13 +13963,13 @@
         <v>-0.4375</v>
       </c>
       <c r="U181">
-        <v>0.999865010799136</v>
+        <v>-0.0001349892008639664</v>
       </c>
       <c r="V181">
-        <v>0.9998378203048978</v>
+        <v>-0.0001621796951022381</v>
       </c>
       <c r="W181">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:23">
@@ -14004,7 +14004,7 @@
         <v>0.6310168710611521</v>
       </c>
       <c r="K182">
-        <v>38.68855572601206</v>
+        <v>-0.1131144427398794</v>
       </c>
       <c r="L182">
         <v>-0.01425950404818522</v>
@@ -14034,13 +14034,13 @@
         <v>-0.375</v>
       </c>
       <c r="U182">
-        <v>0.9998649925745915</v>
+        <v>-0.0001350074254085065</v>
       </c>
       <c r="V182">
-        <v>0.9997296566639633</v>
+        <v>-0.0002703433360367047</v>
       </c>
       <c r="W182">
-        <v>0.9991883116883117</v>
+        <v>-0.0008116883116883189</v>
       </c>
     </row>
     <row r="183" spans="1:23">
@@ -14075,7 +14075,7 @@
         <v>0.6310168710611521</v>
       </c>
       <c r="K183">
-        <v>38.68855572601206</v>
+        <v>-0.1131144427398794</v>
       </c>
       <c r="L183">
         <v>-0.01460742955876312</v>
@@ -14105,13 +14105,13 @@
         <v>-0.28125</v>
       </c>
       <c r="U183">
-        <v>0.9998649743451257</v>
+        <v>-0.0001350256548743323</v>
       </c>
       <c r="V183">
-        <v>0.9998377501352081</v>
+        <v>-0.0001622498647918524</v>
       </c>
       <c r="W183">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:23">
@@ -14146,7 +14146,7 @@
         <v>0.7450387261234493</v>
       </c>
       <c r="K184">
-        <v>42.69468149732874</v>
+        <v>-0.07305318502671265</v>
       </c>
       <c r="L184">
         <v>-0.0145918203783251</v>
@@ -14176,13 +14176,13 @@
         <v>-0.28125</v>
       </c>
       <c r="U184">
-        <v>0.9999189736664414</v>
+        <v>-8.102633355855371E-05</v>
       </c>
       <c r="V184">
-        <v>0.9998918158706117</v>
+        <v>-0.000108184129388289</v>
       </c>
       <c r="W184">
-        <v>1.000812347684809</v>
+        <v>0.0008123476848092004</v>
       </c>
     </row>
     <row r="185" spans="1:23">
@@ -14217,7 +14217,7 @@
         <v>0.6651994848130603</v>
       </c>
       <c r="K185">
-        <v>39.9471349156547</v>
+        <v>-0.100528650843453</v>
       </c>
       <c r="L185">
         <v>-0.0145988653927251</v>
@@ -14247,13 +14247,13 @@
         <v>-0.3125</v>
       </c>
       <c r="U185">
-        <v>0.9998649451677383</v>
+        <v>-0.0001350548322617273</v>
       </c>
       <c r="V185">
-        <v>0.9998377062483096</v>
+        <v>-0.0001622937516904122</v>
       </c>
       <c r="W185">
-        <v>0.9991883116883117</v>
+        <v>-0.0008116883116883189</v>
       </c>
     </row>
     <row r="186" spans="1:23">
@@ -14288,7 +14288,7 @@
         <v>0.4970095688459562</v>
       </c>
       <c r="K186">
-        <v>33.20015978448959</v>
+        <v>-0.1679984021551041</v>
       </c>
       <c r="L186">
         <v>-0.01545139595115581</v>
@@ -14318,13 +14318,13 @@
         <v>-0.375</v>
       </c>
       <c r="U186">
-        <v>0.99983791231056</v>
+        <v>-0.000162087689440038</v>
       </c>
       <c r="V186">
-        <v>0.9997835732063628</v>
+        <v>-0.0002164267936372033</v>
       </c>
       <c r="W186">
-        <v>0.9975629569455727</v>
+        <v>-0.002437043054427268</v>
       </c>
     </row>
     <row r="187" spans="1:23">
@@ -14359,7 +14359,7 @@
         <v>0.5857258215638568</v>
       </c>
       <c r="K187">
-        <v>36.93739570856006</v>
+        <v>-0.1306260429143994</v>
       </c>
       <c r="L187">
         <v>-0.0164110149856629</v>
@@ -14389,13 +14389,13 @@
         <v>-0.46875</v>
       </c>
       <c r="U187">
-        <v>0.9998108670395288</v>
+        <v>-0.0001891329604711833</v>
       </c>
       <c r="V187">
-        <v>0.9997294079445828</v>
+        <v>-0.0002705920554172403</v>
       </c>
       <c r="W187">
-        <v>1.000814332247557</v>
+        <v>0.0008143322475568926</v>
       </c>
     </row>
     <row r="188" spans="1:23">
@@ -14430,7 +14430,7 @@
         <v>0.5857258215638568</v>
       </c>
       <c r="K188">
-        <v>36.93739570856006</v>
+        <v>-0.1306260429143994</v>
       </c>
       <c r="L188">
         <v>-0.01731497409892789</v>
@@ -14460,13 +14460,13 @@
         <v>-0.5</v>
       </c>
       <c r="U188">
-        <v>0.9998108312614852</v>
+        <v>-0.0001891687385148222</v>
       </c>
       <c r="V188">
-        <v>0.9997834677637634</v>
+        <v>-0.0002165322362366329</v>
       </c>
       <c r="W188">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:23">
@@ -14501,7 +14501,7 @@
         <v>0.6840263785920014</v>
       </c>
       <c r="K189">
-        <v>40.61850736351942</v>
+        <v>-0.09381492636480582</v>
       </c>
       <c r="L189">
         <v>-0.01776966312158352</v>
@@ -14531,13 +14531,13 @@
         <v>-0.53125</v>
       </c>
       <c r="U189">
-        <v>0.9998378246884883</v>
+        <v>-0.0001621753115117475</v>
       </c>
       <c r="V189">
-        <v>0.9998917104336998</v>
+        <v>-0.0001082895663001571</v>
       </c>
       <c r="W189">
-        <v>1.000813669650122</v>
+        <v>0.0008136696501219731</v>
       </c>
     </row>
     <row r="190" spans="1:23">
@@ -14572,7 +14572,7 @@
         <v>0.6840263785920014</v>
       </c>
       <c r="K190">
-        <v>40.61850736351942</v>
+        <v>-0.09381492636480582</v>
       </c>
       <c r="L190">
         <v>-0.01785857971333096</v>
@@ -14602,13 +14602,13 @@
         <v>-0.53125</v>
       </c>
       <c r="U190">
-        <v>0.9998107647806223</v>
+        <v>-0.000189235219377748</v>
       </c>
       <c r="V190">
-        <v>0.9998916987057994</v>
+        <v>-0.0001083012942005857</v>
       </c>
       <c r="W190">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:23">
@@ -14643,7 +14643,7 @@
         <v>0.7929466633877297</v>
       </c>
       <c r="K191">
-        <v>44.22589246963298</v>
+        <v>-0.05774107530367018</v>
       </c>
       <c r="L191">
         <v>-0.01735992975695206</v>
@@ -14673,13 +14673,13 @@
         <v>-0.5</v>
       </c>
       <c r="U191">
-        <v>0.9998377676833224</v>
+        <v>-0.0001622323166775574</v>
       </c>
       <c r="V191">
-        <v>0.9998916869753587</v>
+        <v>-0.0001083130246413155</v>
       </c>
       <c r="W191">
-        <v>1.000813008130081</v>
+        <v>0.0008130081300812275</v>
       </c>
     </row>
     <row r="192" spans="1:23">
@@ -14714,7 +14714,7 @@
         <v>0.6450361032429869</v>
       </c>
       <c r="K192">
-        <v>39.21106059443785</v>
+        <v>-0.1078893940556215</v>
       </c>
       <c r="L192">
         <v>-0.01706448190037077</v>
@@ -14744,13 +14744,13 @@
         <v>-0.5625</v>
       </c>
       <c r="U192">
-        <v>0.9997836551463032</v>
+        <v>-0.0002163448536968149</v>
       </c>
       <c r="V192">
-        <v>0.9997833504847533</v>
+        <v>-0.0002166495152466918</v>
       </c>
       <c r="W192">
-        <v>0.9983753046303818</v>
+        <v>-0.001624695369618179</v>
       </c>
     </row>
     <row r="193" spans="1:23">
@@ -14785,7 +14785,7 @@
         <v>0.5873708752965847</v>
       </c>
       <c r="K193">
-        <v>37.00274992048347</v>
+        <v>-0.1299725007951653</v>
       </c>
       <c r="L193">
         <v>-0.01714447045662613</v>
@@ -14815,13 +14815,13 @@
         <v>-0.59375</v>
       </c>
       <c r="U193">
-        <v>0.9997836083310793</v>
+        <v>-0.0002163916689207346</v>
       </c>
       <c r="V193">
-        <v>0.9997833035375697</v>
+        <v>-0.000216696462430277</v>
       </c>
       <c r="W193">
-        <v>0.9991863303498779</v>
+        <v>-0.0008136696501220841</v>
       </c>
     </row>
     <row r="194" spans="1:23">
@@ -14856,7 +14856,7 @@
         <v>0.494333685133339</v>
       </c>
       <c r="K194">
-        <v>33.0805421875523</v>
+        <v>-0.169194578124477</v>
       </c>
       <c r="L194">
         <v>-0.01797568881908341</v>
@@ -14886,13 +14886,13 @@
         <v>-0.53125</v>
       </c>
       <c r="U194">
-        <v>0.9997023970564364</v>
+        <v>-0.000297602943563624</v>
       </c>
       <c r="V194">
-        <v>0.999674884855053</v>
+        <v>-0.0003251151449470413</v>
       </c>
       <c r="W194">
-        <v>0.998371335504886</v>
+        <v>-0.001628664495114007</v>
       </c>
     </row>
     <row r="195" spans="1:23">
@@ -14927,7 +14927,7 @@
         <v>0.4943336851333391</v>
       </c>
       <c r="K195">
-        <v>33.0805421875523</v>
+        <v>-0.169194578124477</v>
       </c>
       <c r="L195">
         <v>-0.01914426271121872</v>
@@ -14957,13 +14957,13 @@
         <v>-0.53125</v>
       </c>
       <c r="U195">
-        <v>0.9997293713295985</v>
+        <v>-0.0002706286704015071</v>
       </c>
       <c r="V195">
-        <v>0.9996747791208195</v>
+        <v>-0.0003252208791805211</v>
       </c>
       <c r="W195">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:23">
@@ -14998,7 +14998,7 @@
         <v>0.494333685133339</v>
       </c>
       <c r="K196">
-        <v>33.0805421875523</v>
+        <v>-0.169194578124477</v>
       </c>
       <c r="L196">
         <v>-0.02037364687305482</v>
@@ -15028,13 +15028,13 @@
         <v>-0.53125</v>
       </c>
       <c r="U196">
-        <v>0.9997563682629057</v>
+        <v>-0.0002436317370942964</v>
       </c>
       <c r="V196">
-        <v>0.99967467331779</v>
+        <v>-0.0003253266822099699</v>
       </c>
       <c r="W196">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:23">
@@ -15069,7 +15069,7 @@
         <v>0.4525320994602819</v>
       </c>
       <c r="K197">
-        <v>31.1547056088075</v>
+        <v>-0.188452943911925</v>
       </c>
       <c r="L197">
         <v>-0.02178354172917213</v>
@@ -15099,13 +15099,13 @@
         <v>-0.625</v>
       </c>
       <c r="U197">
-        <v>0.9997021553124662</v>
+        <v>-0.0002978446875337992</v>
       </c>
       <c r="V197">
-        <v>0.9996745674458968</v>
+        <v>-0.0003254325541032221</v>
       </c>
       <c r="W197">
-        <v>0.9991843393148451</v>
+        <v>-0.0008156606851549286</v>
       </c>
     </row>
     <row r="198" spans="1:23">
@@ -15140,7 +15140,7 @@
         <v>0.5415441786546528</v>
       </c>
       <c r="K198">
-        <v>35.12998110292713</v>
+        <v>-0.1487001889707287</v>
       </c>
       <c r="L198">
         <v>-0.02283862264615648</v>
@@ -15170,13 +15170,13 @@
         <v>-0.71875</v>
       </c>
       <c r="U198">
-        <v>0.9997833211451478</v>
+        <v>-0.0002166788548522147</v>
       </c>
       <c r="V198">
-        <v>0.9997287179208942</v>
+        <v>-0.0002712820791057613</v>
       </c>
       <c r="W198">
-        <v>1.000816326530612</v>
+        <v>0.0008163265306122547</v>
       </c>
     </row>
     <row r="199" spans="1:23">
@@ -15211,7 +15211,7 @@
         <v>0.3939111310914633</v>
       </c>
       <c r="K199">
-        <v>28.2594149874549</v>
+        <v>-0.217405850125451</v>
       </c>
       <c r="L199">
         <v>-0.02471186414445379</v>
@@ -15241,13 +15241,13 @@
         <v>-1</v>
       </c>
       <c r="U199">
-        <v>0.9996749112778696</v>
+        <v>-0.0003250887221304399</v>
       </c>
       <c r="V199">
-        <v>0.999457288613915</v>
+        <v>-0.0005427113860849708</v>
       </c>
       <c r="W199">
-        <v>0.9967373572593801</v>
+        <v>-0.003262642740619937</v>
       </c>
     </row>
     <row r="200" spans="1:23">
@@ -15282,7 +15282,7 @@
         <v>0.4656519114777085</v>
       </c>
       <c r="K200">
-        <v>31.77097562055005</v>
+        <v>-0.1822902437944995</v>
       </c>
       <c r="L200">
         <v>-0.02657688577054768</v>
@@ -15312,13 +15312,13 @@
         <v>-1.09375</v>
       </c>
       <c r="U200">
-        <v>0.999701905097423</v>
+        <v>-0.0002980949025770396</v>
       </c>
       <c r="V200">
-        <v>0.9995655951346656</v>
+        <v>-0.0004344048653344146</v>
       </c>
       <c r="W200">
-        <v>1.000818330605565</v>
+        <v>0.0008183306055646877</v>
       </c>
     </row>
     <row r="201" spans="1:23">
@@ -15353,7 +15353,7 @@
         <v>0.4045512350398585</v>
       </c>
       <c r="K201">
-        <v>28.80288201294259</v>
+        <v>-0.2119711798705741</v>
       </c>
       <c r="L201">
         <v>-0.02881413677511297</v>
@@ -15383,13 +15383,13 @@
         <v>-1.21875</v>
       </c>
       <c r="U201">
-        <v>0.999701816210355</v>
+        <v>-0.0002981837896449679</v>
       </c>
       <c r="V201">
-        <v>0.9996197305519339</v>
+        <v>-0.0003802694480661284</v>
       </c>
       <c r="W201">
-        <v>0.9983646770237122</v>
+        <v>-0.001635322976287767</v>
       </c>
     </row>
     <row r="202" spans="1:23">
@@ -15424,7 +15424,7 @@
         <v>0.4736119431870915</v>
       </c>
       <c r="K202">
-        <v>32.13952936366513</v>
+        <v>-0.1786047063633487</v>
       </c>
       <c r="L202">
         <v>-0.03073483547228482</v>
@@ -15454,13 +15454,13 @@
         <v>-1.28125</v>
       </c>
       <c r="U202">
-        <v>0.9996746115675589</v>
+        <v>-0.0003253884324411205</v>
       </c>
       <c r="V202">
-        <v>0.999619585892071</v>
+        <v>-0.0003804141079289947</v>
       </c>
       <c r="W202">
-        <v>1.000819000819001</v>
+        <v>0.0008190008190007703</v>
       </c>
     </row>
     <row r="203" spans="1:23">
@@ -15495,7 +15495,7 @@
         <v>0.619002907707582</v>
       </c>
       <c r="K203">
-        <v>38.23358838706817</v>
+        <v>-0.1176641161293183</v>
       </c>
       <c r="L203">
         <v>-0.0316382192051133</v>
@@ -15525,13 +15525,13 @@
         <v>-1.25</v>
       </c>
       <c r="U203">
-        <v>0.999755879241598</v>
+        <v>-0.0002441207584019667</v>
       </c>
       <c r="V203">
-        <v>0.999728172230075</v>
+        <v>-0.0002718277699249594</v>
       </c>
       <c r="W203">
-        <v>1.001636661211129</v>
+        <v>0.001636661211129375</v>
       </c>
     </row>
     <row r="204" spans="1:23">
@@ -15566,7 +15566,7 @@
         <v>0.6955244679815243</v>
       </c>
       <c r="K204">
-        <v>41.021199110711</v>
+        <v>-0.08978800889289007</v>
       </c>
       <c r="L204">
         <v>-0.03145646088320282</v>
@@ -15596,13 +15596,13 @@
         <v>-1.1875</v>
       </c>
       <c r="U204">
-        <v>0.999810081936079</v>
+        <v>-0.0001899180639209908</v>
       </c>
       <c r="V204">
-        <v>0.9997280983196475</v>
+        <v>-0.0002719016803525154</v>
       </c>
       <c r="W204">
-        <v>1.000816993464052</v>
+        <v>0.0008169934640522847</v>
       </c>
     </row>
     <row r="205" spans="1:23">
@@ -15637,7 +15637,7 @@
         <v>0.7760734787962006</v>
       </c>
       <c r="K205">
-        <v>43.69602316916601</v>
+        <v>-0.06303976830833991</v>
       </c>
       <c r="L205">
         <v>-0.0302177478639142</v>
@@ -15667,13 +15667,13 @@
         <v>-1</v>
       </c>
       <c r="U205">
-        <v>0.99983718216602</v>
+        <v>-0.000162817833979978</v>
       </c>
       <c r="V205">
-        <v>0.9997824194952133</v>
+        <v>-0.0002175805047867074</v>
       </c>
       <c r="W205">
-        <v>1.000816326530612</v>
+        <v>0.0008163265306122547</v>
       </c>
     </row>
     <row r="206" spans="1:23">
@@ -15708,7 +15708,7 @@
         <v>0.7760734787962006</v>
       </c>
       <c r="K206">
-        <v>43.69602316916601</v>
+        <v>-0.06303976830833991</v>
       </c>
       <c r="L206">
         <v>-0.02830699848754727</v>
@@ -15738,13 +15738,13 @@
         <v>-0.875</v>
       </c>
       <c r="U206">
-        <v>0.9998100149273985</v>
+        <v>-0.000189985072601484</v>
       </c>
       <c r="V206">
-        <v>0.9997279651795431</v>
+        <v>-0.0002720348204569012</v>
       </c>
       <c r="W206">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:23">
@@ -15779,7 +15779,7 @@
         <v>0.7760734787962006</v>
       </c>
       <c r="K207">
-        <v>43.69602316916601</v>
+        <v>-0.06303976830833991</v>
       </c>
       <c r="L207">
         <v>-0.02600729774546056</v>
@@ -15809,13 +15809,13 @@
         <v>-0.46875</v>
       </c>
       <c r="U207">
-        <v>0.999809978826212</v>
+        <v>-0.0001900211737879687</v>
       </c>
       <c r="V207">
-        <v>0.9998367346938775</v>
+        <v>-0.0001632653061225398</v>
       </c>
       <c r="W207">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:23">
@@ -15850,7 +15850,7 @@
         <v>0.6533172550986265</v>
       </c>
       <c r="K208">
-        <v>39.51554083669524</v>
+        <v>-0.1048445916330476</v>
       </c>
       <c r="L208">
         <v>-0.02411651921615731</v>
@@ -15880,13 +15880,13 @@
         <v>-0.25</v>
       </c>
       <c r="U208">
-        <v>0.9997827916700606</v>
+        <v>-0.0002172083299394334</v>
       </c>
       <c r="V208">
-        <v>0.9997822773786197</v>
+        <v>-0.0002177226213803118</v>
       </c>
       <c r="W208">
-        <v>0.99836867862969</v>
+        <v>-0.001631321370309968</v>
       </c>
     </row>
     <row r="209" spans="1:23">
@@ -15921,7 +15921,7 @@
         <v>0.6031081720753887</v>
       </c>
       <c r="K209">
-        <v>37.62117757123046</v>
+        <v>-0.1237882242876954</v>
       </c>
       <c r="L209">
         <v>-0.02280298005074445</v>
@@ -15951,13 +15951,13 @@
         <v>0.03125</v>
       </c>
       <c r="U209">
-        <v>0.999755587540396</v>
+        <v>-0.0002444124596040487</v>
       </c>
       <c r="V209">
-        <v>0.9998366724738675</v>
+        <v>-0.0001633275261324618</v>
       </c>
       <c r="W209">
-        <v>0.9991830065359477</v>
+        <v>-0.0008169934640522847</v>
       </c>
     </row>
     <row r="210" spans="1:23">
@@ -15992,7 +15992,7 @@
         <v>0.5579698618072758</v>
       </c>
       <c r="K210">
-        <v>35.81390599944082</v>
+        <v>-0.1418609400055918</v>
       </c>
       <c r="L210">
         <v>-0.02213688938346581</v>
@@ -16022,13 +16022,13 @@
         <v>0.15625</v>
       </c>
       <c r="U210">
-        <v>0.9997283642092681</v>
+        <v>-0.0002716357907318612</v>
       </c>
       <c r="V210">
-        <v>0.9997821943915056</v>
+        <v>-0.0002178056084943814</v>
       </c>
       <c r="W210">
-        <v>0.9991823385118561</v>
+        <v>-0.0008176614881438837</v>
       </c>
     </row>
     <row r="211" spans="1:23">
@@ -16063,7 +16063,7 @@
         <v>0.5579698618072758</v>
       </c>
       <c r="K211">
-        <v>35.81390599944082</v>
+        <v>-0.1418609400055918</v>
       </c>
       <c r="L211">
         <v>-0.02182539545241938</v>
@@ -16093,13 +16093,13 @@
         <v>0.15625</v>
       </c>
       <c r="U211">
-        <v>0.9997282904032171</v>
+        <v>-0.0002717095967829097</v>
       </c>
       <c r="V211">
-        <v>0.9997821469418877</v>
+        <v>-0.0002178530581122828</v>
       </c>
       <c r="W211">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:23">
@@ -16134,7 +16134,7 @@
         <v>0.7238265042314935</v>
       </c>
       <c r="K212">
-        <v>41.98952170967958</v>
+        <v>-0.08010478290320422</v>
       </c>
       <c r="L212">
         <v>-0.02107587859424047</v>
@@ -16164,13 +16164,13 @@
         <v>0.15625</v>
       </c>
       <c r="U212">
-        <v>0.9998097515899331</v>
+        <v>-0.0001902484100668733</v>
       </c>
       <c r="V212">
-        <v>0.9999455248678979</v>
+        <v>-5.447513210210531E-05</v>
       </c>
       <c r="W212">
-        <v>1.001636661211129</v>
+        <v>0.001636661211129375</v>
       </c>
     </row>
     <row r="213" spans="1:23">
@@ -16205,7 +16205,7 @@
         <v>0.7238265042314935</v>
       </c>
       <c r="K213">
-        <v>41.98952170967958</v>
+        <v>-0.08010478290320422</v>
       </c>
       <c r="L213">
         <v>-0.02003189927388711</v>
@@ -16235,13 +16235,13 @@
         <v>0.0625</v>
       </c>
       <c r="U213">
-        <v>0.9998097153885883</v>
+        <v>-0.0001902846114116841</v>
       </c>
       <c r="V213">
-        <v>0.9998910438003922</v>
+        <v>-0.0001089561996078237</v>
       </c>
       <c r="W213">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:23">
@@ -16276,7 +16276,7 @@
         <v>0.7238265042314934</v>
       </c>
       <c r="K214">
-        <v>41.98952170967957</v>
+        <v>-0.08010478290320427</v>
       </c>
       <c r="L214">
         <v>-0.01880300797504909</v>
@@ -16306,13 +16306,13 @@
         <v>0</v>
       </c>
       <c r="U214">
-        <v>0.9997824904839587</v>
+        <v>-0.0002175095160412699</v>
       </c>
       <c r="V214">
-        <v>1.000108968072355</v>
+        <v>0.0001089680723549424</v>
       </c>
       <c r="W214">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:23">
@@ -16347,7 +16347,7 @@
         <v>1.013997040620269</v>
       </c>
       <c r="K215">
-        <v>50.34749407119183</v>
+        <v>0.00347494071191834</v>
       </c>
       <c r="L215">
         <v>-0.01658086234118304</v>
@@ -16377,13 +16377,13 @@
         <v>-0.09375</v>
       </c>
       <c r="U215">
-        <v>0.9998912215816381</v>
+        <v>-0.0001087784183618767</v>
       </c>
       <c r="V215">
-        <v>1.000217912399215</v>
+        <v>0.0002179123992154253</v>
       </c>
       <c r="W215">
-        <v>1.002450980392157</v>
+        <v>0.002450980392156854</v>
       </c>
     </row>
     <row r="216" spans="1:23">
@@ -16418,7 +16418,7 @@
         <v>1.013997040620269</v>
       </c>
       <c r="K216">
-        <v>50.34749407119183</v>
+        <v>0.00347494071191834</v>
       </c>
       <c r="L216">
         <v>-0.01383761648335231</v>
@@ -16448,13 +16448,13 @@
         <v>-0.03125</v>
       </c>
       <c r="U216">
-        <v>0.9999728024369017</v>
+        <v>-2.719756309832455E-05</v>
       </c>
       <c r="V216">
-        <v>1.000326797385621</v>
+        <v>0.0003267973856209139</v>
       </c>
       <c r="W216">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:23">
@@ -16489,7 +16489,7 @@
         <v>1.013997040620269</v>
       </c>
       <c r="K217">
-        <v>50.34749407119183</v>
+        <v>0.00347494071191834</v>
       </c>
       <c r="L217">
         <v>-0.01090273002421635</v>
@@ -16519,13 +16519,13 @@
         <v>0.03125</v>
       </c>
       <c r="U217">
-        <v>0.9999456033943482</v>
+        <v>-5.439660565176307E-05</v>
       </c>
       <c r="V217">
-        <v>1.000272242186649</v>
+        <v>0.0002722421866492297</v>
       </c>
       <c r="W217">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:23">
@@ -16560,7 +16560,7 @@
         <v>1.126810584436676</v>
       </c>
       <c r="K218">
-        <v>52.98123832382242</v>
+        <v>0.02981238323822422</v>
       </c>
       <c r="L218">
         <v>-0.00770175978058095</v>
@@ -16590,13 +16590,13 @@
         <v>0.21875</v>
       </c>
       <c r="U218">
-        <v>0.9999728002175983</v>
+        <v>-2.719978240173226E-05</v>
       </c>
       <c r="V218">
-        <v>1.00021773447281</v>
+        <v>0.0002177344728104824</v>
       </c>
       <c r="W218">
-        <v>1.00081499592502</v>
+        <v>0.0008149959250203231</v>
       </c>
     </row>
     <row r="219" spans="1:23">
@@ -16631,7 +16631,7 @@
         <v>1.126810584436676</v>
       </c>
       <c r="K219">
-        <v>52.98123832382242</v>
+        <v>0.02981238323822422</v>
       </c>
       <c r="L219">
         <v>-0.004515389312347974</v>
@@ -16661,13 +16661,13 @@
         <v>0.46875</v>
       </c>
       <c r="U219">
-        <v>0.9999455989554999</v>
+        <v>-5.440104450005201E-05</v>
       </c>
       <c r="V219">
-        <v>1.000163265306123</v>
+        <v>0.0001632653061225398</v>
       </c>
       <c r="W219">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:23">
@@ -16702,7 +16702,7 @@
         <v>1.126810584436676</v>
       </c>
       <c r="K220">
-        <v>52.98123832382242</v>
+        <v>0.02981238323822422</v>
       </c>
       <c r="L220">
         <v>-0.001524491340225469</v>
@@ -16732,13 +16732,13 @@
         <v>0.625</v>
       </c>
       <c r="U220">
-        <v>0.9999455959958652</v>
+        <v>-5.44040041348115E-05</v>
       </c>
       <c r="V220">
-        <v>1.000108825769942</v>
+        <v>0.0001088257699422002</v>
       </c>
       <c r="W220">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:23">
@@ -16773,7 +16773,7 @@
         <v>1.126810584436676</v>
       </c>
       <c r="K221">
-        <v>52.98123832382244</v>
+        <v>0.02981238323822444</v>
       </c>
       <c r="L221">
         <v>0.00116283128126947</v>
@@ -16803,13 +16803,13 @@
         <v>0.8125</v>
       </c>
       <c r="U221">
-        <v>0.9999183895538629</v>
+        <v>-8.161044613708146E-05</v>
       </c>
       <c r="V221">
-        <v>1.000108813928183</v>
+        <v>0.0001088139281828493</v>
       </c>
       <c r="W221">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:23">
@@ -16844,7 +16844,7 @@
         <v>1.126810584436676</v>
       </c>
       <c r="K222">
-        <v>52.98123832382244</v>
+        <v>0.02981238323822444</v>
       </c>
       <c r="L222">
         <v>0.003490604916105516</v>
@@ -16874,13 +16874,13 @@
         <v>1</v>
       </c>
       <c r="U222">
-        <v>0.9999727942976848</v>
+        <v>-2.72057023151806E-05</v>
       </c>
       <c r="V222">
-        <v>1.000108802089</v>
+        <v>0.000108802089000104</v>
       </c>
       <c r="W222">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:23">
@@ -16915,7 +16915,7 @@
         <v>0.9834310598411785</v>
       </c>
       <c r="K223">
-        <v>49.58231620714491</v>
+        <v>-0.004176837928550947</v>
       </c>
       <c r="L223">
         <v>0.005142201493917001</v>
@@ -16945,13 +16945,13 @@
         <v>0.96875</v>
       </c>
       <c r="U223">
-        <v>0.9999727935575144</v>
+        <v>-2.720644248555004E-05</v>
       </c>
       <c r="V223">
-        <v>1.00016318537859</v>
+        <v>0.0001631853785901693</v>
       </c>
       <c r="W223">
-        <v>0.999185667752443</v>
+        <v>-0.0008143322475570036</v>
       </c>
     </row>
     <row r="224" spans="1:23">
@@ -16986,7 +16986,7 @@
         <v>0.8672684972158277</v>
       </c>
       <c r="K224">
-        <v>46.44583778438719</v>
+        <v>-0.03554162215612811</v>
       </c>
       <c r="L224">
         <v>0.005962960112330483</v>
@@ -17016,13 +17016,13 @@
         <v>0.84375</v>
       </c>
       <c r="U224">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V224">
-        <v>1.000163158753467</v>
+        <v>0.0001631587534671741</v>
       </c>
       <c r="W224">
-        <v>0.9991850040749797</v>
+        <v>-0.0008149959250203231</v>
       </c>
     </row>
     <row r="225" spans="1:23">
@@ -17057,7 +17057,7 @@
         <v>0.7713602579961107</v>
       </c>
       <c r="K225">
-        <v>43.54621001087202</v>
+        <v>-0.06453789989127984</v>
       </c>
       <c r="L225">
         <v>0.005909264210441735</v>
@@ -17087,13 +17087,13 @@
         <v>0.65625</v>
       </c>
       <c r="U225">
-        <v>0.9999727928173038</v>
+        <v>-2.720718269622058E-05</v>
       </c>
       <c r="V225">
-        <v>1.000163132137031</v>
+        <v>0.0001631321370310079</v>
       </c>
       <c r="W225">
-        <v>0.9991843393148451</v>
+        <v>-0.0008156606851549286</v>
       </c>
     </row>
     <row r="226" spans="1:23">
@@ -17128,7 +17128,7 @@
         <v>0.7713602579961106</v>
       </c>
       <c r="K226">
-        <v>43.54621001087202</v>
+        <v>-0.06453789989127984</v>
       </c>
       <c r="L226">
         <v>0.00530780912671726</v>
@@ -17158,13 +17158,13 @@
         <v>0.375</v>
       </c>
       <c r="U226">
-        <v>0.9999727920770527</v>
+        <v>-2.720792294730323E-05</v>
       </c>
       <c r="V226">
-        <v>1.000163105529277</v>
+        <v>0.0001631055292774519</v>
       </c>
       <c r="W226">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data_clean/Aker 14.01.2021.xlsx
+++ b/data_clean/Aker 14.01.2021.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="249">
   <si>
     <t>tid</t>
   </si>
@@ -71,6 +71,9 @@
   </si>
   <si>
     <t>open_15_sma</t>
+  </si>
+  <si>
+    <t>open_3_sma</t>
   </si>
   <si>
     <t>sma8-16</t>
@@ -1115,13 +1118,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W226"/>
+  <dimension ref="A1:X226"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:24">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1191,10 +1194,13 @@
       <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:23">
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B2">
         <v>623.5</v>
@@ -1251,7 +1257,7 @@
         <v>623.5</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>623.5</v>
       </c>
       <c r="U2">
         <v>0</v>
@@ -1262,10 +1268,13 @@
       <c r="W2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:23">
+      <c r="X2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B3">
         <v>623</v>
@@ -1322,7 +1331,7 @@
         <v>623.25</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>623.25</v>
       </c>
       <c r="U3">
         <v>0</v>
@@ -1333,10 +1342,13 @@
       <c r="W3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:23">
+      <c r="X3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B4">
         <v>620</v>
@@ -1393,21 +1405,24 @@
         <v>622.1666666666666</v>
       </c>
       <c r="T4">
+        <v>622.1666666666666</v>
+      </c>
+      <c r="U4">
         <v>0</v>
-      </c>
-      <c r="U4">
-        <v>-0.001738200294157055</v>
       </c>
       <c r="V4">
         <v>-0.001738200294157055</v>
       </c>
       <c r="W4">
+        <v>-0.001738200294157055</v>
+      </c>
+      <c r="X4">
         <v>-0.004815409309791296</v>
       </c>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:24">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B5">
         <v>621.5</v>
@@ -1464,21 +1479,24 @@
         <v>622</v>
       </c>
       <c r="T5">
+        <v>621.5</v>
+      </c>
+      <c r="U5">
         <v>0</v>
-      </c>
-      <c r="U5">
-        <v>-0.0002678810608089943</v>
       </c>
       <c r="V5">
         <v>-0.0002678810608089943</v>
       </c>
       <c r="W5">
+        <v>-0.0002678810608089943</v>
+      </c>
+      <c r="X5">
         <v>0.002419354838709697</v>
       </c>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:24">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B6">
         <v>622</v>
@@ -1535,7 +1553,7 @@
         <v>622</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>621.1666666666666</v>
       </c>
       <c r="U6">
         <v>0</v>
@@ -1544,12 +1562,15 @@
         <v>0</v>
       </c>
       <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
         <v>0.0008045052292839916</v>
       </c>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:24">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B7">
         <v>621.5</v>
@@ -1606,21 +1627,24 @@
         <v>621.9166666666666</v>
       </c>
       <c r="T7">
+        <v>621.6666666666666</v>
+      </c>
+      <c r="U7">
         <v>0</v>
-      </c>
-      <c r="U7">
-        <v>-0.000133976420150117</v>
       </c>
       <c r="V7">
         <v>-0.000133976420150117</v>
       </c>
       <c r="W7">
+        <v>-0.000133976420150117</v>
+      </c>
+      <c r="X7">
         <v>-0.000803858520900369</v>
       </c>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:24">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B8">
         <v>622.5</v>
@@ -1677,21 +1701,24 @@
         <v>622</v>
       </c>
       <c r="T8">
+        <v>622</v>
+      </c>
+      <c r="U8">
         <v>0</v>
-      </c>
-      <c r="U8">
-        <v>0.00013399437223649</v>
       </c>
       <c r="V8">
         <v>0.00013399437223649</v>
       </c>
       <c r="W8">
+        <v>0.00013399437223649</v>
+      </c>
+      <c r="X8">
         <v>0.001609010458567983</v>
       </c>
     </row>
-    <row r="9" spans="1:23">
+    <row r="9" spans="1:24">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B9">
         <v>623</v>
@@ -1748,21 +1775,24 @@
         <v>622.125</v>
       </c>
       <c r="T9">
+        <v>622.3333333333334</v>
+      </c>
+      <c r="U9">
         <v>0</v>
-      </c>
-      <c r="U9">
-        <v>0.000200964630225009</v>
       </c>
       <c r="V9">
         <v>0.000200964630225009</v>
       </c>
       <c r="W9">
+        <v>0.000200964630225009</v>
+      </c>
+      <c r="X9">
         <v>0.0008032128514057213</v>
       </c>
     </row>
-    <row r="10" spans="1:23">
+    <row r="10" spans="1:24">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B10">
         <v>622.5</v>
@@ -1819,21 +1849,24 @@
         <v>622.1666666666666</v>
       </c>
       <c r="T10">
+        <v>622.6666666666666</v>
+      </c>
+      <c r="U10">
         <v>-0.1666666666666288</v>
-      </c>
-      <c r="U10">
-        <v>6.697475051908874E-05</v>
       </c>
       <c r="V10">
         <v>6.697475051908874E-05</v>
       </c>
       <c r="W10">
+        <v>6.697475051908874E-05</v>
+      </c>
+      <c r="X10">
         <v>-0.0008025682182986049</v>
       </c>
     </row>
-    <row r="11" spans="1:23">
+    <row r="11" spans="1:24">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B11">
         <v>622.5</v>
@@ -1890,21 +1923,24 @@
         <v>622.2</v>
       </c>
       <c r="T11">
+        <v>622.6666666666666</v>
+      </c>
+      <c r="U11">
         <v>-0.2625000000000455</v>
-      </c>
-      <c r="U11">
-        <v>5.357621216184327E-05</v>
       </c>
       <c r="V11">
         <v>5.357621216184327E-05</v>
       </c>
       <c r="W11">
+        <v>5.357621216184327E-05</v>
+      </c>
+      <c r="X11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:23">
+    <row r="12" spans="1:24">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B12">
         <v>623</v>
@@ -1961,21 +1997,24 @@
         <v>622.2727272727273</v>
       </c>
       <c r="T12">
+        <v>622.6666666666666</v>
+      </c>
+      <c r="U12">
         <v>0.03977272727274794</v>
-      </c>
-      <c r="U12">
-        <v>0.000116887291429224</v>
       </c>
       <c r="V12">
         <v>0.000116887291429224</v>
       </c>
       <c r="W12">
+        <v>0.000116887291429224</v>
+      </c>
+      <c r="X12">
         <v>0.0008032128514057213</v>
       </c>
     </row>
-    <row r="13" spans="1:23">
+    <row r="13" spans="1:24">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B13">
         <v>622.5</v>
@@ -2032,21 +2071,24 @@
         <v>622.2916666666666</v>
       </c>
       <c r="T13">
+        <v>622.6666666666666</v>
+      </c>
+      <c r="U13">
         <v>0.1458333333333712</v>
-      </c>
-      <c r="U13">
-        <v>3.043584124662324E-05</v>
       </c>
       <c r="V13">
         <v>3.043584124662324E-05</v>
       </c>
       <c r="W13">
+        <v>3.043584124662324E-05</v>
+      </c>
+      <c r="X13">
         <v>-0.0008025682182986049</v>
       </c>
     </row>
-    <row r="14" spans="1:23">
+    <row r="14" spans="1:24">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B14">
         <v>623.5</v>
@@ -2103,21 +2145,24 @@
         <v>622.3846153846154</v>
       </c>
       <c r="T14">
+        <v>623</v>
+      </c>
+      <c r="U14">
         <v>0.2403846153846416</v>
-      </c>
-      <c r="U14">
-        <v>0.0001493651979089794</v>
       </c>
       <c r="V14">
         <v>0.0001493651979089794</v>
       </c>
       <c r="W14">
+        <v>0.0001493651979089794</v>
+      </c>
+      <c r="X14">
         <v>0.001606425702811221</v>
       </c>
     </row>
-    <row r="15" spans="1:23">
+    <row r="15" spans="1:24">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B15">
         <v>623.5</v>
@@ -2174,21 +2219,24 @@
         <v>622.4642857142857</v>
       </c>
       <c r="T15">
+        <v>623.1666666666666</v>
+      </c>
+      <c r="U15">
         <v>0.4107142857143344</v>
-      </c>
-      <c r="U15">
-        <v>0.0001280081925243426</v>
       </c>
       <c r="V15">
         <v>0.0001280081925243426</v>
       </c>
       <c r="W15">
+        <v>0.0001280081925243426</v>
+      </c>
+      <c r="X15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:23">
+    <row r="16" spans="1:24">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B16">
         <v>624</v>
@@ -2245,21 +2293,24 @@
         <v>622.5666666666667</v>
       </c>
       <c r="T16">
+        <v>623.6666666666666</v>
+      </c>
+      <c r="U16">
         <v>0.4958333333332803</v>
-      </c>
-      <c r="U16">
-        <v>0.0001644768298048049</v>
       </c>
       <c r="V16">
         <v>0.0001644768298048049</v>
       </c>
       <c r="W16">
+        <v>0.0001644768298048049</v>
+      </c>
+      <c r="X16">
         <v>0.000801924619085792</v>
       </c>
     </row>
-    <row r="17" spans="1:23">
+    <row r="17" spans="1:24">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B17">
         <v>624</v>
@@ -2316,21 +2367,24 @@
         <v>622.6</v>
       </c>
       <c r="T17">
+        <v>623.8333333333334</v>
+      </c>
+      <c r="U17">
         <v>0.53125</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>0.0001438935589226364</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>5.35417893665624E-05</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:23">
+    <row r="18" spans="1:24">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B18">
         <v>624.5</v>
@@ -2387,21 +2441,24 @@
         <v>622.7</v>
       </c>
       <c r="T18">
+        <v>624.1666666666666</v>
+      </c>
+      <c r="U18">
         <v>0.71875</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>0.0001741825965015931</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>0.0001606167683907422</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>0.0008012820512821595</v>
       </c>
     </row>
-    <row r="19" spans="1:23">
+    <row r="19" spans="1:24">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B19">
         <v>627</v>
@@ -2458,21 +2515,24 @@
         <v>623.1666666666666</v>
       </c>
       <c r="T19">
+        <v>625.1666666666666</v>
+      </c>
+      <c r="U19">
         <v>1.03125</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>0.0003778218569945313</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>0.0007494245490069495</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>0.004003202562049557</v>
       </c>
     </row>
-    <row r="20" spans="1:23">
+    <row r="20" spans="1:24">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B20">
         <v>629</v>
@@ -2529,21 +2589,24 @@
         <v>623.6666666666666</v>
       </c>
       <c r="T20">
+        <v>626.8333333333334</v>
+      </c>
+      <c r="U20">
         <v>1.21875</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>0.000506885190504347</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>0.0008023535704733131</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>0.003189792663476965</v>
       </c>
     </row>
-    <row r="21" spans="1:23">
+    <row r="21" spans="1:24">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B21">
         <v>629</v>
@@ -2600,21 +2663,24 @@
         <v>624.1333333333333</v>
       </c>
       <c r="T21">
+        <v>628.3333333333334</v>
+      </c>
+      <c r="U21">
         <v>1.5625</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>0.0004559655492697434</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>0.0007482629609834035</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:23">
+    <row r="22" spans="1:24">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B22">
         <v>627.5</v>
@@ -2671,21 +2737,24 @@
         <v>624.5333333333333</v>
       </c>
       <c r="T22">
+        <v>628.5</v>
+      </c>
+      <c r="U22">
         <v>1.71875</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>0.0002978099514341359</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>0.0006408886989959228</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>-0.002384737678855275</v>
       </c>
     </row>
-    <row r="23" spans="1:23">
+    <row r="23" spans="1:24">
       <c r="A23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B23">
         <v>628</v>
@@ -2742,21 +2811,24 @@
         <v>624.9</v>
       </c>
       <c r="T23">
+        <v>628.1666666666666</v>
+      </c>
+      <c r="U23">
         <v>1.875</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>0.0003070901387629554</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>0.0005871050384287368</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>0.0007968127490038945</v>
       </c>
     </row>
-    <row r="24" spans="1:23">
+    <row r="24" spans="1:24">
       <c r="A24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B24">
         <v>627.5</v>
@@ -2813,21 +2885,24 @@
         <v>625.2</v>
       </c>
       <c r="T24">
+        <v>627.6666666666666</v>
+      </c>
+      <c r="U24">
         <v>2</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>0.0002454609519133566</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>0.00048007681229012</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>-0.0007961783439490722</v>
       </c>
     </row>
-    <row r="25" spans="1:23">
+    <row r="25" spans="1:24">
       <c r="A25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B25">
         <v>627</v>
@@ -2884,21 +2959,24 @@
         <v>625.5</v>
       </c>
       <c r="T25">
+        <v>627.5</v>
+      </c>
+      <c r="U25">
         <v>2.125</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>0.0001915708812258998</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>0.0004798464491362342</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>-0.0007968127490040056</v>
       </c>
     </row>
-    <row r="26" spans="1:23">
+    <row r="26" spans="1:24">
       <c r="A26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B26">
         <v>626.5</v>
@@ -2955,21 +3033,24 @@
         <v>625.7666666666667</v>
       </c>
       <c r="T26">
+        <v>627</v>
+      </c>
+      <c r="U26">
         <v>2.125</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>0.0001441730076092718</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>0.0004263256061816101</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>-0.0007974481658692412</v>
       </c>
     </row>
-    <row r="27" spans="1:23">
+    <row r="27" spans="1:24">
       <c r="A27" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B27">
         <v>625.5</v>
@@ -3026,21 +3107,24 @@
         <v>625.9333333333333</v>
       </c>
       <c r="T27">
+        <v>626.3333333333334</v>
+      </c>
+      <c r="U27">
         <v>1.75</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>7.146007722602654E-05</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>0.000266339956320083</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>-0.001596169193934571</v>
       </c>
     </row>
-    <row r="28" spans="1:23">
+    <row r="28" spans="1:24">
       <c r="A28" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B28">
         <v>625</v>
@@ -3097,21 +3181,24 @@
         <v>626.1</v>
       </c>
       <c r="T28">
+        <v>625.6666666666666</v>
+      </c>
+      <c r="U28">
         <v>1.125</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>3.650317805803382E-05</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>0.0002662690382364552</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>-0.0007993605115906854</v>
       </c>
     </row>
-    <row r="29" spans="1:23">
+    <row r="29" spans="1:24">
       <c r="A29" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B29">
         <v>624</v>
@@ -3168,21 +3255,24 @@
         <v>626.1333333333333</v>
       </c>
       <c r="T29">
+        <v>624.8333333333334</v>
+      </c>
+      <c r="U29">
         <v>0.40625</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>-2.33025175192525E-05</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>5.323963158176959E-05</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>-0.001600000000000046</v>
       </c>
     </row>
-    <row r="30" spans="1:23">
+    <row r="30" spans="1:24">
       <c r="A30" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B30">
         <v>623.5</v>
@@ -3239,21 +3329,24 @@
         <v>626.1333333333333</v>
       </c>
       <c r="T30">
+        <v>624.1666666666666</v>
+      </c>
+      <c r="U30">
         <v>-0.09375</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>-4.93089838996541E-05</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>0</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>-0.0008012820512820484</v>
       </c>
     </row>
-    <row r="31" spans="1:23">
+    <row r="31" spans="1:24">
       <c r="A31" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B31">
         <v>623.5</v>
@@ -3310,21 +3403,24 @@
         <v>626.1</v>
       </c>
       <c r="T31">
+        <v>623.6666666666666</v>
+      </c>
+      <c r="U31">
         <v>-0.65625</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>-4.602398770225946E-05</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <v>-5.323679727420316E-05</v>
       </c>
-      <c r="W31">
+      <c r="X31">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:23">
+    <row r="32" spans="1:24">
       <c r="A32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B32">
         <v>623</v>
@@ -3381,21 +3477,24 @@
         <v>626.0333333333333</v>
       </c>
       <c r="T32">
+        <v>623.3333333333334</v>
+      </c>
+      <c r="U32">
         <v>-1.15625</v>
       </c>
-      <c r="U32">
+      <c r="V32">
         <v>-2.669514148423424E-05</v>
       </c>
-      <c r="V32">
+      <c r="W32">
         <v>-0.0001064792631635392</v>
       </c>
-      <c r="W32">
+      <c r="X32">
         <v>-0.000801924619085792</v>
       </c>
     </row>
-    <row r="33" spans="1:23">
+    <row r="33" spans="1:24">
       <c r="A33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B33">
         <v>620.5</v>
@@ -3452,21 +3551,24 @@
         <v>625.7666666666667</v>
       </c>
       <c r="T33">
+        <v>622.3333333333334</v>
+      </c>
+      <c r="U33">
         <v>-1.75</v>
       </c>
-      <c r="U33">
+      <c r="V33">
         <v>-0.0001334792706693122</v>
       </c>
-      <c r="V33">
+      <c r="W33">
         <v>-0.0004259624088174263</v>
       </c>
-      <c r="W33">
+      <c r="X33">
         <v>-0.004012841091492803</v>
       </c>
     </row>
-    <row r="34" spans="1:23">
+    <row r="34" spans="1:24">
       <c r="A34" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B34">
         <v>620</v>
@@ -3523,21 +3625,24 @@
         <v>625.3</v>
       </c>
       <c r="T34">
+        <v>621.1666666666666</v>
+      </c>
+      <c r="U34">
         <v>-2.28125</v>
       </c>
-      <c r="U34">
+      <c r="V34">
         <v>0</v>
       </c>
-      <c r="V34">
+      <c r="W34">
         <v>-0.0007457518776967653</v>
       </c>
-      <c r="W34">
+      <c r="X34">
         <v>-0.0008058017727639033</v>
       </c>
     </row>
-    <row r="35" spans="1:23">
+    <row r="35" spans="1:24">
       <c r="A35" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B35">
         <v>619.5</v>
@@ -3594,21 +3699,24 @@
         <v>624.6666666666666</v>
       </c>
       <c r="T35">
+        <v>620</v>
+      </c>
+      <c r="U35">
         <v>-2.5625</v>
       </c>
-      <c r="U35">
+      <c r="V35">
         <v>-0.0001067976718108765</v>
       </c>
-      <c r="V35">
+      <c r="W35">
         <v>-0.001012847166693254</v>
       </c>
-      <c r="W35">
+      <c r="X35">
         <v>-0.0008064516129032695</v>
       </c>
     </row>
-    <row r="36" spans="1:23">
+    <row r="36" spans="1:24">
       <c r="A36" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B36">
         <v>620.5</v>
@@ -3665,21 +3773,24 @@
         <v>624.1</v>
       </c>
       <c r="T36">
+        <v>620</v>
+      </c>
+      <c r="U36">
         <v>-2.59375</v>
       </c>
-      <c r="U36">
+      <c r="V36">
         <v>-8.010680907866163E-05</v>
       </c>
-      <c r="V36">
+      <c r="W36">
         <v>-0.0009071504802560248</v>
       </c>
-      <c r="W36">
+      <c r="X36">
         <v>0.001614205004035529</v>
       </c>
     </row>
-    <row r="37" spans="1:23">
+    <row r="37" spans="1:24">
       <c r="A37" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B37">
         <v>619.5</v>
@@ -3736,21 +3847,24 @@
         <v>623.5666666666667</v>
       </c>
       <c r="T37">
+        <v>619.8333333333334</v>
+      </c>
+      <c r="U37">
         <v>-2.5625</v>
       </c>
-      <c r="U37">
+      <c r="V37">
         <v>-0.0001068176355917272</v>
       </c>
-      <c r="V37">
+      <c r="W37">
         <v>-0.0008545639053569865</v>
       </c>
-      <c r="W37">
+      <c r="X37">
         <v>-0.001611603545527807</v>
       </c>
     </row>
-    <row r="38" spans="1:23">
+    <row r="38" spans="1:24">
       <c r="A38" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B38">
         <v>620.5</v>
@@ -3807,21 +3921,24 @@
         <v>623.0666666666667</v>
       </c>
       <c r="T38">
+        <v>620.1666666666666</v>
+      </c>
+      <c r="U38">
         <v>-2.5</v>
       </c>
-      <c r="U38">
+      <c r="V38">
         <v>-0.0001068290468176913</v>
       </c>
-      <c r="V38">
+      <c r="W38">
         <v>-0.0008018388838402224</v>
       </c>
-      <c r="W38">
+      <c r="X38">
         <v>0.001614205004035529</v>
       </c>
     </row>
-    <row r="39" spans="1:23">
+    <row r="39" spans="1:24">
       <c r="A39" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B39">
         <v>620.5</v>
@@ -3878,21 +3995,24 @@
         <v>622.6</v>
       </c>
       <c r="T39">
+        <v>620.1666666666666</v>
+      </c>
+      <c r="U39">
         <v>-2.40625</v>
       </c>
-      <c r="U39">
+      <c r="V39">
         <v>-0.0001335505756030475</v>
       </c>
-      <c r="V39">
+      <c r="W39">
         <v>-0.000748983522362523</v>
       </c>
-      <c r="W39">
+      <c r="X39">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:23">
+    <row r="40" spans="1:24">
       <c r="A40" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B40">
         <v>618.5</v>
@@ -3949,21 +4069,24 @@
         <v>622.0333333333333</v>
       </c>
       <c r="T40">
+        <v>619.8333333333334</v>
+      </c>
+      <c r="U40">
         <v>-2.40625</v>
       </c>
-      <c r="U40">
+      <c r="V40">
         <v>-0.0002137094619864</v>
       </c>
-      <c r="V40">
+      <c r="W40">
         <v>-0.0009101616875469842</v>
       </c>
-      <c r="W40">
+      <c r="X40">
         <v>-0.003223207091055613</v>
       </c>
     </row>
-    <row r="41" spans="1:23">
+    <row r="41" spans="1:24">
       <c r="A41" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B41">
         <v>617</v>
@@ -4020,21 +4143,24 @@
         <v>621.4</v>
       </c>
       <c r="T41">
+        <v>618.6666666666666</v>
+      </c>
+      <c r="U41">
         <v>-2.21875</v>
       </c>
-      <c r="U41">
+      <c r="V41">
         <v>-0.0002939133222892298</v>
       </c>
-      <c r="V41">
+      <c r="W41">
         <v>-0.001018166229033834</v>
       </c>
-      <c r="W41">
+      <c r="X41">
         <v>-0.002425222312045228</v>
       </c>
     </row>
-    <row r="42" spans="1:23">
+    <row r="42" spans="1:24">
       <c r="A42" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B42">
         <v>618</v>
@@ -4091,21 +4217,24 @@
         <v>620.9</v>
       </c>
       <c r="T42">
+        <v>617.8333333333334</v>
+      </c>
+      <c r="U42">
         <v>-1.9375</v>
       </c>
-      <c r="U42">
+      <c r="V42">
         <v>-0.0002672724842978091</v>
       </c>
-      <c r="V42">
+      <c r="W42">
         <v>-0.0008046346958481276</v>
       </c>
-      <c r="W42">
+      <c r="X42">
         <v>0.001620745542949775</v>
       </c>
     </row>
-    <row r="43" spans="1:23">
+    <row r="43" spans="1:24">
       <c r="A43" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B43">
         <v>618</v>
@@ -4162,21 +4291,24 @@
         <v>620.4333333333333</v>
       </c>
       <c r="T43">
+        <v>617.6666666666666</v>
+      </c>
+      <c r="U43">
         <v>-1.65625</v>
       </c>
-      <c r="U43">
+      <c r="V43">
         <v>-0.0002406095441785938</v>
       </c>
-      <c r="V43">
+      <c r="W43">
         <v>-0.0007515971439309155</v>
       </c>
-      <c r="W43">
+      <c r="X43">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:23">
+    <row r="44" spans="1:24">
       <c r="A44" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B44">
         <v>617</v>
@@ -4233,21 +4365,24 @@
         <v>619.9666666666667</v>
       </c>
       <c r="T44">
+        <v>617.6666666666666</v>
+      </c>
+      <c r="U44">
         <v>-1.59375</v>
       </c>
-      <c r="U44">
+      <c r="V44">
         <v>-0.0003476307626484321</v>
       </c>
-      <c r="V44">
+      <c r="W44">
         <v>-0.000752162467092754</v>
       </c>
-      <c r="W44">
+      <c r="X44">
         <v>-0.001618122977346315</v>
       </c>
     </row>
-    <row r="45" spans="1:23">
+    <row r="45" spans="1:24">
       <c r="A45" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B45">
         <v>616.5</v>
@@ -4304,21 +4439,24 @@
         <v>619.5</v>
       </c>
       <c r="T45">
+        <v>617.1666666666666</v>
+      </c>
+      <c r="U45">
         <v>-1.5</v>
       </c>
-      <c r="U45">
+      <c r="V45">
         <v>-0.0003745017788833183</v>
       </c>
-      <c r="V45">
+      <c r="W45">
         <v>-0.0007527286413248069</v>
       </c>
-      <c r="W45">
+      <c r="X45">
         <v>-0.0008103727714748876</v>
       </c>
     </row>
-    <row r="46" spans="1:23">
+    <row r="46" spans="1:24">
       <c r="A46" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B46">
         <v>617</v>
@@ -4375,21 +4513,24 @@
         <v>619.0666666666667</v>
       </c>
       <c r="T46">
+        <v>616.8333333333334</v>
+      </c>
+      <c r="U46">
         <v>-1.53125</v>
       </c>
-      <c r="U46">
+      <c r="V46">
         <v>-0.0003746420830099684</v>
       </c>
-      <c r="V46">
+      <c r="W46">
         <v>-0.0006994888350819739</v>
       </c>
-      <c r="W46">
+      <c r="X46">
         <v>0.0008110300081103361</v>
       </c>
     </row>
-    <row r="47" spans="1:23">
+    <row r="47" spans="1:24">
       <c r="A47" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B47">
         <v>617.5</v>
@@ -4446,21 +4587,24 @@
         <v>618.7</v>
       </c>
       <c r="T47">
+        <v>617</v>
+      </c>
+      <c r="U47">
         <v>-1.53125</v>
       </c>
-      <c r="U47">
+      <c r="V47">
         <v>-0.0003480123142819425</v>
       </c>
-      <c r="V47">
+      <c r="W47">
         <v>-0.0005922894680163715</v>
       </c>
-      <c r="W47">
+      <c r="X47">
         <v>0.0008103727714747766</v>
       </c>
     </row>
-    <row r="48" spans="1:23">
+    <row r="48" spans="1:24">
       <c r="A48" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B48">
         <v>616.5</v>
@@ -4517,21 +4661,24 @@
         <v>618.4333333333333</v>
       </c>
       <c r="T48">
+        <v>617</v>
+      </c>
+      <c r="U48">
         <v>-1.375</v>
       </c>
-      <c r="U48">
+      <c r="V48">
         <v>-0.0004284719618660171</v>
       </c>
-      <c r="V48">
+      <c r="W48">
         <v>-0.0004310112601693117</v>
       </c>
-      <c r="W48">
+      <c r="X48">
         <v>-0.001619433198380538</v>
       </c>
     </row>
-    <row r="49" spans="1:23">
+    <row r="49" spans="1:24">
       <c r="A49" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B49">
         <v>617.5</v>
@@ -4588,21 +4735,24 @@
         <v>618.2666666666667</v>
       </c>
       <c r="T49">
+        <v>617.1666666666666</v>
+      </c>
+      <c r="U49">
         <v>-1.125</v>
       </c>
-      <c r="U49">
+      <c r="V49">
         <v>-0.0005090285591813348</v>
       </c>
-      <c r="V49">
+      <c r="W49">
         <v>-0.0002694981943620611</v>
       </c>
-      <c r="W49">
+      <c r="X49">
         <v>0.001622060016220672</v>
       </c>
     </row>
-    <row r="50" spans="1:23">
+    <row r="50" spans="1:24">
       <c r="A50" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B50">
         <v>616.5</v>
@@ -4659,21 +4809,24 @@
         <v>618.0666666666667</v>
       </c>
       <c r="T50">
+        <v>616.8333333333334</v>
+      </c>
+      <c r="U50">
         <v>-1.09375</v>
       </c>
-      <c r="U50">
+      <c r="V50">
         <v>-0.0006701155279169591</v>
       </c>
-      <c r="V50">
+      <c r="W50">
         <v>-0.0003234850118609689</v>
       </c>
-      <c r="W50">
+      <c r="X50">
         <v>-0.001619433198380538</v>
       </c>
     </row>
-    <row r="51" spans="1:23">
+    <row r="51" spans="1:24">
       <c r="A51" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B51">
         <v>616.5</v>
@@ -4730,21 +4883,24 @@
         <v>617.8</v>
       </c>
       <c r="T51">
+        <v>616.8333333333334</v>
+      </c>
+      <c r="U51">
         <v>-1.09375</v>
       </c>
-      <c r="U51">
+      <c r="V51">
         <v>-0.0006705648838580824</v>
       </c>
-      <c r="V51">
+      <c r="W51">
         <v>-0.0004314529177005255</v>
       </c>
-      <c r="W51">
+      <c r="X51">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:23">
+    <row r="52" spans="1:24">
       <c r="A52" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B52">
         <v>617.5</v>
@@ -4801,21 +4957,24 @@
         <v>617.6666666666666</v>
       </c>
       <c r="T52">
+        <v>616.8333333333334</v>
+      </c>
+      <c r="U52">
         <v>-0.84375</v>
       </c>
-      <c r="U52">
+      <c r="V52">
         <v>-0.0005368118742786754</v>
       </c>
-      <c r="V52">
+      <c r="W52">
         <v>-0.0002158195748354075</v>
       </c>
-      <c r="W52">
+      <c r="X52">
         <v>0.001622060016220672</v>
       </c>
     </row>
-    <row r="53" spans="1:23">
+    <row r="53" spans="1:24">
       <c r="A53" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B53">
         <v>616</v>
@@ -4872,21 +5031,24 @@
         <v>617.3666666666667</v>
       </c>
       <c r="T53">
+        <v>616.6666666666666</v>
+      </c>
+      <c r="U53">
         <v>-0.6875</v>
       </c>
-      <c r="U53">
+      <c r="V53">
         <v>-0.0006445202352498569</v>
       </c>
-      <c r="V53">
+      <c r="W53">
         <v>-0.0004856988667025774</v>
       </c>
-      <c r="W53">
+      <c r="X53">
         <v>-0.002429149797570807</v>
       </c>
     </row>
-    <row r="54" spans="1:23">
+    <row r="54" spans="1:24">
       <c r="A54" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B54">
         <v>616</v>
@@ -4943,21 +5105,24 @@
         <v>617.0666666666667</v>
       </c>
       <c r="T54">
+        <v>616.5</v>
+      </c>
+      <c r="U54">
         <v>-0.53125</v>
       </c>
-      <c r="U54">
+      <c r="V54">
         <v>-0.0006180635799317713</v>
       </c>
-      <c r="V54">
+      <c r="W54">
         <v>-0.0004859348847253697</v>
       </c>
-      <c r="W54">
+      <c r="X54">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:23">
+    <row r="55" spans="1:24">
       <c r="A55" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B55">
         <v>616.5</v>
@@ -5014,21 +5179,24 @@
         <v>616.9333333333333</v>
       </c>
       <c r="T55">
+        <v>616.1666666666666</v>
+      </c>
+      <c r="U55">
         <v>-0.40625</v>
       </c>
-      <c r="U55">
+      <c r="V55">
         <v>-0.000564667921484352</v>
       </c>
-      <c r="V55">
+      <c r="W55">
         <v>-0.0002160760587728294</v>
       </c>
-      <c r="W55">
+      <c r="X55">
         <v>0.0008116883116882079</v>
       </c>
     </row>
-    <row r="56" spans="1:23">
+    <row r="56" spans="1:24">
       <c r="A56" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B56">
         <v>617.5</v>
@@ -5085,21 +5253,24 @@
         <v>616.9666666666667</v>
       </c>
       <c r="T56">
+        <v>616.6666666666666</v>
+      </c>
+      <c r="U56">
         <v>-0.21875</v>
       </c>
-      <c r="U56">
+      <c r="V56">
         <v>-0.000484274529850226</v>
       </c>
-      <c r="V56">
+      <c r="W56">
         <v>5.403068943166112E-05</v>
       </c>
-      <c r="W56">
+      <c r="X56">
         <v>0.001622060016220672</v>
       </c>
     </row>
-    <row r="57" spans="1:23">
+    <row r="57" spans="1:24">
       <c r="A57" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B57">
         <v>618</v>
@@ -5156,21 +5327,24 @@
         <v>616.9666666666667</v>
       </c>
       <c r="T57">
+        <v>617.3333333333334</v>
+      </c>
+      <c r="U57">
         <v>-0.21875</v>
       </c>
-      <c r="U57">
+      <c r="V57">
         <v>-0.0004037576377486918</v>
       </c>
-      <c r="V57">
+      <c r="W57">
         <v>0</v>
       </c>
-      <c r="W57">
+      <c r="X57">
         <v>0.0008097165991902688</v>
       </c>
     </row>
-    <row r="58" spans="1:23">
+    <row r="58" spans="1:24">
       <c r="A58" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B58">
         <v>617</v>
@@ -5227,21 +5401,24 @@
         <v>616.9</v>
       </c>
       <c r="T58">
+        <v>617.5</v>
+      </c>
+      <c r="U58">
         <v>-0.09375</v>
       </c>
-      <c r="U58">
+      <c r="V58">
         <v>-0.0004308487720809939</v>
       </c>
-      <c r="V58">
+      <c r="W58">
         <v>-0.0001080555405479355</v>
       </c>
-      <c r="W58">
+      <c r="X58">
         <v>-0.001618122977346315</v>
       </c>
     </row>
-    <row r="59" spans="1:23">
+    <row r="59" spans="1:24">
       <c r="A59" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B59">
         <v>617</v>
@@ -5298,21 +5475,24 @@
         <v>616.9</v>
       </c>
       <c r="T59">
+        <v>617.3333333333334</v>
+      </c>
+      <c r="U59">
         <v>0.03125</v>
       </c>
-      <c r="U59">
+      <c r="V59">
         <v>-0.0003771551724137678</v>
-      </c>
-      <c r="V59">
-        <v>0</v>
       </c>
       <c r="W59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:23">
+      <c r="X59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24">
       <c r="A60" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B60">
         <v>617.5</v>
@@ -5369,21 +5549,24 @@
         <v>616.9666666666667</v>
       </c>
       <c r="T60">
+        <v>617.1666666666666</v>
+      </c>
+      <c r="U60">
         <v>0</v>
       </c>
-      <c r="U60">
+      <c r="V60">
         <v>-0.0003233978332344289</v>
       </c>
-      <c r="V60">
+      <c r="W60">
         <v>0.0001080672178095377</v>
       </c>
-      <c r="W60">
+      <c r="X60">
         <v>0.0008103727714747766</v>
       </c>
     </row>
-    <row r="61" spans="1:23">
+    <row r="61" spans="1:24">
       <c r="A61" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B61">
         <v>617</v>
@@ -5440,21 +5623,24 @@
         <v>616.9666666666667</v>
       </c>
       <c r="T61">
+        <v>617.1666666666666</v>
+      </c>
+      <c r="U61">
         <v>0.09375</v>
       </c>
-      <c r="U61">
+      <c r="V61">
         <v>-0.0003504609909958933</v>
       </c>
-      <c r="V61">
+      <c r="W61">
         <v>0</v>
       </c>
-      <c r="W61">
+      <c r="X61">
         <v>-0.0008097165991902688</v>
       </c>
     </row>
-    <row r="62" spans="1:23">
+    <row r="62" spans="1:24">
       <c r="A62" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B62">
         <v>618</v>
@@ -5511,21 +5697,24 @@
         <v>617</v>
       </c>
       <c r="T62">
+        <v>617.5</v>
+      </c>
+      <c r="U62">
         <v>0.28125</v>
       </c>
-      <c r="U62">
+      <c r="V62">
         <v>-0.0002696798899705088</v>
       </c>
-      <c r="V62">
+      <c r="W62">
         <v>5.402777027385675E-05</v>
       </c>
-      <c r="W62">
+      <c r="X62">
         <v>0.001620745542949775</v>
       </c>
     </row>
-    <row r="63" spans="1:23">
+    <row r="63" spans="1:24">
       <c r="A63" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B63">
         <v>618</v>
@@ -5582,21 +5771,24 @@
         <v>617.1</v>
       </c>
       <c r="T63">
+        <v>617.6666666666666</v>
+      </c>
+      <c r="U63">
         <v>0.4375</v>
       </c>
-      <c r="U63">
+      <c r="V63">
         <v>-0.0001348763184160218</v>
       </c>
-      <c r="V63">
+      <c r="W63">
         <v>0.0001620745542949553</v>
       </c>
-      <c r="W63">
+      <c r="X63">
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:23">
+    <row r="64" spans="1:24">
       <c r="A64" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B64">
         <v>619</v>
@@ -5653,21 +5845,24 @@
         <v>617.2</v>
       </c>
       <c r="T64">
+        <v>618.3333333333334</v>
+      </c>
+      <c r="U64">
         <v>0.46875</v>
       </c>
-      <c r="U64">
+      <c r="V64">
         <v>-5.395780499639624E-05</v>
       </c>
-      <c r="V64">
+      <c r="W64">
         <v>0.0001620482903905707</v>
       </c>
-      <c r="W64">
+      <c r="X64">
         <v>0.001618122977346204</v>
       </c>
     </row>
-    <row r="65" spans="1:23">
+    <row r="65" spans="1:24">
       <c r="A65" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B65">
         <v>618.5</v>
@@ -5724,21 +5919,24 @@
         <v>617.3333333333334</v>
       </c>
       <c r="T65">
+        <v>618.5</v>
+      </c>
+      <c r="U65">
         <v>0.46875</v>
       </c>
-      <c r="U65">
+      <c r="V65">
         <v>-5.396071659824475E-05</v>
       </c>
-      <c r="V65">
+      <c r="W65">
         <v>0.0002160293799957635</v>
       </c>
-      <c r="W65">
+      <c r="X65">
         <v>-0.0008077544426494665</v>
       </c>
     </row>
-    <row r="66" spans="1:23">
+    <row r="66" spans="1:24">
       <c r="A66" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B66">
         <v>619.5</v>
@@ -5795,21 +5993,24 @@
         <v>617.5333333333333</v>
       </c>
       <c r="T66">
+        <v>619</v>
+      </c>
+      <c r="U66">
         <v>0.59375</v>
       </c>
-      <c r="U66">
+      <c r="V66">
         <v>-5.396362851450842E-05</v>
       </c>
-      <c r="V66">
+      <c r="W66">
         <v>0.0003239740820732973</v>
       </c>
-      <c r="W66">
+      <c r="X66">
         <v>0.001616814874696892</v>
       </c>
     </row>
-    <row r="67" spans="1:23">
+    <row r="67" spans="1:24">
       <c r="A67" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B67">
         <v>618.5</v>
@@ -5866,21 +6067,24 @@
         <v>617.6</v>
       </c>
       <c r="T67">
+        <v>618.8333333333334</v>
+      </c>
+      <c r="U67">
         <v>0.65625</v>
       </c>
-      <c r="U67">
+      <c r="V67">
         <v>-5.396654074474316E-05</v>
       </c>
-      <c r="V67">
+      <c r="W67">
         <v>0.0001079563856203336</v>
       </c>
-      <c r="W67">
+      <c r="X67">
         <v>-0.001614205004035529</v>
       </c>
     </row>
-    <row r="68" spans="1:23">
+    <row r="68" spans="1:24">
       <c r="A68" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B68">
         <v>617</v>
@@ -5937,21 +6141,24 @@
         <v>617.6666666666666</v>
       </c>
       <c r="T68">
+        <v>618.3333333333334</v>
+      </c>
+      <c r="U68">
         <v>0.625</v>
       </c>
-      <c r="U68">
+      <c r="V68">
         <v>-0.0001888930865130423</v>
       </c>
-      <c r="V68">
+      <c r="W68">
         <v>0.0001079447322969163</v>
       </c>
-      <c r="W68">
+      <c r="X68">
         <v>-0.002425222312045228</v>
       </c>
     </row>
-    <row r="69" spans="1:23">
+    <row r="69" spans="1:24">
       <c r="A69" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B69">
         <v>616.5</v>
@@ -6008,21 +6215,24 @@
         <v>617.7</v>
       </c>
       <c r="T69">
+        <v>617.3333333333334</v>
+      </c>
+      <c r="U69">
         <v>0.53125</v>
       </c>
-      <c r="U69">
+      <c r="V69">
         <v>-0.0002159185986883028</v>
       </c>
-      <c r="V69">
+      <c r="W69">
         <v>5.396654074485419E-05</v>
       </c>
-      <c r="W69">
+      <c r="X69">
         <v>-0.0008103727714748876</v>
       </c>
     </row>
-    <row r="70" spans="1:23">
+    <row r="70" spans="1:24">
       <c r="A70" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B70">
         <v>618</v>
@@ -6079,21 +6289,24 @@
         <v>617.8</v>
       </c>
       <c r="T70">
+        <v>617.1666666666666</v>
+      </c>
+      <c r="U70">
         <v>0.40625</v>
       </c>
-      <c r="U70">
+      <c r="V70">
         <v>-2.69956536996796E-05</v>
       </c>
-      <c r="V70">
+      <c r="W70">
         <v>0.0001618908855429702</v>
       </c>
-      <c r="W70">
+      <c r="X70">
         <v>0.002433090024331008</v>
       </c>
     </row>
-    <row r="71" spans="1:23">
+    <row r="71" spans="1:24">
       <c r="A71" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B71">
         <v>618</v>
@@ -6150,21 +6363,24 @@
         <v>617.8333333333334</v>
       </c>
       <c r="T71">
+        <v>617.5</v>
+      </c>
+      <c r="U71">
         <v>0.3125</v>
       </c>
-      <c r="U71">
+      <c r="V71">
         <v>5.399276496942385E-05</v>
       </c>
-      <c r="V71">
+      <c r="W71">
         <v>5.395489370907391E-05</v>
       </c>
-      <c r="W71">
+      <c r="X71">
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:23">
+    <row r="72" spans="1:24">
       <c r="A72" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B72">
         <v>618.5</v>
@@ -6221,21 +6437,24 @@
         <v>617.8666666666667</v>
       </c>
       <c r="T72">
+        <v>618.1666666666666</v>
+      </c>
+      <c r="U72">
         <v>0.1875</v>
       </c>
-      <c r="U72">
+      <c r="V72">
         <v>2.69949249540602E-05</v>
       </c>
-      <c r="V72">
+      <c r="W72">
         <v>5.395198273538959E-05</v>
       </c>
-      <c r="W72">
+      <c r="X72">
         <v>0.0008090614886731018</v>
       </c>
     </row>
-    <row r="73" spans="1:23">
+    <row r="73" spans="1:24">
       <c r="A73" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B73">
         <v>619.5</v>
@@ -6292,21 +6511,24 @@
         <v>618.0333333333333</v>
       </c>
       <c r="T73">
+        <v>618.6666666666666</v>
+      </c>
+      <c r="U73">
         <v>0.21875</v>
       </c>
-      <c r="U73">
+      <c r="V73">
         <v>8.098258874356112E-05</v>
       </c>
-      <c r="V73">
+      <c r="W73">
         <v>0.000269745360379714</v>
       </c>
-      <c r="W73">
+      <c r="X73">
         <v>0.001616814874696892</v>
       </c>
     </row>
-    <row r="74" spans="1:23">
+    <row r="74" spans="1:24">
       <c r="A74" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B74">
         <v>619</v>
@@ -6363,21 +6585,24 @@
         <v>618.1666666666666</v>
       </c>
       <c r="T74">
+        <v>619</v>
+      </c>
+      <c r="U74">
         <v>0.03125</v>
       </c>
-      <c r="U74">
+      <c r="V74">
         <v>0.0001079680414597384</v>
       </c>
-      <c r="V74">
+      <c r="W74">
         <v>0.0002157380939540321</v>
       </c>
-      <c r="W74">
+      <c r="X74">
         <v>-0.0008071025020177647</v>
       </c>
     </row>
-    <row r="75" spans="1:23">
+    <row r="75" spans="1:24">
       <c r="A75" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B75">
         <v>619.5</v>
@@ -6434,21 +6659,24 @@
         <v>618.3</v>
       </c>
       <c r="T75">
+        <v>619.3333333333334</v>
+      </c>
+      <c r="U75">
         <v>0</v>
       </c>
-      <c r="U75">
+      <c r="V75">
         <v>0.0001619345784302784</v>
       </c>
-      <c r="V75">
+      <c r="W75">
         <v>0.0002156915610675991</v>
       </c>
-      <c r="W75">
+      <c r="X75">
         <v>0.0008077544426494665</v>
       </c>
     </row>
-    <row r="76" spans="1:23">
+    <row r="76" spans="1:24">
       <c r="A76" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B76">
         <v>619</v>
@@ -6505,21 +6733,24 @@
         <v>618.4333333333333</v>
       </c>
       <c r="T76">
+        <v>619.1666666666666</v>
+      </c>
+      <c r="U76">
         <v>0.15625</v>
       </c>
-      <c r="U76">
+      <c r="V76">
         <v>0.0001079389065790082</v>
       </c>
-      <c r="V76">
+      <c r="W76">
         <v>0.0002156450482506678</v>
       </c>
-      <c r="W76">
+      <c r="X76">
         <v>-0.0008071025020177647</v>
       </c>
     </row>
-    <row r="77" spans="1:23">
+    <row r="77" spans="1:24">
       <c r="A77" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B77">
         <v>618.5</v>
@@ -6576,21 +6807,24 @@
         <v>618.4666666666667</v>
       </c>
       <c r="T77">
+        <v>619</v>
+      </c>
+      <c r="U77">
         <v>0.3125</v>
       </c>
-      <c r="U77">
+      <c r="V77">
         <v>5.39636285143974E-05</v>
       </c>
-      <c r="V77">
+      <c r="W77">
         <v>5.389963887258986E-05</v>
       </c>
-      <c r="W77">
+      <c r="X77">
         <v>-0.0008077544426494665</v>
       </c>
     </row>
-    <row r="78" spans="1:23">
+    <row r="78" spans="1:24">
       <c r="A78" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B78">
         <v>619</v>
@@ -6647,21 +6881,24 @@
         <v>618.5333333333333</v>
       </c>
       <c r="T78">
+        <v>618.8333333333334</v>
+      </c>
+      <c r="U78">
         <v>0.375</v>
       </c>
-      <c r="U78">
+      <c r="V78">
         <v>0.0001349017914957784</v>
       </c>
-      <c r="V78">
+      <c r="W78">
         <v>0.0001077934677158332</v>
       </c>
-      <c r="W78">
+      <c r="X78">
         <v>0.0008084074373484462</v>
       </c>
     </row>
-    <row r="79" spans="1:23">
+    <row r="79" spans="1:24">
       <c r="A79" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B79">
         <v>618.5</v>
@@ -6718,21 +6955,24 @@
         <v>618.5</v>
       </c>
       <c r="T79">
+        <v>618.6666666666666</v>
+      </c>
+      <c r="U79">
         <v>0.40625</v>
       </c>
-      <c r="U79">
+      <c r="V79">
         <v>5.395343818270781E-05</v>
       </c>
-      <c r="V79">
+      <c r="W79">
         <v>-5.389092476826285E-05</v>
       </c>
-      <c r="W79">
+      <c r="X79">
         <v>-0.0008077544426494665</v>
       </c>
     </row>
-    <row r="80" spans="1:23">
+    <row r="80" spans="1:24">
       <c r="A80" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B80">
         <v>619</v>
@@ -6789,21 +7029,24 @@
         <v>618.5333333333333</v>
       </c>
       <c r="T80">
+        <v>618.8333333333334</v>
+      </c>
+      <c r="U80">
         <v>0.46875</v>
       </c>
-      <c r="U80">
+      <c r="V80">
         <v>0.0001348763184159107</v>
       </c>
-      <c r="V80">
+      <c r="W80">
         <v>5.389382915654828E-05</v>
       </c>
-      <c r="W80">
+      <c r="X80">
         <v>0.0008084074373484462</v>
       </c>
     </row>
-    <row r="81" spans="1:23">
+    <row r="81" spans="1:24">
       <c r="A81" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B81">
         <v>620</v>
@@ -6860,21 +7103,24 @@
         <v>618.5666666666667</v>
       </c>
       <c r="T81">
+        <v>619.1666666666666</v>
+      </c>
+      <c r="U81">
         <v>0.4375</v>
       </c>
-      <c r="U81">
+      <c r="V81">
         <v>0.0001888013809472344</v>
       </c>
-      <c r="V81">
+      <c r="W81">
         <v>5.389092476848489E-05</v>
       </c>
-      <c r="W81">
+      <c r="X81">
         <v>0.001615508885298933</v>
       </c>
     </row>
-    <row r="82" spans="1:23">
+    <row r="82" spans="1:24">
       <c r="A82" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B82">
         <v>620</v>
@@ -6931,21 +7177,24 @@
         <v>618.6666666666666</v>
       </c>
       <c r="T82">
+        <v>619.6666666666666</v>
+      </c>
+      <c r="U82">
         <v>0.53125</v>
       </c>
-      <c r="U82">
+      <c r="V82">
         <v>0.0001348326726533511</v>
       </c>
-      <c r="V82">
+      <c r="W82">
         <v>0.0001616640620789589</v>
       </c>
-      <c r="W82">
+      <c r="X82">
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:23">
+    <row r="83" spans="1:24">
       <c r="A83" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B83">
         <v>620</v>
@@ -7002,21 +7251,24 @@
         <v>618.8666666666667</v>
       </c>
       <c r="T83">
+        <v>620</v>
+      </c>
+      <c r="U83">
         <v>0.5</v>
       </c>
-      <c r="U83">
+      <c r="V83">
         <v>0.0002157031924072683</v>
       </c>
-      <c r="V83">
+      <c r="W83">
         <v>0.000323275862069039</v>
       </c>
-      <c r="W83">
+      <c r="X83">
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:23">
+    <row r="84" spans="1:24">
       <c r="A84" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B84">
         <v>621</v>
@@ -7073,21 +7325,24 @@
         <v>619.1666666666666</v>
       </c>
       <c r="T84">
+        <v>620.3333333333334</v>
+      </c>
+      <c r="U84">
         <v>0.5</v>
       </c>
-      <c r="U84">
+      <c r="V84">
         <v>0.0002695708432174371</v>
       </c>
-      <c r="V84">
+      <c r="W84">
         <v>0.0004847570828394598</v>
       </c>
-      <c r="W84">
+      <c r="X84">
         <v>0.001612903225806539</v>
       </c>
     </row>
-    <row r="85" spans="1:23">
+    <row r="85" spans="1:24">
       <c r="A85" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B85">
         <v>621</v>
@@ -7144,21 +7399,24 @@
         <v>619.3666666666667</v>
       </c>
       <c r="T85">
+        <v>620.6666666666666</v>
+      </c>
+      <c r="U85">
         <v>0.53125</v>
       </c>
-      <c r="U85">
+      <c r="V85">
         <v>0.0002425483749259882</v>
       </c>
-      <c r="V85">
+      <c r="W85">
         <v>0.0003230148048452008</v>
       </c>
-      <c r="W85">
+      <c r="X85">
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:23">
+    <row r="86" spans="1:24">
       <c r="A86" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B86">
         <v>620.5</v>
@@ -7215,21 +7473,24 @@
         <v>619.5333333333333</v>
       </c>
       <c r="T86">
+        <v>620.8333333333334</v>
+      </c>
+      <c r="U86">
         <v>0.5625</v>
       </c>
-      <c r="U86">
+      <c r="V86">
         <v>0.0001616597063180958</v>
       </c>
-      <c r="V86">
+      <c r="W86">
         <v>0.000269092083310829</v>
       </c>
-      <c r="W86">
+      <c r="X86">
         <v>-0.0008051529790660261</v>
       </c>
     </row>
-    <row r="87" spans="1:23">
+    <row r="87" spans="1:24">
       <c r="A87" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B87">
         <v>620</v>
@@ -7286,21 +7547,24 @@
         <v>619.6333333333333</v>
       </c>
       <c r="T87">
+        <v>620.5</v>
+      </c>
+      <c r="U87">
         <v>0.625</v>
       </c>
-      <c r="U87">
+      <c r="V87">
         <v>0.0001077557177877608</v>
       </c>
-      <c r="V87">
+      <c r="W87">
         <v>0.0001614118153450139</v>
       </c>
-      <c r="W87">
+      <c r="X87">
         <v>-0.0008058017727639033</v>
       </c>
     </row>
-    <row r="88" spans="1:23">
+    <row r="88" spans="1:24">
       <c r="A88" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B88">
         <v>619</v>
@@ -7357,21 +7621,24 @@
         <v>619.6</v>
       </c>
       <c r="T88">
+        <v>619.8333333333334</v>
+      </c>
+      <c r="U88">
         <v>0.59375</v>
       </c>
-      <c r="U88">
+      <c r="V88">
         <v>0.0001077441077441676</v>
       </c>
-      <c r="V88">
+      <c r="W88">
         <v>-5.379525525839313E-05</v>
       </c>
-      <c r="W88">
+      <c r="X88">
         <v>-0.001612903225806428</v>
       </c>
     </row>
-    <row r="89" spans="1:23">
+    <row r="89" spans="1:24">
       <c r="A89" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B89">
         <v>619</v>
@@ -7428,21 +7695,24 @@
         <v>619.6</v>
       </c>
       <c r="T89">
+        <v>619.3333333333334</v>
+      </c>
+      <c r="U89">
         <v>0.5</v>
       </c>
-      <c r="U89">
+      <c r="V89">
         <v>0.0001077325002019069</v>
-      </c>
-      <c r="V89">
-        <v>0</v>
       </c>
       <c r="W89">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:23">
+      <c r="X89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:24">
       <c r="A90" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B90">
         <v>620.5</v>
@@ -7499,21 +7769,24 @@
         <v>619.6666666666666</v>
       </c>
       <c r="T90">
+        <v>619.5</v>
+      </c>
+      <c r="U90">
         <v>0.46875</v>
       </c>
-      <c r="U90">
+      <c r="V90">
         <v>0.000161581342740913</v>
       </c>
-      <c r="V90">
+      <c r="W90">
         <v>0.0001075962986871737</v>
       </c>
-      <c r="W90">
+      <c r="X90">
         <v>0.002423263327948399</v>
       </c>
     </row>
-    <row r="91" spans="1:23">
+    <row r="91" spans="1:24">
       <c r="A91" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B91">
         <v>619.5</v>
@@ -7570,21 +7843,24 @@
         <v>619.7</v>
       </c>
       <c r="T91">
+        <v>619.6666666666666</v>
+      </c>
+      <c r="U91">
         <v>0.40625</v>
       </c>
-      <c r="U91">
+      <c r="V91">
         <v>0.0001346293653572417</v>
       </c>
-      <c r="V91">
+      <c r="W91">
         <v>5.379236148472799E-05</v>
       </c>
-      <c r="W91">
+      <c r="X91">
         <v>-0.001611603545527807</v>
       </c>
     </row>
-    <row r="92" spans="1:23">
+    <row r="92" spans="1:24">
       <c r="A92" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B92">
         <v>620.5</v>
@@ -7641,21 +7917,24 @@
         <v>619.8333333333334</v>
       </c>
       <c r="T92">
+        <v>620.1666666666666</v>
+      </c>
+      <c r="U92">
         <v>0.25</v>
       </c>
-      <c r="U92">
+      <c r="V92">
         <v>0.0001346112427309532</v>
       </c>
-      <c r="V92">
+      <c r="W92">
         <v>0.0002151578720885894</v>
       </c>
-      <c r="W92">
+      <c r="X92">
         <v>0.001614205004035529</v>
       </c>
     </row>
-    <row r="93" spans="1:23">
+    <row r="93" spans="1:24">
       <c r="A93" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B93">
         <v>621</v>
@@ -7712,21 +7991,24 @@
         <v>619.9666666666667</v>
       </c>
       <c r="T93">
+        <v>620.3333333333334</v>
+      </c>
+      <c r="U93">
         <v>0.09375</v>
       </c>
-      <c r="U93">
+      <c r="V93">
         <v>0.0001615117499798036</v>
       </c>
-      <c r="V93">
+      <c r="W93">
         <v>0.000215111589136896</v>
       </c>
-      <c r="W93">
+      <c r="X93">
         <v>0.0008058017727639033</v>
       </c>
     </row>
-    <row r="94" spans="1:23">
+    <row r="94" spans="1:24">
       <c r="A94" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B94">
         <v>620.5</v>
@@ -7783,21 +8065,24 @@
         <v>620.1</v>
       </c>
       <c r="T94">
+        <v>620.6666666666666</v>
+      </c>
+      <c r="U94">
         <v>0</v>
       </c>
-      <c r="U94">
+      <c r="V94">
         <v>8.074283407344396E-05</v>
       </c>
-      <c r="V94">
+      <c r="W94">
         <v>0.0002150653260928337</v>
       </c>
-      <c r="W94">
+      <c r="X94">
         <v>-0.0008051529790660261</v>
       </c>
     </row>
-    <row r="95" spans="1:23">
+    <row r="95" spans="1:24">
       <c r="A95" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B95">
         <v>619.5</v>
@@ -7854,21 +8139,24 @@
         <v>620.1333333333333</v>
       </c>
       <c r="T95">
+        <v>620.3333333333334</v>
+      </c>
+      <c r="U95">
         <v>-0.125</v>
       </c>
-      <c r="U95">
+      <c r="V95">
         <v>5.382421012978256E-05</v>
       </c>
-      <c r="V95">
+      <c r="W95">
         <v>5.375477073576995E-05</v>
       </c>
-      <c r="W95">
+      <c r="X95">
         <v>-0.001611603545527807</v>
       </c>
     </row>
-    <row r="96" spans="1:23">
+    <row r="96" spans="1:24">
       <c r="A96" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B96">
         <v>620.5</v>
@@ -7925,21 +8213,24 @@
         <v>620.1666666666666</v>
       </c>
       <c r="T96">
+        <v>620.1666666666666</v>
+      </c>
+      <c r="U96">
         <v>-0.03125</v>
       </c>
-      <c r="U96">
+      <c r="V96">
         <v>5.382131323994344E-05</v>
       </c>
-      <c r="V96">
+      <c r="W96">
         <v>5.375188131573339E-05</v>
       </c>
-      <c r="W96">
+      <c r="X96">
         <v>0.001614205004035529</v>
       </c>
     </row>
-    <row r="97" spans="1:23">
+    <row r="97" spans="1:24">
       <c r="A97" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B97">
         <v>620</v>
@@ -7996,21 +8287,24 @@
         <v>620.1666666666666</v>
       </c>
       <c r="T97">
+        <v>620</v>
+      </c>
+      <c r="U97">
         <v>0.09375</v>
       </c>
-      <c r="U97">
+      <c r="V97">
         <v>8.07276249932265E-05</v>
       </c>
-      <c r="V97">
+      <c r="W97">
         <v>0</v>
       </c>
-      <c r="W97">
+      <c r="X97">
         <v>-0.0008058017727639033</v>
       </c>
     </row>
-    <row r="98" spans="1:23">
+    <row r="98" spans="1:24">
       <c r="A98" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B98">
         <v>620</v>
@@ -8067,21 +8361,24 @@
         <v>620.1666666666666</v>
       </c>
       <c r="T98">
+        <v>620.1666666666666</v>
+      </c>
+      <c r="U98">
         <v>0.03125</v>
       </c>
-      <c r="U98">
+      <c r="V98">
         <v>0.0001614422171398733</v>
-      </c>
-      <c r="V98">
-        <v>0</v>
       </c>
       <c r="W98">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:23">
+      <c r="X98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:24">
       <c r="A99" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B99">
         <v>619</v>
@@ -8138,21 +8435,24 @@
         <v>620.0333333333333</v>
       </c>
       <c r="T99">
+        <v>619.6666666666666</v>
+      </c>
+      <c r="U99">
         <v>0.03125</v>
       </c>
-      <c r="U99">
+      <c r="V99">
         <v>0.0001345134647978696</v>
       </c>
-      <c r="V99">
+      <c r="W99">
         <v>-0.0002149959688255709</v>
       </c>
-      <c r="W99">
+      <c r="X99">
         <v>-0.001612903225806428</v>
       </c>
     </row>
-    <row r="100" spans="1:23">
+    <row r="100" spans="1:24">
       <c r="A100" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B100">
         <v>618</v>
@@ -8209,21 +8509,24 @@
         <v>619.8333333333334</v>
       </c>
       <c r="T100">
+        <v>619</v>
+      </c>
+      <c r="U100">
         <v>-0.09375</v>
       </c>
-      <c r="U100">
+      <c r="V100">
         <v>0</v>
       </c>
-      <c r="V100">
+      <c r="W100">
         <v>-0.0003225633030481401</v>
       </c>
-      <c r="W100">
+      <c r="X100">
         <v>-0.001615508885298822</v>
       </c>
     </row>
-    <row r="101" spans="1:23">
+    <row r="101" spans="1:24">
       <c r="A101" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B101">
         <v>617.5</v>
@@ -8280,21 +8583,24 @@
         <v>619.6333333333333</v>
       </c>
       <c r="T101">
+        <v>618.1666666666666</v>
+      </c>
+      <c r="U101">
         <v>-0.3125</v>
       </c>
-      <c r="U101">
+      <c r="V101">
         <v>-2.689907467179342E-05</v>
       </c>
-      <c r="V101">
+      <c r="W101">
         <v>-0.000322667383705344</v>
       </c>
-      <c r="W101">
+      <c r="X101">
         <v>-0.0008090614886731018</v>
       </c>
     </row>
-    <row r="102" spans="1:23">
+    <row r="102" spans="1:24">
       <c r="A102" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B102">
         <v>618</v>
@@ -8351,21 +8657,24 @@
         <v>619.5</v>
       </c>
       <c r="T102">
+        <v>617.8333333333334</v>
+      </c>
+      <c r="U102">
         <v>-0.46875</v>
       </c>
-      <c r="U102">
+      <c r="V102">
         <v>-2.689979825143407E-05</v>
       </c>
-      <c r="V102">
+      <c r="W102">
         <v>-0.0002151810210339056</v>
       </c>
-      <c r="W102">
+      <c r="X102">
         <v>0.0008097165991902688</v>
       </c>
     </row>
-    <row r="103" spans="1:23">
+    <row r="103" spans="1:24">
       <c r="A103" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B103">
         <v>618.5</v>
@@ -8422,21 +8731,24 @@
         <v>619.4666666666667</v>
       </c>
       <c r="T103">
+        <v>618</v>
+      </c>
+      <c r="U103">
         <v>-0.5</v>
       </c>
-      <c r="U103">
+      <c r="V103">
         <v>-5.380104374042016E-05</v>
       </c>
-      <c r="V103">
+      <c r="W103">
         <v>-5.380683346778437E-05</v>
       </c>
-      <c r="W103">
+      <c r="X103">
         <v>0.0008090614886731018</v>
       </c>
     </row>
-    <row r="104" spans="1:23">
+    <row r="104" spans="1:24">
       <c r="A104" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B104">
         <v>619</v>
@@ -8493,21 +8805,24 @@
         <v>619.4666666666667</v>
       </c>
       <c r="T104">
+        <v>618.5</v>
+      </c>
+      <c r="U104">
         <v>-0.6875</v>
-      </c>
-      <c r="U104">
-        <v>0</v>
       </c>
       <c r="V104">
         <v>0</v>
       </c>
       <c r="W104">
+        <v>0</v>
+      </c>
+      <c r="X104">
         <v>0.0008084074373484462</v>
       </c>
     </row>
-    <row r="105" spans="1:23">
+    <row r="105" spans="1:24">
       <c r="A105" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B105">
         <v>619.5</v>
@@ -8564,21 +8879,24 @@
         <v>619.4</v>
       </c>
       <c r="T105">
+        <v>619</v>
+      </c>
+      <c r="U105">
         <v>-0.78125</v>
       </c>
-      <c r="U105">
+      <c r="V105">
         <v>0</v>
       </c>
-      <c r="V105">
+      <c r="W105">
         <v>-0.0001076194575980738</v>
       </c>
-      <c r="W105">
+      <c r="X105">
         <v>0.0008077544426494665</v>
       </c>
     </row>
-    <row r="106" spans="1:23">
+    <row r="106" spans="1:24">
       <c r="A106" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B106">
         <v>619.5</v>
@@ -8635,21 +8953,24 @@
         <v>619.4</v>
       </c>
       <c r="T106">
+        <v>619.3333333333334</v>
+      </c>
+      <c r="U106">
         <v>-0.78125</v>
       </c>
-      <c r="U106">
+      <c r="V106">
         <v>2.690196922405796E-05</v>
-      </c>
-      <c r="V106">
-        <v>0</v>
       </c>
       <c r="W106">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:23">
+      <c r="X106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:24">
       <c r="A107" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B107">
         <v>619.5</v>
@@ -8706,21 +9027,24 @@
         <v>619.3333333333334</v>
       </c>
       <c r="T107">
+        <v>619.5</v>
+      </c>
+      <c r="U107">
         <v>-0.71875</v>
       </c>
-      <c r="U107">
+      <c r="V107">
         <v>5.380249105546575E-05</v>
       </c>
-      <c r="V107">
+      <c r="W107">
         <v>-0.0001076310407920333</v>
       </c>
-      <c r="W107">
+      <c r="X107">
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:23">
+    <row r="108" spans="1:24">
       <c r="A108" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B108">
         <v>619.5</v>
@@ -8777,21 +9101,24 @@
         <v>619.2333333333333</v>
       </c>
       <c r="T108">
+        <v>619.5</v>
+      </c>
+      <c r="U108">
         <v>-0.46875</v>
       </c>
-      <c r="U108">
+      <c r="V108">
         <v>2.689979825154509E-05</v>
       </c>
-      <c r="V108">
+      <c r="W108">
         <v>-0.0001614639397201634</v>
       </c>
-      <c r="W108">
+      <c r="X108">
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:23">
+    <row r="109" spans="1:24">
       <c r="A109" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B109">
         <v>618.5</v>
@@ -8848,21 +9175,24 @@
         <v>619.1</v>
       </c>
       <c r="T109">
+        <v>619.1666666666666</v>
+      </c>
+      <c r="U109">
         <v>-0.1875</v>
       </c>
-      <c r="U109">
+      <c r="V109">
         <v>0</v>
       </c>
-      <c r="V109">
+      <c r="W109">
         <v>-0.0002153200193787397</v>
       </c>
-      <c r="W109">
+      <c r="X109">
         <v>-0.001614205004035529</v>
       </c>
     </row>
-    <row r="110" spans="1:23">
+    <row r="110" spans="1:24">
       <c r="A110" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B110">
         <v>619</v>
@@ -8919,21 +9249,24 @@
         <v>619.0666666666667</v>
       </c>
       <c r="T110">
+        <v>619</v>
+      </c>
+      <c r="U110">
         <v>0.03125</v>
       </c>
-      <c r="U110">
+      <c r="V110">
         <v>0</v>
       </c>
-      <c r="V110">
+      <c r="W110">
         <v>-5.384159801857802E-05</v>
       </c>
-      <c r="W110">
+      <c r="X110">
         <v>0.0008084074373484462</v>
       </c>
     </row>
-    <row r="111" spans="1:23">
+    <row r="111" spans="1:24">
       <c r="A111" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B111">
         <v>618</v>
@@ -8990,21 +9323,24 @@
         <v>618.9</v>
       </c>
       <c r="T111">
+        <v>618.5</v>
+      </c>
+      <c r="U111">
         <v>0.0625</v>
       </c>
-      <c r="U111">
+      <c r="V111">
         <v>-0.0001075962986873957</v>
       </c>
-      <c r="V111">
+      <c r="W111">
         <v>-0.0002692224854621283</v>
       </c>
-      <c r="W111">
+      <c r="X111">
         <v>-0.001615508885298822</v>
       </c>
     </row>
-    <row r="112" spans="1:23">
+    <row r="112" spans="1:24">
       <c r="A112" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B112">
         <v>619</v>
@@ -9061,21 +9397,24 @@
         <v>618.8333333333334</v>
       </c>
       <c r="T112">
+        <v>618.6666666666666</v>
+      </c>
+      <c r="U112">
         <v>0.15625</v>
       </c>
-      <c r="U112">
+      <c r="V112">
         <v>-5.380393844822695E-05</v>
       </c>
-      <c r="V112">
+      <c r="W112">
         <v>-0.000107717994290879</v>
       </c>
-      <c r="W112">
+      <c r="X112">
         <v>0.001618122977346204</v>
       </c>
     </row>
-    <row r="113" spans="1:23">
+    <row r="113" spans="1:24">
       <c r="A113" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B113">
         <v>619</v>
@@ -9132,21 +9471,24 @@
         <v>618.7666666666667</v>
       </c>
       <c r="T113">
+        <v>618.6666666666666</v>
+      </c>
+      <c r="U113">
         <v>0.15625</v>
       </c>
-      <c r="U113">
+      <c r="V113">
         <v>-5.380683346778437E-05</v>
       </c>
-      <c r="V113">
+      <c r="W113">
         <v>-0.0001077295987073068</v>
       </c>
-      <c r="W113">
+      <c r="X113">
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:23">
+    <row r="114" spans="1:24">
       <c r="A114" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B114">
         <v>619</v>
@@ -9203,21 +9545,24 @@
         <v>618.7666666666667</v>
       </c>
       <c r="T114">
+        <v>619</v>
+      </c>
+      <c r="U114">
         <v>0.15625</v>
       </c>
-      <c r="U114">
+      <c r="V114">
         <v>-0.0001076194575980738</v>
-      </c>
-      <c r="V114">
-        <v>0</v>
       </c>
       <c r="W114">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:23">
+      <c r="X114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:24">
       <c r="A115" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B115">
         <v>620</v>
@@ -9274,21 +9619,24 @@
         <v>618.9</v>
       </c>
       <c r="T115">
+        <v>619.3333333333334</v>
+      </c>
+      <c r="U115">
         <v>0.15625</v>
       </c>
-      <c r="U115">
+      <c r="V115">
         <v>-5.381552039607218E-05</v>
       </c>
-      <c r="V115">
+      <c r="W115">
         <v>0.0002154824112481357</v>
       </c>
-      <c r="W115">
+      <c r="X115">
         <v>0.001615508885298933</v>
       </c>
     </row>
-    <row r="116" spans="1:23">
+    <row r="116" spans="1:24">
       <c r="A116" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B116">
         <v>619.5</v>
@@ -9345,21 +9693,24 @@
         <v>619.0333333333333</v>
       </c>
       <c r="T116">
+        <v>619.5</v>
+      </c>
+      <c r="U116">
         <v>0.0625</v>
       </c>
-      <c r="U116">
+      <c r="V116">
         <v>-5.381841666218801E-05</v>
       </c>
-      <c r="V116">
+      <c r="W116">
         <v>0.0002154359885819801</v>
       </c>
-      <c r="W116">
+      <c r="X116">
         <v>-0.0008064516129032695</v>
       </c>
     </row>
-    <row r="117" spans="1:23">
+    <row r="117" spans="1:24">
       <c r="A117" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B117">
         <v>621.5</v>
@@ -9416,21 +9767,24 @@
         <v>619.2666666666667</v>
       </c>
       <c r="T117">
+        <v>620.3333333333334</v>
+      </c>
+      <c r="U117">
         <v>0.1875</v>
       </c>
-      <c r="U117">
+      <c r="V117">
         <v>8.073196985991515E-05</v>
       </c>
-      <c r="V117">
+      <c r="W117">
         <v>0.0003769317753485879</v>
       </c>
-      <c r="W117">
+      <c r="X117">
         <v>0.003228410008071059</v>
       </c>
     </row>
-    <row r="118" spans="1:23">
+    <row r="118" spans="1:24">
       <c r="A118" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B118">
         <v>621.5</v>
@@ -9487,21 +9841,24 @@
         <v>619.4666666666667</v>
       </c>
       <c r="T118">
+        <v>620.8333333333334</v>
+      </c>
+      <c r="U118">
         <v>0.28125</v>
       </c>
-      <c r="U118">
+      <c r="V118">
         <v>0.0001345424212255697</v>
       </c>
-      <c r="V118">
+      <c r="W118">
         <v>0.0003229626439875677</v>
       </c>
-      <c r="W118">
+      <c r="X118">
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:23">
+    <row r="119" spans="1:24">
       <c r="A119" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B119">
         <v>622</v>
@@ -9558,21 +9915,24 @@
         <v>619.6666666666666</v>
       </c>
       <c r="T119">
+        <v>621.6666666666666</v>
+      </c>
+      <c r="U119">
         <v>0.5625</v>
       </c>
-      <c r="U119">
+      <c r="V119">
         <v>0.0001614291863969441</v>
       </c>
-      <c r="V119">
+      <c r="W119">
         <v>0.0003228583727936662</v>
       </c>
-      <c r="W119">
+      <c r="X119">
         <v>0.0008045052292839916</v>
       </c>
     </row>
-    <row r="120" spans="1:23">
+    <row r="120" spans="1:24">
       <c r="A120" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B120">
         <v>622.5</v>
@@ -9629,21 +9989,24 @@
         <v>619.8666666666667</v>
       </c>
       <c r="T120">
+        <v>622</v>
+      </c>
+      <c r="U120">
         <v>0.78125</v>
       </c>
-      <c r="U120">
+      <c r="V120">
         <v>0.0001076020874803962</v>
       </c>
-      <c r="V120">
+      <c r="W120">
         <v>0.0003227541689081459</v>
       </c>
-      <c r="W120">
+      <c r="X120">
         <v>0.000803858520900258</v>
       </c>
     </row>
-    <row r="121" spans="1:23">
+    <row r="121" spans="1:24">
       <c r="A121" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B121">
         <v>622</v>
@@ -9700,21 +10063,24 @@
         <v>620.0333333333333</v>
       </c>
       <c r="T121">
+        <v>622.1666666666666</v>
+      </c>
+      <c r="U121">
         <v>1</v>
       </c>
-      <c r="U121">
+      <c r="V121">
         <v>0.0001344881381462049</v>
       </c>
-      <c r="V121">
+      <c r="W121">
         <v>0.0002688750268875495</v>
       </c>
-      <c r="W121">
+      <c r="X121">
         <v>-0.0008032128514056103</v>
       </c>
     </row>
-    <row r="122" spans="1:23">
+    <row r="122" spans="1:24">
       <c r="A122" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B122">
         <v>621.5</v>
@@ -9771,21 +10137,24 @@
         <v>620.1666666666666</v>
       </c>
       <c r="T122">
+        <v>622</v>
+      </c>
+      <c r="U122">
         <v>1.1875</v>
       </c>
-      <c r="U122">
+      <c r="V122">
         <v>5.378802140754146E-05</v>
       </c>
-      <c r="V122">
+      <c r="W122">
         <v>0.0002150422020321674</v>
       </c>
-      <c r="W122">
+      <c r="X122">
         <v>-0.000803858520900369</v>
       </c>
     </row>
-    <row r="123" spans="1:23">
+    <row r="123" spans="1:24">
       <c r="A123" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B123">
         <v>620</v>
@@ -9842,21 +10211,24 @@
         <v>620.2</v>
       </c>
       <c r="T123">
+        <v>621.1666666666666</v>
+      </c>
+      <c r="U123">
         <v>1.15625</v>
       </c>
-      <c r="U123">
+      <c r="V123">
         <v>-5.378512841192062E-05</v>
       </c>
-      <c r="V123">
+      <c r="W123">
         <v>5.374899220655927E-05</v>
       </c>
-      <c r="W123">
+      <c r="X123">
         <v>-0.002413515687851975</v>
       </c>
     </row>
-    <row r="124" spans="1:23">
+    <row r="124" spans="1:24">
       <c r="A124" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B124">
         <v>621</v>
@@ -9913,21 +10285,24 @@
         <v>620.3666666666667</v>
       </c>
       <c r="T124">
+        <v>620.8333333333334</v>
+      </c>
+      <c r="U124">
         <v>1.25</v>
       </c>
-      <c r="U124">
+      <c r="V124">
         <v>2.689401070377073E-05</v>
       </c>
-      <c r="V124">
+      <c r="W124">
         <v>0.0002687305170374632</v>
       </c>
-      <c r="W124">
+      <c r="X124">
         <v>0.001612903225806539</v>
       </c>
     </row>
-    <row r="125" spans="1:23">
+    <row r="125" spans="1:24">
       <c r="A125" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B125">
         <v>619.5</v>
@@ -9984,21 +10359,24 @@
         <v>620.4</v>
       </c>
       <c r="T125">
+        <v>620.1666666666666</v>
+      </c>
+      <c r="U125">
         <v>0.9375</v>
       </c>
-      <c r="U125">
+      <c r="V125">
         <v>0</v>
       </c>
-      <c r="V125">
+      <c r="W125">
         <v>5.373166406963392E-05</v>
       </c>
-      <c r="W125">
+      <c r="X125">
         <v>-0.002415458937198078</v>
       </c>
     </row>
-    <row r="126" spans="1:23">
+    <row r="126" spans="1:24">
       <c r="A126" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B126">
         <v>620</v>
@@ -10055,21 +10433,24 @@
         <v>620.5333333333333</v>
       </c>
       <c r="T126">
+        <v>620.1666666666666</v>
+      </c>
+      <c r="U126">
         <v>0.6875</v>
       </c>
-      <c r="U126">
+      <c r="V126">
         <v>-2.689328743543662E-05</v>
       </c>
-      <c r="V126">
+      <c r="W126">
         <v>0.000214915108532221</v>
       </c>
-      <c r="W126">
+      <c r="X126">
         <v>0.0008071025020177647</v>
       </c>
     </row>
-    <row r="127" spans="1:23">
+    <row r="127" spans="1:24">
       <c r="A127" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B127">
         <v>619.5</v>
@@ -10126,21 +10507,24 @@
         <v>620.5666666666667</v>
       </c>
       <c r="T127">
+        <v>619.6666666666666</v>
+      </c>
+      <c r="U127">
         <v>0.28125</v>
       </c>
-      <c r="U127">
+      <c r="V127">
         <v>-2.689401070377073E-05</v>
       </c>
-      <c r="V127">
+      <c r="W127">
         <v>5.371723248837057E-05</v>
       </c>
-      <c r="W127">
+      <c r="X127">
         <v>-0.0008064516129032695</v>
       </c>
     </row>
-    <row r="128" spans="1:23">
+    <row r="128" spans="1:24">
       <c r="A128" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B128">
         <v>620</v>
@@ -10197,21 +10581,24 @@
         <v>620.6333333333333</v>
       </c>
       <c r="T128">
+        <v>619.8333333333334</v>
+      </c>
+      <c r="U128">
         <v>-0.09375</v>
       </c>
-      <c r="U128">
+      <c r="V128">
         <v>0</v>
       </c>
-      <c r="V128">
+      <c r="W128">
         <v>0.0001074286942042146</v>
       </c>
-      <c r="W128">
+      <c r="X128">
         <v>0.0008071025020177647</v>
       </c>
     </row>
-    <row r="129" spans="1:23">
+    <row r="129" spans="1:24">
       <c r="A129" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B129">
         <v>619</v>
@@ -10268,21 +10655,24 @@
         <v>620.6333333333333</v>
       </c>
       <c r="T129">
+        <v>619.5</v>
+      </c>
+      <c r="U129">
         <v>-0.46875</v>
-      </c>
-      <c r="U129">
-        <v>0</v>
       </c>
       <c r="V129">
         <v>0</v>
       </c>
       <c r="W129">
+        <v>0</v>
+      </c>
+      <c r="X129">
         <v>-0.001612903225806428</v>
       </c>
     </row>
-    <row r="130" spans="1:23">
+    <row r="130" spans="1:24">
       <c r="A130" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B130">
         <v>618.5</v>
@@ -10339,21 +10729,24 @@
         <v>620.5333333333333</v>
       </c>
       <c r="T130">
+        <v>619.1666666666666</v>
+      </c>
+      <c r="U130">
         <v>-0.8125</v>
       </c>
-      <c r="U130">
+      <c r="V130">
         <v>2.689473401096265E-05</v>
       </c>
-      <c r="V130">
+      <c r="W130">
         <v>-0.000161125731779399</v>
       </c>
-      <c r="W130">
+      <c r="X130">
         <v>-0.0008077544426494665</v>
       </c>
     </row>
-    <row r="131" spans="1:23">
+    <row r="131" spans="1:24">
       <c r="A131" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B131">
         <v>618</v>
@@ -10410,21 +10803,24 @@
         <v>620.4333333333333</v>
       </c>
       <c r="T131">
+        <v>618.5</v>
+      </c>
+      <c r="U131">
         <v>-0.9375</v>
       </c>
-      <c r="U131">
+      <c r="V131">
         <v>2.689401070377073E-05</v>
       </c>
-      <c r="V131">
+      <c r="W131">
         <v>-0.0001611516974645566</v>
       </c>
-      <c r="W131">
+      <c r="X131">
         <v>-0.0008084074373484462</v>
       </c>
     </row>
-    <row r="132" spans="1:23">
+    <row r="132" spans="1:24">
       <c r="A132" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B132">
         <v>618</v>
@@ -10481,21 +10877,24 @@
         <v>620.2</v>
       </c>
       <c r="T132">
+        <v>618.1666666666666</v>
+      </c>
+      <c r="U132">
         <v>-1.21875</v>
       </c>
-      <c r="U132">
+      <c r="V132">
         <v>0</v>
       </c>
-      <c r="V132">
+      <c r="W132">
         <v>-0.000376081233546266</v>
       </c>
-      <c r="W132">
+      <c r="X132">
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:23">
+    <row r="133" spans="1:24">
       <c r="A133" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B133">
         <v>617.5</v>
@@ -10552,21 +10951,24 @@
         <v>619.9333333333333</v>
       </c>
       <c r="T133">
+        <v>617.8333333333334</v>
+      </c>
+      <c r="U133">
         <v>-1.21875</v>
       </c>
-      <c r="U133">
+      <c r="V133">
         <v>-5.378657487087324E-05</v>
       </c>
-      <c r="V133">
+      <c r="W133">
         <v>-0.0004299688272602076</v>
       </c>
-      <c r="W133">
+      <c r="X133">
         <v>-0.0008090614886731018</v>
       </c>
     </row>
-    <row r="134" spans="1:23">
+    <row r="134" spans="1:24">
       <c r="A134" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B134">
         <v>617.5</v>
@@ -10623,21 +11025,24 @@
         <v>619.6333333333333</v>
       </c>
       <c r="T134">
+        <v>617.6666666666666</v>
+      </c>
+      <c r="U134">
         <v>-1.28125</v>
       </c>
-      <c r="U134">
+      <c r="V134">
         <v>-8.068420203333204E-05</v>
       </c>
-      <c r="V134">
+      <c r="W134">
         <v>-0.0004839230024733521</v>
       </c>
-      <c r="W134">
+      <c r="X134">
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:23">
+    <row r="135" spans="1:24">
       <c r="A135" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B135">
         <v>617.5</v>
@@ -10694,21 +11099,24 @@
         <v>619.3</v>
       </c>
       <c r="T135">
+        <v>617.5</v>
+      </c>
+      <c r="U135">
         <v>-1.25</v>
       </c>
-      <c r="U135">
+      <c r="V135">
         <v>-0.0001075876166651835</v>
       </c>
-      <c r="V135">
+      <c r="W135">
         <v>-0.0005379525525849305</v>
       </c>
-      <c r="W135">
+      <c r="X135">
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:23">
+    <row r="136" spans="1:24">
       <c r="A136" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B136">
         <v>617.5</v>
@@ -10765,21 +11173,24 @@
         <v>619</v>
       </c>
       <c r="T136">
+        <v>617.5</v>
+      </c>
+      <c r="U136">
         <v>-1.25</v>
       </c>
-      <c r="U136">
+      <c r="V136">
         <v>-0.0001075991930061804</v>
       </c>
-      <c r="V136">
+      <c r="W136">
         <v>-0.0004844178911673769</v>
       </c>
-      <c r="W136">
+      <c r="X136">
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:23">
+    <row r="137" spans="1:24">
       <c r="A137" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B137">
         <v>617.5</v>
@@ -10836,21 +11247,24 @@
         <v>618.7333333333333</v>
       </c>
       <c r="T137">
+        <v>617.5</v>
+      </c>
+      <c r="U137">
         <v>-1.15625</v>
       </c>
-      <c r="U137">
+      <c r="V137">
         <v>-0.0001076107718381847</v>
       </c>
-      <c r="V137">
+      <c r="W137">
         <v>-0.0004308023694129526</v>
       </c>
-      <c r="W137">
+      <c r="X137">
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:23">
+    <row r="138" spans="1:24">
       <c r="A138" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B138">
         <v>617</v>
@@ -10907,21 +11321,24 @@
         <v>618.5333333333333</v>
       </c>
       <c r="T138">
+        <v>617.3333333333334</v>
+      </c>
+      <c r="U138">
         <v>-1.0625</v>
       </c>
-      <c r="U138">
+      <c r="V138">
         <v>-0.0001345279414535216</v>
       </c>
-      <c r="V138">
+      <c r="W138">
         <v>-0.0003232410300615385</v>
       </c>
-      <c r="W138">
+      <c r="X138">
         <v>-0.0008097165991902688</v>
       </c>
     </row>
-    <row r="139" spans="1:23">
+    <row r="139" spans="1:24">
       <c r="A139" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B139">
         <v>617.5</v>
@@ -10978,21 +11395,24 @@
         <v>618.3</v>
       </c>
       <c r="T139">
+        <v>617.3333333333334</v>
+      </c>
+      <c r="U139">
         <v>-0.96875</v>
       </c>
-      <c r="U139">
+      <c r="V139">
         <v>-5.381841666218801E-05</v>
       </c>
-      <c r="V139">
+      <c r="W139">
         <v>-0.000377236473377951</v>
       </c>
-      <c r="W139">
+      <c r="X139">
         <v>0.0008103727714747766</v>
       </c>
     </row>
-    <row r="140" spans="1:23">
+    <row r="140" spans="1:24">
       <c r="A140" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B140">
         <v>617.5</v>
@@ -11049,21 +11469,24 @@
         <v>618.1666666666666</v>
       </c>
       <c r="T140">
+        <v>617.3333333333334</v>
+      </c>
+      <c r="U140">
         <v>-0.8125</v>
       </c>
-      <c r="U140">
+      <c r="V140">
         <v>-8.07319698601372E-05</v>
       </c>
-      <c r="V140">
+      <c r="W140">
         <v>-0.0002156450482505567</v>
       </c>
-      <c r="W140">
+      <c r="X140">
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:23">
+    <row r="141" spans="1:24">
       <c r="A141" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B141">
         <v>618</v>
@@ -11120,21 +11543,24 @@
         <v>618.0333333333333</v>
       </c>
       <c r="T141">
+        <v>617.6666666666666</v>
+      </c>
+      <c r="U141">
         <v>-0.65625</v>
       </c>
-      <c r="U141">
+      <c r="V141">
         <v>0</v>
       </c>
-      <c r="V141">
+      <c r="W141">
         <v>-0.0002156915610677101</v>
       </c>
-      <c r="W141">
+      <c r="X141">
         <v>0.0008097165991902688</v>
       </c>
     </row>
-    <row r="142" spans="1:23">
+    <row r="142" spans="1:24">
       <c r="A142" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B142">
         <v>618.5</v>
@@ -11191,21 +11617,24 @@
         <v>617.9666666666667</v>
       </c>
       <c r="T142">
+        <v>618</v>
+      </c>
+      <c r="U142">
         <v>-0.4375</v>
       </c>
-      <c r="U142">
+      <c r="V142">
         <v>-2.691282934574879E-05</v>
       </c>
-      <c r="V142">
+      <c r="W142">
         <v>-0.000107869046976905</v>
       </c>
-      <c r="W142">
+      <c r="X142">
         <v>0.0008090614886731018</v>
       </c>
     </row>
-    <row r="143" spans="1:23">
+    <row r="143" spans="1:24">
       <c r="A143" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B143">
         <v>618</v>
@@ -11262,21 +11691,24 @@
         <v>617.8333333333334</v>
       </c>
       <c r="T143">
+        <v>618.1666666666666</v>
+      </c>
+      <c r="U143">
         <v>-0.28125</v>
       </c>
-      <c r="U143">
+      <c r="V143">
         <v>-5.382710733115026E-05</v>
       </c>
-      <c r="V143">
+      <c r="W143">
         <v>-0.0002157613679271142</v>
       </c>
-      <c r="W143">
+      <c r="X143">
         <v>-0.0008084074373484462</v>
       </c>
     </row>
-    <row r="144" spans="1:23">
+    <row r="144" spans="1:24">
       <c r="A144" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B144">
         <v>617</v>
@@ -11333,21 +11765,24 @@
         <v>617.7</v>
       </c>
       <c r="T144">
+        <v>617.8333333333334</v>
+      </c>
+      <c r="U144">
         <v>-0.15625</v>
       </c>
-      <c r="U144">
+      <c r="V144">
         <v>-0.0001076600096895364</v>
       </c>
-      <c r="V144">
+      <c r="W144">
         <v>-0.0002158079309414473</v>
       </c>
-      <c r="W144">
+      <c r="X144">
         <v>-0.001618122977346315</v>
       </c>
     </row>
-    <row r="145" spans="1:23">
+    <row r="145" spans="1:24">
       <c r="A145" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B145">
         <v>618</v>
@@ -11404,21 +11839,24 @@
         <v>617.6666666666666</v>
       </c>
       <c r="T145">
+        <v>617.6666666666666</v>
+      </c>
+      <c r="U145">
         <v>-0.03125</v>
       </c>
-      <c r="U145">
+      <c r="V145">
         <v>-0.0001076716016149559</v>
       </c>
-      <c r="V145">
+      <c r="W145">
         <v>-5.396362851450842E-05</v>
       </c>
-      <c r="W145">
+      <c r="X145">
         <v>0.001620745542949775</v>
       </c>
     </row>
-    <row r="146" spans="1:23">
+    <row r="146" spans="1:24">
       <c r="A146" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B146">
         <v>618.5</v>
@@ -11475,21 +11913,24 @@
         <v>617.7</v>
       </c>
       <c r="T146">
+        <v>617.8333333333334</v>
+      </c>
+      <c r="U146">
         <v>0.15625</v>
       </c>
-      <c r="U146">
+      <c r="V146">
         <v>-5.384159801857802E-05</v>
       </c>
-      <c r="V146">
+      <c r="W146">
         <v>5.396654074485419E-05</v>
       </c>
-      <c r="W146">
+      <c r="X146">
         <v>0.0008090614886731018</v>
       </c>
     </row>
-    <row r="147" spans="1:23">
+    <row r="147" spans="1:24">
       <c r="A147" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B147">
         <v>619</v>
@@ -11546,21 +11987,24 @@
         <v>617.7666666666667</v>
       </c>
       <c r="T147">
+        <v>618.5</v>
+      </c>
+      <c r="U147">
         <v>0.28125</v>
       </c>
-      <c r="U147">
+      <c r="V147">
         <v>-0.0001346112427310642</v>
       </c>
-      <c r="V147">
+      <c r="W147">
         <v>0.0001079272570285728</v>
       </c>
-      <c r="W147">
+      <c r="X147">
         <v>0.0008084074373484462</v>
       </c>
     </row>
-    <row r="148" spans="1:23">
+    <row r="148" spans="1:24">
       <c r="A148" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B148">
         <v>619</v>
@@ -11617,21 +12061,24 @@
         <v>617.8666666666667</v>
       </c>
       <c r="T148">
+        <v>618.8333333333334</v>
+      </c>
+      <c r="U148">
         <v>0.40625</v>
       </c>
-      <c r="U148">
+      <c r="V148">
         <v>-0.0001346293653572417</v>
       </c>
-      <c r="V148">
+      <c r="W148">
         <v>0.0001618734149895218</v>
       </c>
-      <c r="W148">
+      <c r="X148">
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:23">
+    <row r="149" spans="1:24">
       <c r="A149" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B149">
         <v>618</v>
@@ -11688,21 +12135,24 @@
         <v>617.9</v>
       </c>
       <c r="T149">
+        <v>618.6666666666666</v>
+      </c>
+      <c r="U149">
         <v>0.375</v>
       </c>
-      <c r="U149">
+      <c r="V149">
         <v>-0.0002154359885818691</v>
       </c>
-      <c r="V149">
+      <c r="W149">
         <v>5.394907207589839E-05</v>
       </c>
-      <c r="W149">
+      <c r="X149">
         <v>-0.001615508885298822</v>
       </c>
     </row>
-    <row r="150" spans="1:23">
+    <row r="150" spans="1:24">
       <c r="A150" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B150">
         <v>619</v>
@@ -11759,21 +12209,24 @@
         <v>618</v>
       </c>
       <c r="T150">
+        <v>618.6666666666666</v>
+      </c>
+      <c r="U150">
         <v>0.34375</v>
       </c>
-      <c r="U150">
+      <c r="V150">
         <v>-0.0001885471098421743</v>
       </c>
-      <c r="V150">
+      <c r="W150">
         <v>0.0001618384851918009</v>
       </c>
-      <c r="W150">
+      <c r="X150">
         <v>0.001618122977346204</v>
       </c>
     </row>
-    <row r="151" spans="1:23">
+    <row r="151" spans="1:24">
       <c r="A151" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B151">
         <v>618.5</v>
@@ -11830,21 +12283,24 @@
         <v>618.0666666666667</v>
       </c>
       <c r="T151">
+        <v>618.5</v>
+      </c>
+      <c r="U151">
         <v>0.34375</v>
       </c>
-      <c r="U151">
+      <c r="V151">
         <v>-0.0001885826665589674</v>
       </c>
-      <c r="V151">
+      <c r="W151">
         <v>0.0001078748651563988</v>
       </c>
-      <c r="W151">
+      <c r="X151">
         <v>-0.0008077544426494665</v>
       </c>
     </row>
-    <row r="152" spans="1:23">
+    <row r="152" spans="1:24">
       <c r="A152" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B152">
         <v>618</v>
@@ -11901,21 +12357,24 @@
         <v>618.1</v>
       </c>
       <c r="T152">
+        <v>618.5</v>
+      </c>
+      <c r="U152">
         <v>0.4375</v>
       </c>
-      <c r="U152">
+      <c r="V152">
         <v>-0.00018861823668892</v>
       </c>
-      <c r="V152">
+      <c r="W152">
         <v>5.393161471256569E-05</v>
       </c>
-      <c r="W152">
+      <c r="X152">
         <v>-0.0008084074373484462</v>
       </c>
     </row>
-    <row r="153" spans="1:23">
+    <row r="153" spans="1:24">
       <c r="A153" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B153">
         <v>618</v>
@@ -11972,21 +12431,24 @@
         <v>618.1666666666666</v>
       </c>
       <c r="T153">
+        <v>618.1666666666666</v>
+      </c>
+      <c r="U153">
         <v>0.40625</v>
       </c>
-      <c r="U153">
+      <c r="V153">
         <v>-0.00010780218299411</v>
       </c>
-      <c r="V153">
+      <c r="W153">
         <v>0.0001078574125006337</v>
       </c>
-      <c r="W153">
+      <c r="X153">
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:23">
+    <row r="154" spans="1:24">
       <c r="A154" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B154">
         <v>617.5</v>
@@ -12043,21 +12505,24 @@
         <v>618.1666666666666</v>
       </c>
       <c r="T154">
+        <v>617.8333333333334</v>
+      </c>
+      <c r="U154">
         <v>0.25</v>
       </c>
-      <c r="U154">
+      <c r="V154">
         <v>-0.000188674159726121</v>
       </c>
-      <c r="V154">
+      <c r="W154">
         <v>0</v>
       </c>
-      <c r="W154">
+      <c r="X154">
         <v>-0.0008090614886731018</v>
       </c>
     </row>
-    <row r="155" spans="1:23">
+    <row r="155" spans="1:24">
       <c r="A155" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B155">
         <v>618</v>
@@ -12114,21 +12579,24 @@
         <v>618.2</v>
       </c>
       <c r="T155">
+        <v>617.8333333333334</v>
+      </c>
+      <c r="U155">
         <v>0.09375</v>
       </c>
-      <c r="U155">
+      <c r="V155">
         <v>-8.087561330683002E-05</v>
       </c>
-      <c r="V155">
+      <c r="W155">
         <v>5.392289026695529E-05</v>
       </c>
-      <c r="W155">
+      <c r="X155">
         <v>0.0008097165991902688</v>
       </c>
     </row>
-    <row r="156" spans="1:23">
+    <row r="156" spans="1:24">
       <c r="A156" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B156">
         <v>617</v>
@@ -12185,21 +12653,24 @@
         <v>618.1333333333333</v>
       </c>
       <c r="T156">
+        <v>617.5</v>
+      </c>
+      <c r="U156">
         <v>-0.125</v>
       </c>
-      <c r="U156">
+      <c r="V156">
         <v>-0.000161764309401069</v>
       </c>
-      <c r="V156">
+      <c r="W156">
         <v>-0.000107839965491352</v>
       </c>
-      <c r="W156">
+      <c r="X156">
         <v>-0.001618122977346315</v>
       </c>
     </row>
-    <row r="157" spans="1:23">
+    <row r="157" spans="1:24">
       <c r="A157" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B157">
         <v>618</v>
@@ -12256,21 +12727,24 @@
         <v>618.1</v>
       </c>
       <c r="T157">
+        <v>617.6666666666666</v>
+      </c>
+      <c r="U157">
         <v>-0.125</v>
       </c>
-      <c r="U157">
+      <c r="V157">
         <v>-8.089524066345888E-05</v>
       </c>
-      <c r="V157">
+      <c r="W157">
         <v>-5.392579810181708E-05</v>
       </c>
-      <c r="W157">
+      <c r="X157">
         <v>0.001620745542949775</v>
       </c>
     </row>
-    <row r="158" spans="1:23">
+    <row r="158" spans="1:24">
       <c r="A158" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B158">
         <v>618</v>
@@ -12327,21 +12801,24 @@
         <v>618.1</v>
       </c>
       <c r="T158">
+        <v>617.6666666666666</v>
+      </c>
+      <c r="U158">
         <v>-0.21875</v>
       </c>
-      <c r="U158">
+      <c r="V158">
         <v>-0.000107869046976905</v>
-      </c>
-      <c r="V158">
-        <v>0</v>
       </c>
       <c r="W158">
         <v>0</v>
       </c>
-    </row>
-    <row r="159" spans="1:23">
+      <c r="X158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:24">
       <c r="A159" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B159">
         <v>618</v>
@@ -12398,21 +12875,24 @@
         <v>618.1666666666666</v>
       </c>
       <c r="T159">
+        <v>618</v>
+      </c>
+      <c r="U159">
         <v>-0.28125</v>
       </c>
-      <c r="U159">
+      <c r="V159">
         <v>-5.394034198191733E-05</v>
       </c>
-      <c r="V159">
+      <c r="W159">
         <v>0.0001078574125006337</v>
       </c>
-      <c r="W159">
+      <c r="X159">
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:23">
+    <row r="160" spans="1:24">
       <c r="A160" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B160">
         <v>618.5</v>
@@ -12469,21 +12949,24 @@
         <v>618.2</v>
       </c>
       <c r="T160">
+        <v>618.1666666666666</v>
+      </c>
+      <c r="U160">
         <v>-0.3125</v>
       </c>
-      <c r="U160">
+      <c r="V160">
         <v>0</v>
       </c>
-      <c r="V160">
+      <c r="W160">
         <v>5.392289026695529E-05</v>
       </c>
-      <c r="W160">
+      <c r="X160">
         <v>0.0008090614886731018</v>
       </c>
     </row>
-    <row r="161" spans="1:23">
+    <row r="161" spans="1:24">
       <c r="A161" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B161">
         <v>618.5</v>
@@ -12540,21 +13023,24 @@
         <v>618.2</v>
       </c>
       <c r="T161">
+        <v>618.3333333333334</v>
+      </c>
+      <c r="U161">
         <v>-0.28125</v>
       </c>
-      <c r="U161">
+      <c r="V161">
         <v>2.697162584985868E-05</v>
-      </c>
-      <c r="V161">
-        <v>0</v>
       </c>
       <c r="W161">
         <v>0</v>
       </c>
-    </row>
-    <row r="162" spans="1:23">
+      <c r="X161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:24">
       <c r="A162" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B162">
         <v>618.5</v>
@@ -12611,21 +13097,24 @@
         <v>618.1666666666666</v>
       </c>
       <c r="T162">
+        <v>618.5</v>
+      </c>
+      <c r="U162">
         <v>-0.15625</v>
       </c>
-      <c r="U162">
+      <c r="V162">
         <v>2.69708984006467E-05</v>
       </c>
-      <c r="V162">
+      <c r="W162">
         <v>-5.391998274573151E-05</v>
       </c>
-      <c r="W162">
+      <c r="X162">
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:23">
+    <row r="163" spans="1:24">
       <c r="A163" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B163">
         <v>618</v>
@@ -12682,21 +13171,24 @@
         <v>618.1</v>
       </c>
       <c r="T163">
+        <v>618.3333333333334</v>
+      </c>
+      <c r="U163">
         <v>-0.09375</v>
       </c>
-      <c r="U163">
+      <c r="V163">
         <v>2.697017099095866E-05</v>
       </c>
-      <c r="V163">
+      <c r="W163">
         <v>-0.0001078457805336885</v>
       </c>
-      <c r="W163">
+      <c r="X163">
         <v>-0.0008084074373484462</v>
       </c>
     </row>
-    <row r="164" spans="1:23">
+    <row r="164" spans="1:24">
       <c r="A164" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B164">
         <v>618.5</v>
@@ -12753,21 +13245,24 @@
         <v>618.1333333333333</v>
       </c>
       <c r="T164">
+        <v>618.3333333333334</v>
+      </c>
+      <c r="U164">
         <v>0.125</v>
       </c>
-      <c r="U164">
+      <c r="V164">
         <v>5.393888724070095E-05</v>
       </c>
-      <c r="V164">
+      <c r="W164">
         <v>5.392870625020585E-05</v>
       </c>
-      <c r="W164">
+      <c r="X164">
         <v>0.0008090614886731018</v>
       </c>
     </row>
-    <row r="165" spans="1:23">
+    <row r="165" spans="1:24">
       <c r="A165" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B165">
         <v>618</v>
@@ -12824,21 +13319,24 @@
         <v>618.0666666666667</v>
       </c>
       <c r="T165">
+        <v>618.1666666666666</v>
+      </c>
+      <c r="U165">
         <v>0.125</v>
       </c>
-      <c r="U165">
+      <c r="V165">
         <v>2.696798899703978E-05</v>
       </c>
-      <c r="V165">
+      <c r="W165">
         <v>-0.0001078515962035231</v>
       </c>
-      <c r="W165">
+      <c r="X165">
         <v>-0.0008084074373484462</v>
       </c>
     </row>
-    <row r="166" spans="1:23">
+    <row r="166" spans="1:24">
       <c r="A166" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B166">
         <v>617.5</v>
@@ -12895,21 +13393,24 @@
         <v>618</v>
       </c>
       <c r="T166">
+        <v>618</v>
+      </c>
+      <c r="U166">
         <v>0.15625</v>
       </c>
-      <c r="U166">
+      <c r="V166">
         <v>0</v>
       </c>
-      <c r="V166">
+      <c r="W166">
         <v>-0.0001078632294251314</v>
       </c>
-      <c r="W166">
+      <c r="X166">
         <v>-0.0008090614886731018</v>
       </c>
     </row>
-    <row r="167" spans="1:23">
+    <row r="167" spans="1:24">
       <c r="A167" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B167">
         <v>618</v>
@@ -12966,21 +13467,24 @@
         <v>618</v>
       </c>
       <c r="T167">
+        <v>617.8333333333334</v>
+      </c>
+      <c r="U167">
         <v>0.1875</v>
       </c>
-      <c r="U167">
+      <c r="V167">
         <v>2.696726174411523E-05</v>
       </c>
-      <c r="V167">
+      <c r="W167">
         <v>0</v>
       </c>
-      <c r="W167">
+      <c r="X167">
         <v>0.0008097165991902688</v>
       </c>
     </row>
-    <row r="168" spans="1:23">
+    <row r="168" spans="1:24">
       <c r="A168" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B168">
         <v>617</v>
@@ -13037,21 +13541,24 @@
         <v>617.9333333333333</v>
       </c>
       <c r="T168">
+        <v>617.5</v>
+      </c>
+      <c r="U168">
         <v>0.0625</v>
       </c>
-      <c r="U168">
+      <c r="V168">
         <v>0</v>
       </c>
-      <c r="V168">
+      <c r="W168">
         <v>-0.0001078748651565098</v>
       </c>
-      <c r="W168">
+      <c r="X168">
         <v>-0.001618122977346315</v>
       </c>
     </row>
-    <row r="169" spans="1:23">
+    <row r="169" spans="1:24">
       <c r="A169" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B169">
         <v>617</v>
@@ -13108,21 +13615,24 @@
         <v>617.9</v>
       </c>
       <c r="T169">
+        <v>617.3333333333334</v>
+      </c>
+      <c r="U169">
         <v>-0.0625</v>
       </c>
-      <c r="U169">
+      <c r="V169">
         <v>-2.69665345306036E-05</v>
       </c>
-      <c r="V169">
+      <c r="W169">
         <v>-5.394325169916225E-05</v>
       </c>
-      <c r="W169">
+      <c r="X169">
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:23">
+    <row r="170" spans="1:24">
       <c r="A170" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B170">
         <v>617</v>
@@ -13179,21 +13689,24 @@
         <v>617.8333333333334</v>
       </c>
       <c r="T170">
+        <v>617</v>
+      </c>
+      <c r="U170">
         <v>-0.21875</v>
       </c>
-      <c r="U170">
+      <c r="V170">
         <v>-2.696726174422626E-05</v>
       </c>
-      <c r="V170">
+      <c r="W170">
         <v>-0.0001078923234610896</v>
       </c>
-      <c r="W170">
+      <c r="X170">
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:23">
+    <row r="171" spans="1:24">
       <c r="A171" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B171">
         <v>616</v>
@@ -13250,21 +13763,24 @@
         <v>617.7666666666667</v>
       </c>
       <c r="T171">
+        <v>616.6666666666666</v>
+      </c>
+      <c r="U171">
         <v>-0.34375</v>
       </c>
-      <c r="U171">
+      <c r="V171">
         <v>-0.0001078719559881591</v>
       </c>
-      <c r="V171">
+      <c r="W171">
         <v>-0.0001079039654707792</v>
       </c>
-      <c r="W171">
+      <c r="X171">
         <v>-0.001620745542949775</v>
       </c>
     </row>
-    <row r="172" spans="1:23">
+    <row r="172" spans="1:24">
       <c r="A172" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B172">
         <v>617</v>
@@ -13321,21 +13837,24 @@
         <v>617.7</v>
       </c>
       <c r="T172">
+        <v>616.6666666666666</v>
+      </c>
+      <c r="U172">
         <v>-0.53125</v>
       </c>
-      <c r="U172">
+      <c r="V172">
         <v>-8.091269520194011E-05</v>
       </c>
-      <c r="V172">
+      <c r="W172">
         <v>-0.0001079156099929035</v>
       </c>
-      <c r="W172">
+      <c r="X172">
         <v>0.001623376623376638</v>
       </c>
     </row>
-    <row r="173" spans="1:23">
+    <row r="173" spans="1:24">
       <c r="A173" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B173">
         <v>616.5</v>
@@ -13392,21 +13911,24 @@
         <v>617.6</v>
       </c>
       <c r="T173">
+        <v>616.5</v>
+      </c>
+      <c r="U173">
         <v>-0.625</v>
       </c>
-      <c r="U173">
+      <c r="V173">
         <v>-8.091924259578942E-05</v>
       </c>
-      <c r="V173">
+      <c r="W173">
         <v>-0.0001618908855431922</v>
       </c>
-      <c r="W173">
+      <c r="X173">
         <v>-0.0008103727714748876</v>
       </c>
     </row>
-    <row r="174" spans="1:23">
+    <row r="174" spans="1:24">
       <c r="A174" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B174">
         <v>616</v>
@@ -13463,21 +13985,24 @@
         <v>617.4666666666667</v>
       </c>
       <c r="T174">
+        <v>616.5</v>
+      </c>
+      <c r="U174">
         <v>-0.6875</v>
       </c>
-      <c r="U174">
+      <c r="V174">
         <v>-5.395052736634209E-05</v>
       </c>
-      <c r="V174">
+      <c r="W174">
         <v>-0.0002158894645941656</v>
       </c>
-      <c r="W174">
+      <c r="X174">
         <v>-0.0008110300081103361</v>
       </c>
     </row>
-    <row r="175" spans="1:23">
+    <row r="175" spans="1:24">
       <c r="A175" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B175">
         <v>616</v>
@@ -13534,21 +14059,24 @@
         <v>617.3</v>
       </c>
       <c r="T175">
+        <v>616.1666666666666</v>
+      </c>
+      <c r="U175">
         <v>-0.8125</v>
       </c>
-      <c r="U175">
+      <c r="V175">
         <v>-0.0001079068763657487</v>
       </c>
-      <c r="V175">
+      <c r="W175">
         <v>-0.000269920103649457</v>
       </c>
-      <c r="W175">
+      <c r="X175">
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:23">
+    <row r="176" spans="1:24">
       <c r="A176" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B176">
         <v>616.5</v>
@@ -13605,21 +14133,24 @@
         <v>617.1666666666666</v>
       </c>
       <c r="T176">
+        <v>616.1666666666666</v>
+      </c>
+      <c r="U176">
         <v>-0.75</v>
       </c>
-      <c r="U176">
+      <c r="V176">
         <v>-0.0001079185215163703</v>
       </c>
-      <c r="V176">
+      <c r="W176">
         <v>-0.0002159943841459899</v>
       </c>
-      <c r="W176">
+      <c r="X176">
         <v>0.0008116883116882079</v>
       </c>
     </row>
-    <row r="177" spans="1:23">
+    <row r="177" spans="1:24">
       <c r="A177" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B177">
         <v>616.5</v>
@@ -13676,21 +14207,24 @@
         <v>617.0333333333333</v>
       </c>
       <c r="T177">
+        <v>616.3333333333334</v>
+      </c>
+      <c r="U177">
         <v>-0.6875</v>
       </c>
-      <c r="U177">
+      <c r="V177">
         <v>-0.0001349127114755877</v>
       </c>
-      <c r="V177">
+      <c r="W177">
         <v>-0.0002160410477990427</v>
       </c>
-      <c r="W177">
+      <c r="X177">
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:23">
+    <row r="178" spans="1:24">
       <c r="A178" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B178">
         <v>616</v>
@@ -13747,21 +14281,24 @@
         <v>616.9</v>
       </c>
       <c r="T178">
+        <v>616.3333333333334</v>
+      </c>
+      <c r="U178">
         <v>-0.65625</v>
       </c>
-      <c r="U178">
+      <c r="V178">
         <v>-0.0001619170984455964</v>
       </c>
-      <c r="V178">
+      <c r="W178">
         <v>-0.0002160877316190746</v>
       </c>
-      <c r="W178">
+      <c r="X178">
         <v>-0.0008110300081103361</v>
       </c>
     </row>
-    <row r="179" spans="1:23">
+    <row r="179" spans="1:24">
       <c r="A179" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B179">
         <v>616</v>
@@ -13818,21 +14355,24 @@
         <v>616.7333333333333</v>
       </c>
       <c r="T179">
+        <v>616.1666666666666</v>
+      </c>
+      <c r="U179">
         <v>-0.53125</v>
       </c>
-      <c r="U179">
+      <c r="V179">
         <v>-0.0001079622132255098</v>
       </c>
-      <c r="V179">
+      <c r="W179">
         <v>-0.0002701680445236221</v>
       </c>
-      <c r="W179">
+      <c r="X179">
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:23">
+    <row r="180" spans="1:24">
       <c r="A180" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B180">
         <v>616</v>
@@ -13889,21 +14429,24 @@
         <v>616.6</v>
       </c>
       <c r="T180">
+        <v>616</v>
+      </c>
+      <c r="U180">
         <v>-0.5</v>
       </c>
-      <c r="U180">
+      <c r="V180">
         <v>-0.0001619608054849175</v>
       </c>
-      <c r="V180">
+      <c r="W180">
         <v>-0.0002161928440168603</v>
       </c>
-      <c r="W180">
+      <c r="X180">
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:23">
+    <row r="181" spans="1:24">
       <c r="A181" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B181">
         <v>616</v>
@@ -13960,21 +14503,24 @@
         <v>616.5</v>
       </c>
       <c r="T181">
+        <v>616</v>
+      </c>
+      <c r="U181">
         <v>-0.4375</v>
       </c>
-      <c r="U181">
+      <c r="V181">
         <v>-0.0001349892008639664</v>
       </c>
-      <c r="V181">
+      <c r="W181">
         <v>-0.0001621796951022381</v>
       </c>
-      <c r="W181">
+      <c r="X181">
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:23">
+    <row r="182" spans="1:24">
       <c r="A182" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B182">
         <v>615.5</v>
@@ -14031,21 +14577,24 @@
         <v>616.3333333333334</v>
       </c>
       <c r="T182">
+        <v>615.8333333333334</v>
+      </c>
+      <c r="U182">
         <v>-0.375</v>
       </c>
-      <c r="U182">
+      <c r="V182">
         <v>-0.0001350074254085065</v>
       </c>
-      <c r="V182">
+      <c r="W182">
         <v>-0.0002703433360367047</v>
       </c>
-      <c r="W182">
+      <c r="X182">
         <v>-0.0008116883116883189</v>
       </c>
     </row>
-    <row r="183" spans="1:23">
+    <row r="183" spans="1:24">
       <c r="A183" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B183">
         <v>615.5</v>
@@ -14102,21 +14651,24 @@
         <v>616.2333333333333</v>
       </c>
       <c r="T183">
+        <v>615.6666666666666</v>
+      </c>
+      <c r="U183">
         <v>-0.28125</v>
       </c>
-      <c r="U183">
+      <c r="V183">
         <v>-0.0001350256548743323</v>
       </c>
-      <c r="V183">
+      <c r="W183">
         <v>-0.0001622498647918524</v>
       </c>
-      <c r="W183">
+      <c r="X183">
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:23">
+    <row r="184" spans="1:24">
       <c r="A184" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B184">
         <v>616</v>
@@ -14173,21 +14725,24 @@
         <v>616.1666666666666</v>
       </c>
       <c r="T184">
+        <v>615.6666666666666</v>
+      </c>
+      <c r="U184">
         <v>-0.28125</v>
       </c>
-      <c r="U184">
+      <c r="V184">
         <v>-8.102633355855371E-05</v>
       </c>
-      <c r="V184">
+      <c r="W184">
         <v>-0.000108184129388289</v>
       </c>
-      <c r="W184">
+      <c r="X184">
         <v>0.0008123476848092004</v>
       </c>
     </row>
-    <row r="185" spans="1:23">
+    <row r="185" spans="1:24">
       <c r="A185" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B185">
         <v>615.5</v>
@@ -14244,21 +14799,24 @@
         <v>616.0666666666667</v>
       </c>
       <c r="T185">
+        <v>615.6666666666666</v>
+      </c>
+      <c r="U185">
         <v>-0.3125</v>
       </c>
-      <c r="U185">
+      <c r="V185">
         <v>-0.0001350548322617273</v>
       </c>
-      <c r="V185">
+      <c r="W185">
         <v>-0.0001622937516904122</v>
       </c>
-      <c r="W185">
+      <c r="X185">
         <v>-0.0008116883116883189</v>
       </c>
     </row>
-    <row r="186" spans="1:23">
+    <row r="186" spans="1:24">
       <c r="A186" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B186">
         <v>614</v>
@@ -14315,21 +14873,24 @@
         <v>615.9333333333333</v>
       </c>
       <c r="T186">
+        <v>615.1666666666666</v>
+      </c>
+      <c r="U186">
         <v>-0.375</v>
       </c>
-      <c r="U186">
+      <c r="V186">
         <v>-0.000162087689440038</v>
       </c>
-      <c r="V186">
+      <c r="W186">
         <v>-0.0002164267936372033</v>
       </c>
-      <c r="W186">
+      <c r="X186">
         <v>-0.002437043054427268</v>
       </c>
     </row>
-    <row r="187" spans="1:23">
+    <row r="187" spans="1:24">
       <c r="A187" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B187">
         <v>614.5</v>
@@ -14386,21 +14947,24 @@
         <v>615.7666666666667</v>
       </c>
       <c r="T187">
+        <v>614.6666666666666</v>
+      </c>
+      <c r="U187">
         <v>-0.46875</v>
       </c>
-      <c r="U187">
+      <c r="V187">
         <v>-0.0001891329604711833</v>
       </c>
-      <c r="V187">
+      <c r="W187">
         <v>-0.0002705920554172403</v>
       </c>
-      <c r="W187">
+      <c r="X187">
         <v>0.0008143322475568926</v>
       </c>
     </row>
-    <row r="188" spans="1:23">
+    <row r="188" spans="1:24">
       <c r="A188" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B188">
         <v>614.5</v>
@@ -14457,21 +15021,24 @@
         <v>615.6333333333333</v>
       </c>
       <c r="T188">
+        <v>614.3333333333334</v>
+      </c>
+      <c r="U188">
         <v>-0.5</v>
       </c>
-      <c r="U188">
+      <c r="V188">
         <v>-0.0001891687385148222</v>
       </c>
-      <c r="V188">
+      <c r="W188">
         <v>-0.0002165322362366329</v>
       </c>
-      <c r="W188">
+      <c r="X188">
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:23">
+    <row r="189" spans="1:24">
       <c r="A189" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B189">
         <v>615</v>
@@ -14528,21 +15095,24 @@
         <v>615.5666666666667</v>
       </c>
       <c r="T189">
+        <v>614.6666666666666</v>
+      </c>
+      <c r="U189">
         <v>-0.53125</v>
       </c>
-      <c r="U189">
+      <c r="V189">
         <v>-0.0001621753115117475</v>
       </c>
-      <c r="V189">
+      <c r="W189">
         <v>-0.0001082895663001571</v>
       </c>
-      <c r="W189">
+      <c r="X189">
         <v>0.0008136696501219731</v>
       </c>
     </row>
-    <row r="190" spans="1:23">
+    <row r="190" spans="1:24">
       <c r="A190" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B190">
         <v>615</v>
@@ -14599,21 +15169,24 @@
         <v>615.5</v>
       </c>
       <c r="T190">
+        <v>614.8333333333334</v>
+      </c>
+      <c r="U190">
         <v>-0.53125</v>
       </c>
-      <c r="U190">
+      <c r="V190">
         <v>-0.000189235219377748</v>
       </c>
-      <c r="V190">
+      <c r="W190">
         <v>-0.0001083012942005857</v>
       </c>
-      <c r="W190">
+      <c r="X190">
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:23">
+    <row r="191" spans="1:24">
       <c r="A191" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B191">
         <v>615.5</v>
@@ -14670,21 +15243,24 @@
         <v>615.4333333333333</v>
       </c>
       <c r="T191">
+        <v>615.1666666666666</v>
+      </c>
+      <c r="U191">
         <v>-0.5</v>
       </c>
-      <c r="U191">
+      <c r="V191">
         <v>-0.0001622323166775574</v>
       </c>
-      <c r="V191">
+      <c r="W191">
         <v>-0.0001083130246413155</v>
       </c>
-      <c r="W191">
+      <c r="X191">
         <v>0.0008130081300812275</v>
       </c>
     </row>
-    <row r="192" spans="1:23">
+    <row r="192" spans="1:24">
       <c r="A192" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B192">
         <v>614.5</v>
@@ -14741,21 +15317,24 @@
         <v>615.3</v>
       </c>
       <c r="T192">
+        <v>615</v>
+      </c>
+      <c r="U192">
         <v>-0.5625</v>
       </c>
-      <c r="U192">
+      <c r="V192">
         <v>-0.0002163448536968149</v>
       </c>
-      <c r="V192">
+      <c r="W192">
         <v>-0.0002166495152466918</v>
       </c>
-      <c r="W192">
+      <c r="X192">
         <v>-0.001624695369618179</v>
       </c>
     </row>
-    <row r="193" spans="1:23">
+    <row r="193" spans="1:24">
       <c r="A193" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B193">
         <v>614</v>
@@ -14812,21 +15391,24 @@
         <v>615.1666666666666</v>
       </c>
       <c r="T193">
+        <v>614.6666666666666</v>
+      </c>
+      <c r="U193">
         <v>-0.59375</v>
       </c>
-      <c r="U193">
+      <c r="V193">
         <v>-0.0002163916689207346</v>
       </c>
-      <c r="V193">
+      <c r="W193">
         <v>-0.000216696462430277</v>
       </c>
-      <c r="W193">
+      <c r="X193">
         <v>-0.0008136696501220841</v>
       </c>
     </row>
-    <row r="194" spans="1:23">
+    <row r="194" spans="1:24">
       <c r="A194" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B194">
         <v>613</v>
@@ -14883,21 +15465,24 @@
         <v>614.9666666666667</v>
       </c>
       <c r="T194">
+        <v>613.8333333333334</v>
+      </c>
+      <c r="U194">
         <v>-0.53125</v>
       </c>
-      <c r="U194">
+      <c r="V194">
         <v>-0.000297602943563624</v>
       </c>
-      <c r="V194">
+      <c r="W194">
         <v>-0.0003251151449470413</v>
       </c>
-      <c r="W194">
+      <c r="X194">
         <v>-0.001628664495114007</v>
       </c>
     </row>
-    <row r="195" spans="1:23">
+    <row r="195" spans="1:24">
       <c r="A195" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B195">
         <v>613</v>
@@ -14954,21 +15539,24 @@
         <v>614.7666666666667</v>
       </c>
       <c r="T195">
+        <v>613.3333333333334</v>
+      </c>
+      <c r="U195">
         <v>-0.53125</v>
       </c>
-      <c r="U195">
+      <c r="V195">
         <v>-0.0002706286704015071</v>
       </c>
-      <c r="V195">
+      <c r="W195">
         <v>-0.0003252208791805211</v>
       </c>
-      <c r="W195">
+      <c r="X195">
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:23">
+    <row r="196" spans="1:24">
       <c r="A196" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B196">
         <v>613</v>
@@ -15025,21 +15613,24 @@
         <v>614.5666666666667</v>
       </c>
       <c r="T196">
+        <v>613</v>
+      </c>
+      <c r="U196">
         <v>-0.53125</v>
       </c>
-      <c r="U196">
+      <c r="V196">
         <v>-0.0002436317370942964</v>
       </c>
-      <c r="V196">
+      <c r="W196">
         <v>-0.0003253266822099699</v>
       </c>
-      <c r="W196">
+      <c r="X196">
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:23">
+    <row r="197" spans="1:24">
       <c r="A197" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B197">
         <v>612.5</v>
@@ -15096,21 +15687,24 @@
         <v>614.3666666666667</v>
       </c>
       <c r="T197">
+        <v>612.8333333333334</v>
+      </c>
+      <c r="U197">
         <v>-0.625</v>
       </c>
-      <c r="U197">
+      <c r="V197">
         <v>-0.0002978446875337992</v>
       </c>
-      <c r="V197">
+      <c r="W197">
         <v>-0.0003254325541032221</v>
       </c>
-      <c r="W197">
+      <c r="X197">
         <v>-0.0008156606851549286</v>
       </c>
     </row>
-    <row r="198" spans="1:23">
+    <row r="198" spans="1:24">
       <c r="A198" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B198">
         <v>613</v>
@@ -15167,21 +15761,24 @@
         <v>614.2</v>
       </c>
       <c r="T198">
+        <v>612.8333333333334</v>
+      </c>
+      <c r="U198">
         <v>-0.71875</v>
       </c>
-      <c r="U198">
+      <c r="V198">
         <v>-0.0002166788548522147</v>
       </c>
-      <c r="V198">
+      <c r="W198">
         <v>-0.0002712820791057613</v>
       </c>
-      <c r="W198">
+      <c r="X198">
         <v>0.0008163265306122547</v>
       </c>
     </row>
-    <row r="199" spans="1:23">
+    <row r="199" spans="1:24">
       <c r="A199" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B199">
         <v>611</v>
@@ -15238,21 +15835,24 @@
         <v>613.8666666666667</v>
       </c>
       <c r="T199">
+        <v>612.1666666666666</v>
+      </c>
+      <c r="U199">
         <v>-1</v>
       </c>
-      <c r="U199">
+      <c r="V199">
         <v>-0.0003250887221304399</v>
       </c>
-      <c r="V199">
+      <c r="W199">
         <v>-0.0005427113860849708</v>
       </c>
-      <c r="W199">
+      <c r="X199">
         <v>-0.003262642740619937</v>
       </c>
     </row>
-    <row r="200" spans="1:23">
+    <row r="200" spans="1:24">
       <c r="A200" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B200">
         <v>611.5</v>
@@ -15309,21 +15909,24 @@
         <v>613.6</v>
       </c>
       <c r="T200">
+        <v>611.8333333333334</v>
+      </c>
+      <c r="U200">
         <v>-1.09375</v>
       </c>
-      <c r="U200">
+      <c r="V200">
         <v>-0.0002980949025770396</v>
       </c>
-      <c r="V200">
+      <c r="W200">
         <v>-0.0004344048653344146</v>
       </c>
-      <c r="W200">
+      <c r="X200">
         <v>0.0008183306055646877</v>
       </c>
     </row>
-    <row r="201" spans="1:23">
+    <row r="201" spans="1:24">
       <c r="A201" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B201">
         <v>610.5</v>
@@ -15380,21 +15983,24 @@
         <v>613.3666666666667</v>
       </c>
       <c r="T201">
+        <v>611</v>
+      </c>
+      <c r="U201">
         <v>-1.21875</v>
       </c>
-      <c r="U201">
+      <c r="V201">
         <v>-0.0002981837896449679</v>
       </c>
-      <c r="V201">
+      <c r="W201">
         <v>-0.0003802694480661284</v>
       </c>
-      <c r="W201">
+      <c r="X201">
         <v>-0.001635322976287767</v>
       </c>
     </row>
-    <row r="202" spans="1:23">
+    <row r="202" spans="1:24">
       <c r="A202" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B202">
         <v>611</v>
@@ -15451,21 +16057,24 @@
         <v>613.1333333333333</v>
       </c>
       <c r="T202">
+        <v>611</v>
+      </c>
+      <c r="U202">
         <v>-1.28125</v>
       </c>
-      <c r="U202">
+      <c r="V202">
         <v>-0.0003253884324411205</v>
       </c>
-      <c r="V202">
+      <c r="W202">
         <v>-0.0003804141079289947</v>
       </c>
-      <c r="W202">
+      <c r="X202">
         <v>0.0008190008190007703</v>
       </c>
     </row>
-    <row r="203" spans="1:23">
+    <row r="203" spans="1:24">
       <c r="A203" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B203">
         <v>612</v>
@@ -15522,21 +16131,24 @@
         <v>612.9666666666667</v>
       </c>
       <c r="T203">
+        <v>611.1666666666666</v>
+      </c>
+      <c r="U203">
         <v>-1.25</v>
       </c>
-      <c r="U203">
+      <c r="V203">
         <v>-0.0002441207584019667</v>
       </c>
-      <c r="V203">
+      <c r="W203">
         <v>-0.0002718277699249594</v>
       </c>
-      <c r="W203">
+      <c r="X203">
         <v>0.001636661211129375</v>
       </c>
     </row>
-    <row r="204" spans="1:23">
+    <row r="204" spans="1:24">
       <c r="A204" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B204">
         <v>612.5</v>
@@ -15593,21 +16205,24 @@
         <v>612.8</v>
       </c>
       <c r="T204">
+        <v>611.8333333333334</v>
+      </c>
+      <c r="U204">
         <v>-1.1875</v>
       </c>
-      <c r="U204">
+      <c r="V204">
         <v>-0.0001899180639209908</v>
       </c>
-      <c r="V204">
+      <c r="W204">
         <v>-0.0002719016803525154</v>
       </c>
-      <c r="W204">
+      <c r="X204">
         <v>0.0008169934640522847</v>
       </c>
     </row>
-    <row r="205" spans="1:23">
+    <row r="205" spans="1:24">
       <c r="A205" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B205">
         <v>613</v>
@@ -15664,21 +16279,24 @@
         <v>612.6666666666666</v>
       </c>
       <c r="T205">
+        <v>612.5</v>
+      </c>
+      <c r="U205">
         <v>-1</v>
       </c>
-      <c r="U205">
+      <c r="V205">
         <v>-0.000162817833979978</v>
       </c>
-      <c r="V205">
+      <c r="W205">
         <v>-0.0002175805047867074</v>
       </c>
-      <c r="W205">
+      <c r="X205">
         <v>0.0008163265306122547</v>
       </c>
     </row>
-    <row r="206" spans="1:23">
+    <row r="206" spans="1:24">
       <c r="A206" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B206">
         <v>613</v>
@@ -15735,21 +16353,24 @@
         <v>612.5</v>
       </c>
       <c r="T206">
+        <v>612.8333333333334</v>
+      </c>
+      <c r="U206">
         <v>-0.875</v>
       </c>
-      <c r="U206">
+      <c r="V206">
         <v>-0.000189985072601484</v>
       </c>
-      <c r="V206">
+      <c r="W206">
         <v>-0.0002720348204569012</v>
       </c>
-      <c r="W206">
+      <c r="X206">
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:23">
+    <row r="207" spans="1:24">
       <c r="A207" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B207">
         <v>613</v>
@@ -15806,21 +16427,24 @@
         <v>612.4</v>
       </c>
       <c r="T207">
+        <v>613</v>
+      </c>
+      <c r="U207">
         <v>-0.46875</v>
       </c>
-      <c r="U207">
+      <c r="V207">
         <v>-0.0001900211737879687</v>
       </c>
-      <c r="V207">
+      <c r="W207">
         <v>-0.0001632653061225398</v>
       </c>
-      <c r="W207">
+      <c r="X207">
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:23">
+    <row r="208" spans="1:24">
       <c r="A208" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B208">
         <v>612</v>
@@ -15877,21 +16501,24 @@
         <v>612.2666666666667</v>
       </c>
       <c r="T208">
+        <v>612.6666666666666</v>
+      </c>
+      <c r="U208">
         <v>-0.25</v>
       </c>
-      <c r="U208">
+      <c r="V208">
         <v>-0.0002172083299394334</v>
       </c>
-      <c r="V208">
+      <c r="W208">
         <v>-0.0002177226213803118</v>
       </c>
-      <c r="W208">
+      <c r="X208">
         <v>-0.001631321370309968</v>
       </c>
     </row>
-    <row r="209" spans="1:23">
+    <row r="209" spans="1:24">
       <c r="A209" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B209">
         <v>611.5</v>
@@ -15948,21 +16575,24 @@
         <v>612.1666666666666</v>
       </c>
       <c r="T209">
+        <v>612.1666666666666</v>
+      </c>
+      <c r="U209">
         <v>0.03125</v>
       </c>
-      <c r="U209">
+      <c r="V209">
         <v>-0.0002444124596040487</v>
       </c>
-      <c r="V209">
+      <c r="W209">
         <v>-0.0001633275261324618</v>
       </c>
-      <c r="W209">
+      <c r="X209">
         <v>-0.0008169934640522847</v>
       </c>
     </row>
-    <row r="210" spans="1:23">
+    <row r="210" spans="1:24">
       <c r="A210" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B210">
         <v>611</v>
@@ -16019,21 +16649,24 @@
         <v>612.0333333333333</v>
       </c>
       <c r="T210">
+        <v>611.5</v>
+      </c>
+      <c r="U210">
         <v>0.15625</v>
       </c>
-      <c r="U210">
+      <c r="V210">
         <v>-0.0002716357907318612</v>
       </c>
-      <c r="V210">
+      <c r="W210">
         <v>-0.0002178056084943814</v>
       </c>
-      <c r="W210">
+      <c r="X210">
         <v>-0.0008176614881438837</v>
       </c>
     </row>
-    <row r="211" spans="1:23">
+    <row r="211" spans="1:24">
       <c r="A211" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B211">
         <v>611</v>
@@ -16090,21 +16723,24 @@
         <v>611.9</v>
       </c>
       <c r="T211">
+        <v>611.1666666666666</v>
+      </c>
+      <c r="U211">
         <v>0.15625</v>
       </c>
-      <c r="U211">
+      <c r="V211">
         <v>-0.0002717095967829097</v>
       </c>
-      <c r="V211">
+      <c r="W211">
         <v>-0.0002178530581122828</v>
       </c>
-      <c r="W211">
+      <c r="X211">
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:23">
+    <row r="212" spans="1:24">
       <c r="A212" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B212">
         <v>612</v>
@@ -16161,21 +16797,24 @@
         <v>611.8666666666667</v>
       </c>
       <c r="T212">
+        <v>611.3333333333334</v>
+      </c>
+      <c r="U212">
         <v>0.15625</v>
       </c>
-      <c r="U212">
+      <c r="V212">
         <v>-0.0001902484100668733</v>
       </c>
-      <c r="V212">
+      <c r="W212">
         <v>-5.447513210210531E-05</v>
       </c>
-      <c r="W212">
+      <c r="X212">
         <v>0.001636661211129375</v>
       </c>
     </row>
-    <row r="213" spans="1:23">
+    <row r="213" spans="1:24">
       <c r="A213" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B213">
         <v>612</v>
@@ -16232,21 +16871,24 @@
         <v>611.8</v>
       </c>
       <c r="T213">
+        <v>611.6666666666666</v>
+      </c>
+      <c r="U213">
         <v>0.0625</v>
       </c>
-      <c r="U213">
+      <c r="V213">
         <v>-0.0001902846114116841</v>
       </c>
-      <c r="V213">
+      <c r="W213">
         <v>-0.0001089561996078237</v>
       </c>
-      <c r="W213">
+      <c r="X213">
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:23">
+    <row r="214" spans="1:24">
       <c r="A214" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B214">
         <v>612</v>
@@ -16303,21 +16945,24 @@
         <v>611.8666666666667</v>
       </c>
       <c r="T214">
+        <v>612</v>
+      </c>
+      <c r="U214">
         <v>0</v>
       </c>
-      <c r="U214">
+      <c r="V214">
         <v>-0.0002175095160412699</v>
       </c>
-      <c r="V214">
+      <c r="W214">
         <v>0.0001089680723549424</v>
       </c>
-      <c r="W214">
+      <c r="X214">
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:23">
+    <row r="215" spans="1:24">
       <c r="A215" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B215">
         <v>613.5</v>
@@ -16374,21 +17019,24 @@
         <v>612</v>
       </c>
       <c r="T215">
+        <v>612.5</v>
+      </c>
+      <c r="U215">
         <v>-0.09375</v>
       </c>
-      <c r="U215">
+      <c r="V215">
         <v>-0.0001087784183618767</v>
       </c>
-      <c r="V215">
+      <c r="W215">
         <v>0.0002179123992154253</v>
       </c>
-      <c r="W215">
+      <c r="X215">
         <v>0.002450980392156854</v>
       </c>
     </row>
-    <row r="216" spans="1:23">
+    <row r="216" spans="1:24">
       <c r="A216" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B216">
         <v>613.5</v>
@@ -16445,21 +17093,24 @@
         <v>612.2</v>
       </c>
       <c r="T216">
+        <v>613</v>
+      </c>
+      <c r="U216">
         <v>-0.03125</v>
       </c>
-      <c r="U216">
+      <c r="V216">
         <v>-2.719756309832455E-05</v>
       </c>
-      <c r="V216">
+      <c r="W216">
         <v>0.0003267973856209139</v>
       </c>
-      <c r="W216">
+      <c r="X216">
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:23">
+    <row r="217" spans="1:24">
       <c r="A217" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B217">
         <v>613.5</v>
@@ -16516,21 +17167,24 @@
         <v>612.3666666666667</v>
       </c>
       <c r="T217">
+        <v>613.5</v>
+      </c>
+      <c r="U217">
         <v>0.03125</v>
       </c>
-      <c r="U217">
+      <c r="V217">
         <v>-5.439660565176307E-05</v>
       </c>
-      <c r="V217">
+      <c r="W217">
         <v>0.0002722421866492297</v>
       </c>
-      <c r="W217">
+      <c r="X217">
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:23">
+    <row r="218" spans="1:24">
       <c r="A218" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B218">
         <v>614</v>
@@ -16587,21 +17241,24 @@
         <v>612.5</v>
       </c>
       <c r="T218">
+        <v>613.6666666666666</v>
+      </c>
+      <c r="U218">
         <v>0.21875</v>
       </c>
-      <c r="U218">
+      <c r="V218">
         <v>-2.719978240173226E-05</v>
       </c>
-      <c r="V218">
+      <c r="W218">
         <v>0.0002177344728104824</v>
       </c>
-      <c r="W218">
+      <c r="X218">
         <v>0.0008149959250203231</v>
       </c>
     </row>
-    <row r="219" spans="1:23">
+    <row r="219" spans="1:24">
       <c r="A219" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B219">
         <v>614</v>
@@ -16658,21 +17315,24 @@
         <v>612.6</v>
       </c>
       <c r="T219">
+        <v>613.8333333333334</v>
+      </c>
+      <c r="U219">
         <v>0.46875</v>
       </c>
-      <c r="U219">
+      <c r="V219">
         <v>-5.440104450005201E-05</v>
       </c>
-      <c r="V219">
+      <c r="W219">
         <v>0.0001632653061225398</v>
       </c>
-      <c r="W219">
+      <c r="X219">
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:23">
+    <row r="220" spans="1:24">
       <c r="A220" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B220">
         <v>614</v>
@@ -16729,21 +17389,24 @@
         <v>612.6666666666666</v>
       </c>
       <c r="T220">
+        <v>614</v>
+      </c>
+      <c r="U220">
         <v>0.625</v>
       </c>
-      <c r="U220">
+      <c r="V220">
         <v>-5.44040041348115E-05</v>
       </c>
-      <c r="V220">
+      <c r="W220">
         <v>0.0001088257699422002</v>
       </c>
-      <c r="W220">
+      <c r="X220">
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:23">
+    <row r="221" spans="1:24">
       <c r="A221" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B221">
         <v>614</v>
@@ -16800,21 +17463,24 @@
         <v>612.7333333333333</v>
       </c>
       <c r="T221">
+        <v>614</v>
+      </c>
+      <c r="U221">
         <v>0.8125</v>
       </c>
-      <c r="U221">
+      <c r="V221">
         <v>-8.161044613708146E-05</v>
       </c>
-      <c r="V221">
+      <c r="W221">
         <v>0.0001088139281828493</v>
       </c>
-      <c r="W221">
+      <c r="X221">
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:23">
+    <row r="222" spans="1:24">
       <c r="A222" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B222">
         <v>614</v>
@@ -16871,21 +17537,24 @@
         <v>612.8</v>
       </c>
       <c r="T222">
+        <v>614</v>
+      </c>
+      <c r="U222">
         <v>1</v>
       </c>
-      <c r="U222">
+      <c r="V222">
         <v>-2.72057023151806E-05</v>
       </c>
-      <c r="V222">
+      <c r="W222">
         <v>0.000108802089000104</v>
       </c>
-      <c r="W222">
+      <c r="X222">
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:23">
+    <row r="223" spans="1:24">
       <c r="A223" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B223">
         <v>613.5</v>
@@ -16942,21 +17611,24 @@
         <v>612.9</v>
       </c>
       <c r="T223">
+        <v>613.8333333333334</v>
+      </c>
+      <c r="U223">
         <v>0.96875</v>
       </c>
-      <c r="U223">
+      <c r="V223">
         <v>-2.720644248555004E-05</v>
       </c>
-      <c r="V223">
+      <c r="W223">
         <v>0.0001631853785901693</v>
       </c>
-      <c r="W223">
+      <c r="X223">
         <v>-0.0008143322475570036</v>
       </c>
     </row>
-    <row r="224" spans="1:23">
+    <row r="224" spans="1:24">
       <c r="A224" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B224">
         <v>613</v>
@@ -17013,21 +17685,24 @@
         <v>613</v>
       </c>
       <c r="T224">
+        <v>613.5</v>
+      </c>
+      <c r="U224">
         <v>0.84375</v>
       </c>
-      <c r="U224">
+      <c r="V224">
         <v>0</v>
       </c>
-      <c r="V224">
+      <c r="W224">
         <v>0.0001631587534671741</v>
       </c>
-      <c r="W224">
+      <c r="X224">
         <v>-0.0008149959250203231</v>
       </c>
     </row>
-    <row r="225" spans="1:23">
+    <row r="225" spans="1:24">
       <c r="A225" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B225">
         <v>612.5</v>
@@ -17084,21 +17759,24 @@
         <v>613.1</v>
       </c>
       <c r="T225">
+        <v>613</v>
+      </c>
+      <c r="U225">
         <v>0.65625</v>
       </c>
-      <c r="U225">
+      <c r="V225">
         <v>-2.720718269622058E-05</v>
       </c>
-      <c r="V225">
+      <c r="W225">
         <v>0.0001631321370310079</v>
       </c>
-      <c r="W225">
+      <c r="X225">
         <v>-0.0008156606851549286</v>
       </c>
     </row>
-    <row r="226" spans="1:23">
+    <row r="226" spans="1:24">
       <c r="A226" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B226">
         <v>612.5</v>
@@ -17155,15 +17833,18 @@
         <v>613.2</v>
       </c>
       <c r="T226">
+        <v>612.6666666666666</v>
+      </c>
+      <c r="U226">
         <v>0.375</v>
       </c>
-      <c r="U226">
+      <c r="V226">
         <v>-2.720792294730323E-05</v>
       </c>
-      <c r="V226">
+      <c r="W226">
         <v>0.0001631055292774519</v>
       </c>
-      <c r="W226">
+      <c r="X226">
         <v>0</v>
       </c>
     </row>
